--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3839B555-96B6-42A7-A85F-9B88665E3C9B}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC4BD62-2F7B-4BCB-BC79-138AA725A6EB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -304,10 +304,13 @@
     <t>Protocols</t>
   </si>
   <si>
-    <t>Thesis-Meeting 1</t>
-  </si>
-  <si>
     <t>setup project on github</t>
+  </si>
+  <si>
+    <t>Thesis-Meetings</t>
+  </si>
+  <si>
+    <t>Familiarize with the data</t>
   </si>
 </sst>
 </file>
@@ -1967,11 +1970,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM40"/>
+  <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="9" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>49</v>
@@ -2825,9 +2828,13 @@
       <c r="B10" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="81" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="74"/>
-      <c r="E10" s="83"/>
+      <c r="E10" s="83">
+        <v>1.5</v>
+      </c>
       <c r="F10" s="73">
         <f>Projektanfang+6</f>
         <v>45350</v>
@@ -2910,7 +2917,7 @@
         <v>45344</v>
       </c>
       <c r="G11" s="73">
-        <f>F39</f>
+        <f>F40</f>
         <v>45478</v>
       </c>
       <c r="J11" s="21"/>
@@ -2984,7 +2991,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="str">
-        <f t="shared" ref="I12:I40" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="I12:I41" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="J12" s="21"/>
@@ -3055,23 +3062,23 @@
         <v>18</v>
       </c>
       <c r="D13" s="14">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E13" s="41">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="F13" s="55">
         <f>Projektanfang</f>
         <v>45344</v>
       </c>
       <c r="G13" s="55">
-        <f>F13+12</f>
-        <v>45356</v>
+        <f>F13+19</f>
+        <v>45363</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -3141,14 +3148,16 @@
       <c r="D14" s="14">
         <v>0</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="41">
+        <v>2.5</v>
+      </c>
       <c r="F14" s="55">
         <f>F13</f>
         <v>45344</v>
       </c>
       <c r="G14" s="55">
-        <f t="shared" ref="G14:G18" si="6">F14+12</f>
-        <v>45356</v>
+        <f>F14+19</f>
+        <v>45363</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3220,14 +3229,16 @@
       <c r="D15" s="14">
         <v>0</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="41">
+        <v>0.25</v>
+      </c>
       <c r="F15" s="55">
         <f>F13</f>
         <v>45344</v>
       </c>
       <c r="G15" s="55">
-        <f t="shared" si="6"/>
-        <v>45356</v>
+        <f>F15+19</f>
+        <v>45363</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3299,23 +3310,23 @@
         <v>18</v>
       </c>
       <c r="D16" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="41">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="F16" s="55">
         <f>F13</f>
         <v>45344</v>
       </c>
       <c r="G16" s="55">
-        <f t="shared" si="6"/>
-        <v>45356</v>
+        <f>F16+19</f>
+        <v>45363</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -3393,7 +3404,7 @@
         <v>45344</v>
       </c>
       <c r="G17" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G17:G18" si="6">F17+12</f>
         <v>45356</v>
       </c>
       <c r="H17" s="11"/>
@@ -3458,7 +3469,7 @@
     <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="35"/>
       <c r="B18" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>18</v>
@@ -3764,15 +3775,17 @@
     <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="35"/>
       <c r="B22" s="48" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="43"/>
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="43">
+        <v>0.25</v>
+      </c>
       <c r="F22" s="58">
         <f>F21</f>
         <v>45357</v>
@@ -3843,7 +3856,7 @@
     <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="35"/>
       <c r="B23" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>18</v>
@@ -3853,12 +3866,12 @@
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="58">
-        <f>G22</f>
+        <f>F21</f>
+        <v>45357</v>
+      </c>
+      <c r="G23" s="58">
+        <f>G21</f>
         <v>45364</v>
-      </c>
-      <c r="G23" s="58">
-        <f>F34-1</f>
-        <v>45459</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3920,9 +3933,9 @@
       <c r="BM23" s="21"/>
     </row>
     <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="48" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>18</v>
@@ -3932,18 +3945,15 @@
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="58">
-        <f>F23</f>
+        <f>G23</f>
         <v>45364</v>
       </c>
       <c r="G24" s="58">
-        <f>G23</f>
+        <f>F35-1</f>
         <v>45459</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11">
-        <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
+      <c r="I24" s="11"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -3956,8 +3966,8 @@
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
@@ -4004,7 +4014,7 @@
     <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="34"/>
       <c r="B25" s="48" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>18</v>
@@ -4038,8 +4048,8 @@
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
@@ -4085,16 +4095,29 @@
     </row>
     <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="34"/>
-      <c r="B26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="58">
+        <f>F25</f>
+        <v>45364</v>
+      </c>
+      <c r="G26" s="58">
+        <f>G25</f>
+        <v>45459</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -4154,29 +4177,16 @@
     </row>
     <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="34"/>
-      <c r="B27" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="58">
-        <f>F25</f>
-        <v>45364</v>
-      </c>
-      <c r="G27" s="58">
-        <f>G25</f>
-        <v>45459</v>
-      </c>
+      <c r="B27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11">
-        <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
+      <c r="I27" s="11"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -4193,7 +4203,7 @@
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
-      <c r="Z27" s="22"/>
+      <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
@@ -4237,7 +4247,7 @@
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="34"/>
       <c r="B28" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="43" t="s">
         <v>18</v>
@@ -4247,15 +4257,18 @@
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="58">
-        <f>F27</f>
+        <f>F26</f>
         <v>45364</v>
       </c>
       <c r="G28" s="58">
-        <f>G27</f>
+        <f>G26</f>
         <v>45459</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -4316,7 +4329,7 @@
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="34"/>
       <c r="B29" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>18</v>
@@ -4326,11 +4339,11 @@
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="58">
-        <f t="shared" ref="F29:F33" si="7">F28</f>
+        <f>F28</f>
         <v>45364</v>
       </c>
       <c r="G29" s="58">
-        <f t="shared" ref="G29:G33" si="8">G28</f>
+        <f>G28</f>
         <v>45459</v>
       </c>
       <c r="H29" s="11"/>
@@ -4395,7 +4408,7 @@
     <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="34"/>
       <c r="B30" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>18</v>
@@ -4405,11 +4418,11 @@
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F30:F34" si="7">F29</f>
         <v>45364</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G30:G34" si="8">G29</f>
         <v>45459</v>
       </c>
       <c r="H30" s="11"/>
@@ -4474,7 +4487,7 @@
     <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="34"/>
       <c r="B31" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>18</v>
@@ -4553,7 +4566,7 @@
     <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="34"/>
       <c r="B32" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>18</v>
@@ -4632,7 +4645,7 @@
     <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="34"/>
       <c r="B33" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>18</v>
@@ -4710,23 +4723,23 @@
     </row>
     <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="34"/>
-      <c r="B34" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="82" t="s">
+      <c r="B34" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="78">
+      <c r="D34" s="17">
         <v>0</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="79">
-        <f>Projektanfang+116</f>
-        <v>45460</v>
-      </c>
-      <c r="G34" s="79">
-        <f>F34+4</f>
-        <v>45464</v>
+      <c r="E34" s="43"/>
+      <c r="F34" s="58">
+        <f t="shared" si="7"/>
+        <v>45364</v>
+      </c>
+      <c r="G34" s="58">
+        <f t="shared" si="8"/>
+        <v>45459</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -4746,7 +4759,7 @@
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="Z34" s="22"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
@@ -4788,22 +4801,27 @@
       <c r="BM34" s="21"/>
     </row>
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="78">
+        <v>0</v>
+      </c>
+      <c r="E35" s="77"/>
+      <c r="F35" s="79">
+        <f>Projektanfang+116</f>
+        <v>45460</v>
+      </c>
+      <c r="G35" s="79">
+        <f>F35+4</f>
+        <v>45464</v>
+      </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="I35" s="11"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -4862,31 +4880,21 @@
       <c r="BM35" s="21"/>
     </row>
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="34"/>
-      <c r="B36" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-      <c r="E36" s="45">
-        <v>0</v>
-      </c>
-      <c r="F36" s="61">
-        <f>G34+1</f>
-        <v>45465</v>
-      </c>
-      <c r="G36" s="61">
-        <f>F36+13</f>
-        <v>45478</v>
-      </c>
+      <c r="A36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="11">
+      <c r="I36" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v/>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -4948,7 +4956,7 @@
     <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="34"/>
       <c r="B37" s="66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>18</v>
@@ -4956,17 +4964,22 @@
       <c r="D37" s="20">
         <v>0</v>
       </c>
-      <c r="E37" s="45"/>
+      <c r="E37" s="45">
+        <v>0</v>
+      </c>
       <c r="F37" s="61">
-        <f>F36</f>
+        <f>G35+1</f>
         <v>45465</v>
       </c>
       <c r="G37" s="61">
-        <f t="shared" ref="G37:G38" si="9">F37+13</f>
+        <f>F37+13</f>
         <v>45478</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
@@ -5027,10 +5040,10 @@
     <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="34"/>
       <c r="B38" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="20">
         <v>0</v>
@@ -5041,7 +5054,7 @@
         <v>45465</v>
       </c>
       <c r="G38" s="61">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G38:G39" si="9">F38+13</f>
         <v>45478</v>
       </c>
       <c r="H38" s="11"/>
@@ -5106,21 +5119,21 @@
     <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="34"/>
       <c r="B39" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="20">
         <v>0</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="61">
-        <f>Projektanfang+134</f>
-        <v>45478</v>
+        <f>F38</f>
+        <v>45465</v>
       </c>
       <c r="G39" s="61">
-        <f>F39</f>
+        <f t="shared" si="9"/>
         <v>45478</v>
       </c>
       <c r="H39" s="11"/>
@@ -5183,25 +5196,27 @@
       <c r="BM39" s="21"/>
     </row>
     <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="84">
-        <f>SUM(E8:E39)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="61">
+        <f>Projektanfang+134</f>
+        <v>45478</v>
+      </c>
+      <c r="G40" s="61">
+        <f>F40</f>
+        <v>45478</v>
+      </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
@@ -5259,6 +5274,83 @@
       <c r="BL40" s="21"/>
       <c r="BM40" s="21"/>
     </row>
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="84">
+        <f>SUM(E8:E40)</f>
+        <v>13.25</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BA41" s="21"/>
+      <c r="BB41" s="21"/>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="21"/>
+      <c r="BE41" s="21"/>
+      <c r="BF41" s="21"/>
+      <c r="BG41" s="21"/>
+      <c r="BH41" s="21"/>
+      <c r="BI41" s="21"/>
+      <c r="BJ41" s="21"/>
+      <c r="BK41" s="21"/>
+      <c r="BL41" s="21"/>
+      <c r="BM41" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C3:D3"/>
@@ -5273,7 +5365,7 @@
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:E7 D27:D40 D8:D25">
+  <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5287,12 +5379,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM40">
+  <conditionalFormatting sqref="J5:BM41">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:BM40">
+  <conditionalFormatting sqref="J7:BM41">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5327,7 +5419,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:E7 D27:D40 D8:D25</xm:sqref>
+          <xm:sqref>D7:E7 D28:D41 D8:D26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="325" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC4BD62-2F7B-4BCB-BC79-138AA725A6EB}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCA9E757-D9F5-40DA-AC56-62BBE6B28A8A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,6 +1345,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1356,12 +1362,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,7 +1973,7 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="94">
+      <c r="F3" s="96">
         <v>45344</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="93">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="91">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="93">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="91">
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="93">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="91">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="93">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91">
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="93">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="91">
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="93">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="91">
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="93">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="91">
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="93">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="95"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -3313,7 +3313,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="41">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="F16" s="55">
         <f>F13</f>
@@ -3784,7 +3784,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="43">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F22" s="58">
         <f>F21</f>
@@ -5285,7 +5285,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>13.25</v>
+        <v>15.75</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -5353,17 +5353,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5531,6 +5531,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5818,36 +5847,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5866,24 +5886,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="328" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCA9E757-D9F5-40DA-AC56-62BBE6B28A8A}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341D007F-3421-41EE-AE25-25B6FFCDFB00}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,23 +1345,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,7 +1973,7 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="96">
+      <c r="F3" s="94">
         <v>45344</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="91">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="93">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="91">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93">
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="91">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="93">
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="91">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="93">
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="91">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="93">
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="91">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="93">
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="91">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="93">
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="91">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="95"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -3227,7 +3227,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="41">
         <v>0.25</v>
@@ -3313,7 +3313,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="55">
         <f>F13</f>
@@ -3784,7 +3784,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="58">
         <f>F21</f>
@@ -5285,7 +5285,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>15.75</v>
+        <v>17.75</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -5353,17 +5353,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5531,35 +5531,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5847,27 +5818,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5886,4 +5866,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341D007F-3421-41EE-AE25-25B6FFCDFB00}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952ECFEC-A086-4AEE-A80D-1B7956FDCC54}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,6 +1345,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1356,12 +1362,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="94">
+      <c r="F3" s="96">
         <v>45344</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="93">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="91">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="93">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="91">
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="93">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="91">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="93">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91">
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="93">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="91">
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="93">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="91">
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="93">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="91">
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="93">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="95"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="55">
         <f>Projektanfang</f>
@@ -5285,7 +5285,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>17.75</v>
+        <v>18.25</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -5353,17 +5353,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5531,6 +5531,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5818,36 +5847,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5866,24 +5886,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952ECFEC-A086-4AEE-A80D-1B7956FDCC54}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A567FAC-F9AB-4C78-A742-0D00251278B3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="73">
         <f>Projektanfang</f>
@@ -2910,7 +2910,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="83">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F11" s="73">
         <f>Projektanfang</f>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="41">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F13" s="55">
         <f>Projektanfang</f>
@@ -3313,7 +3313,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="55">
         <f>F13</f>
@@ -3784,7 +3784,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F22" s="58">
         <f>F21</f>
@@ -5285,7 +5285,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>18.25</v>
+        <v>22.5</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>

--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A567FAC-F9AB-4C78-A742-0D00251278B3}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABB2BAF-1260-43D9-9083-F8AA457EF3D2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,23 +1345,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="96">
+      <c r="F3" s="94">
         <v>45344</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="91">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="93">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="91">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93">
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="91">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="93">
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="91">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="93">
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="91">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="93">
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="91">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="93">
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="91">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="93">
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="91">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="95"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -3313,7 +3313,7 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="55">
         <f>F13</f>
@@ -5285,7 +5285,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -5353,17 +5353,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5531,35 +5531,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5847,27 +5818,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5886,4 +5866,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABB2BAF-1260-43D9-9083-F8AA457EF3D2}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A64414-B5E6-4557-B3B8-B216D16EA833}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,6 +1345,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1356,12 +1362,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="94">
+      <c r="F3" s="96">
         <v>45344</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="93">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="91">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="93">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="91">
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="93">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="91">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="93">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91">
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="93">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="91">
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="93">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="91">
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="93">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="91">
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="93">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="95"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -3146,10 +3146,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="55">
         <f>F13</f>
@@ -3310,7 +3310,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="14">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="41">
         <v>7</v>
@@ -5285,7 +5285,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -5353,17 +5353,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5531,6 +5531,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5818,36 +5847,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5866,24 +5886,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A64414-B5E6-4557-B3B8-B216D16EA833}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F50AC51-34D0-4CDF-AA88-AA548AF89637}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,23 +1345,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="96">
+      <c r="F3" s="94">
         <v>45344</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="91">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="93">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="91">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93">
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="91">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="93">
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="91">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="93">
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="91">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="93">
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="91">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="93">
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="91">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="93">
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="91">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="95"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -3146,7 +3146,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E14" s="41">
         <v>4.5</v>
@@ -3156,8 +3156,8 @@
         <v>45344</v>
       </c>
       <c r="G14" s="55">
-        <f>F14+19</f>
-        <v>45363</v>
+        <f>F14+22</f>
+        <v>45366</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3310,7 +3310,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E16" s="41">
         <v>7</v>
@@ -3320,13 +3320,13 @@
         <v>45344</v>
       </c>
       <c r="G16" s="55">
-        <f>F16+19</f>
-        <v>45363</v>
+        <f>F16+22</f>
+        <v>45366</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -3703,12 +3703,11 @@
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="58">
-        <f>G17+1</f>
-        <v>45357</v>
+        <v>45366</v>
       </c>
       <c r="G21" s="58">
         <f>F21+7</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11">
@@ -3788,11 +3787,11 @@
       </c>
       <c r="F22" s="58">
         <f>F21</f>
-        <v>45357</v>
+        <v>45366</v>
       </c>
       <c r="G22" s="58">
         <f>G21</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3867,11 +3866,11 @@
       <c r="E23" s="43"/>
       <c r="F23" s="58">
         <f>F21</f>
-        <v>45357</v>
+        <v>45366</v>
       </c>
       <c r="G23" s="58">
         <f>G21</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3946,7 +3945,7 @@
       <c r="E24" s="43"/>
       <c r="F24" s="58">
         <f>G23</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G24" s="58">
         <f>F35-1</f>
@@ -4025,7 +4024,7 @@
       <c r="E25" s="43"/>
       <c r="F25" s="58">
         <f>F24</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G25" s="58">
         <f>G24</f>
@@ -4034,7 +4033,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -4107,7 +4106,7 @@
       <c r="E26" s="43"/>
       <c r="F26" s="58">
         <f>F25</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G26" s="58">
         <f>G25</f>
@@ -4116,7 +4115,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -4258,7 +4257,7 @@
       <c r="E28" s="43"/>
       <c r="F28" s="58">
         <f>F26</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G28" s="58">
         <f>G26</f>
@@ -4267,7 +4266,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -4340,7 +4339,7 @@
       <c r="E29" s="43"/>
       <c r="F29" s="58">
         <f>F28</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G29" s="58">
         <f>G28</f>
@@ -4419,7 +4418,7 @@
       <c r="E30" s="43"/>
       <c r="F30" s="58">
         <f t="shared" ref="F30:F34" si="7">F29</f>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G30" s="58">
         <f t="shared" ref="G30:G34" si="8">G29</f>
@@ -4498,7 +4497,7 @@
       <c r="E31" s="43"/>
       <c r="F31" s="58">
         <f t="shared" si="7"/>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G31" s="58">
         <f t="shared" si="8"/>
@@ -4577,7 +4576,7 @@
       <c r="E32" s="43"/>
       <c r="F32" s="58">
         <f t="shared" si="7"/>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G32" s="58">
         <f t="shared" si="8"/>
@@ -4656,7 +4655,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="58">
         <f t="shared" si="7"/>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G33" s="58">
         <f t="shared" si="8"/>
@@ -4735,7 +4734,7 @@
       <c r="E34" s="43"/>
       <c r="F34" s="58">
         <f t="shared" si="7"/>
-        <v>45364</v>
+        <v>45373</v>
       </c>
       <c r="G34" s="58">
         <f t="shared" si="8"/>
@@ -5353,17 +5352,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5531,35 +5530,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5847,27 +5817,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5886,4 +5865,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="353" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F50AC51-34D0-4CDF-AA88-AA548AF89637}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F261A84-EB3C-4815-A914-40B2F0A23643}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -1345,6 +1345,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1356,12 +1362,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1972,9 +1972,9 @@
   </sheetPr>
   <dimension ref="A1:BM41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2023,108 +2023,108 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="94">
+      <c r="F3" s="96">
         <v>45344</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="93">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="91">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="93">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="91">
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="93">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="91">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="93">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91">
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="93">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="91">
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="93">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="91">
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="93">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="91">
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="93">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="95"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -4021,7 +4021,9 @@
       <c r="D25" s="17">
         <v>0</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="43">
+        <v>1.25</v>
+      </c>
       <c r="F25" s="58">
         <f>F24</f>
         <v>45373</v>
@@ -5284,7 +5286,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>25.5</v>
+        <v>26.75</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -5352,17 +5354,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5530,6 +5532,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5817,36 +5848,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5865,24 +5887,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="356" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F261A84-EB3C-4815-A914-40B2F0A23643}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996FA8E3-DE14-40D7-8226-51F7706F6538}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -1345,12 +1345,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1362,6 +1356,12 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1970,11 +1970,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM41"/>
+  <dimension ref="A1:FG41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1988,11 +1988,10 @@
     <col min="7" max="7" width="10.3984375" customWidth="1"/>
     <col min="8" max="8" width="2.73046875" customWidth="1"/>
     <col min="9" max="9" width="6.1328125" hidden="1" customWidth="1"/>
-    <col min="10" max="65" width="2.59765625" customWidth="1"/>
-    <col min="70" max="71" width="10.265625"/>
+    <col min="10" max="163" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:163" ht="30" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2006,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="50"/>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:163" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -2016,117 +2015,257 @@
       </c>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:163" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="96">
+      <c r="F3" s="94">
         <v>45344</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="94"/>
     </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:163" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="91">
         <f>J5</f>
         <v>45341</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="93">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="91">
         <f>Q5</f>
         <v>45348</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93">
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="91">
         <f>X5</f>
         <v>45355</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="93">
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="91">
         <f>AE5</f>
         <v>45362</v>
       </c>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="93">
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="91">
         <f>AL5</f>
         <v>45369</v>
       </c>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="93">
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="91">
         <f>AS5</f>
         <v>45376</v>
       </c>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="93">
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="91">
         <f>AZ5</f>
         <v>45383</v>
       </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="93">
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="91">
         <f>BG5</f>
         <v>45390</v>
       </c>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="95"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="91">
+        <f>BN5</f>
+        <v>45397</v>
+      </c>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="92"/>
+      <c r="BQ4" s="92"/>
+      <c r="BR4" s="92"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="93"/>
+      <c r="BU4" s="91">
+        <f t="shared" ref="BU4" si="0">BU5</f>
+        <v>45404</v>
+      </c>
+      <c r="BV4" s="92"/>
+      <c r="BW4" s="92"/>
+      <c r="BX4" s="92"/>
+      <c r="BY4" s="92"/>
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="91">
+        <f t="shared" ref="CB4" si="1">CB5</f>
+        <v>45411</v>
+      </c>
+      <c r="CC4" s="92"/>
+      <c r="CD4" s="92"/>
+      <c r="CE4" s="92"/>
+      <c r="CF4" s="92"/>
+      <c r="CG4" s="92"/>
+      <c r="CH4" s="93"/>
+      <c r="CI4" s="91">
+        <f t="shared" ref="CI4" si="2">CI5</f>
+        <v>45418</v>
+      </c>
+      <c r="CJ4" s="92"/>
+      <c r="CK4" s="92"/>
+      <c r="CL4" s="92"/>
+      <c r="CM4" s="92"/>
+      <c r="CN4" s="92"/>
+      <c r="CO4" s="93"/>
+      <c r="CP4" s="91">
+        <f t="shared" ref="CP4" si="3">CP5</f>
+        <v>45425</v>
+      </c>
+      <c r="CQ4" s="92"/>
+      <c r="CR4" s="92"/>
+      <c r="CS4" s="92"/>
+      <c r="CT4" s="92"/>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="93"/>
+      <c r="CW4" s="91">
+        <f t="shared" ref="CW4" si="4">CW5</f>
+        <v>45432</v>
+      </c>
+      <c r="CX4" s="92"/>
+      <c r="CY4" s="92"/>
+      <c r="CZ4" s="92"/>
+      <c r="DA4" s="92"/>
+      <c r="DB4" s="92"/>
+      <c r="DC4" s="93"/>
+      <c r="DD4" s="91">
+        <f t="shared" ref="DD4" si="5">DD5</f>
+        <v>45439</v>
+      </c>
+      <c r="DE4" s="92"/>
+      <c r="DF4" s="92"/>
+      <c r="DG4" s="92"/>
+      <c r="DH4" s="92"/>
+      <c r="DI4" s="92"/>
+      <c r="DJ4" s="93"/>
+      <c r="DK4" s="91">
+        <f t="shared" ref="DK4" si="6">DK5</f>
+        <v>45446</v>
+      </c>
+      <c r="DL4" s="92"/>
+      <c r="DM4" s="92"/>
+      <c r="DN4" s="92"/>
+      <c r="DO4" s="92"/>
+      <c r="DP4" s="92"/>
+      <c r="DQ4" s="93"/>
+      <c r="DR4" s="91">
+        <f t="shared" ref="DR4" si="7">DR5</f>
+        <v>45453</v>
+      </c>
+      <c r="DS4" s="92"/>
+      <c r="DT4" s="92"/>
+      <c r="DU4" s="92"/>
+      <c r="DV4" s="92"/>
+      <c r="DW4" s="92"/>
+      <c r="DX4" s="93"/>
+      <c r="DY4" s="91">
+        <f t="shared" ref="DY4" si="8">DY5</f>
+        <v>45460</v>
+      </c>
+      <c r="DZ4" s="92"/>
+      <c r="EA4" s="92"/>
+      <c r="EB4" s="92"/>
+      <c r="EC4" s="92"/>
+      <c r="ED4" s="92"/>
+      <c r="EE4" s="93"/>
+      <c r="EF4" s="91">
+        <f t="shared" ref="EF4" si="9">EF5</f>
+        <v>45467</v>
+      </c>
+      <c r="EG4" s="92"/>
+      <c r="EH4" s="92"/>
+      <c r="EI4" s="92"/>
+      <c r="EJ4" s="92"/>
+      <c r="EK4" s="92"/>
+      <c r="EL4" s="93"/>
+      <c r="EM4" s="91">
+        <f t="shared" ref="EM4" si="10">EM5</f>
+        <v>45474</v>
+      </c>
+      <c r="EN4" s="92"/>
+      <c r="EO4" s="92"/>
+      <c r="EP4" s="92"/>
+      <c r="EQ4" s="92"/>
+      <c r="ER4" s="92"/>
+      <c r="ES4" s="93"/>
+      <c r="ET4" s="91">
+        <f t="shared" ref="ET4" si="11">ET5</f>
+        <v>45481</v>
+      </c>
+      <c r="EU4" s="92"/>
+      <c r="EV4" s="92"/>
+      <c r="EW4" s="92"/>
+      <c r="EX4" s="92"/>
+      <c r="EY4" s="92"/>
+      <c r="EZ4" s="93"/>
+      <c r="FA4" s="91">
+        <f t="shared" ref="FA4" si="12">FA5</f>
+        <v>45488</v>
+      </c>
+      <c r="FB4" s="92"/>
+      <c r="FC4" s="92"/>
+      <c r="FD4" s="92"/>
+      <c r="FE4" s="92"/>
+      <c r="FF4" s="92"/>
+      <c r="FG4" s="93"/>
     </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:163" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
@@ -2146,23 +2285,23 @@
         <v>45342</v>
       </c>
       <c r="L5" s="64">
-        <f t="shared" ref="L5:AY5" si="0">K5+1</f>
+        <f t="shared" ref="L5:AY5" si="13">K5+1</f>
         <v>45343</v>
       </c>
       <c r="M5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45344</v>
       </c>
       <c r="N5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45345</v>
       </c>
       <c r="O5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45346</v>
       </c>
       <c r="P5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45347</v>
       </c>
       <c r="Q5" s="63">
@@ -2174,23 +2313,23 @@
         <v>45349</v>
       </c>
       <c r="S5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45350</v>
       </c>
       <c r="T5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45351</v>
       </c>
       <c r="U5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45352</v>
       </c>
       <c r="V5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45353</v>
       </c>
       <c r="W5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45354</v>
       </c>
       <c r="X5" s="63">
@@ -2202,23 +2341,23 @@
         <v>45356</v>
       </c>
       <c r="Z5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45357</v>
       </c>
       <c r="AA5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45358</v>
       </c>
       <c r="AB5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45359</v>
       </c>
       <c r="AC5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45360</v>
       </c>
       <c r="AD5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45361</v>
       </c>
       <c r="AE5" s="63">
@@ -2230,23 +2369,23 @@
         <v>45363</v>
       </c>
       <c r="AG5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45364</v>
       </c>
       <c r="AH5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45365</v>
       </c>
       <c r="AI5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45366</v>
       </c>
       <c r="AJ5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45367</v>
       </c>
       <c r="AK5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45368</v>
       </c>
       <c r="AL5" s="63">
@@ -2258,23 +2397,23 @@
         <v>45370</v>
       </c>
       <c r="AN5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45371</v>
       </c>
       <c r="AO5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45372</v>
       </c>
       <c r="AP5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45373</v>
       </c>
       <c r="AQ5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45374</v>
       </c>
       <c r="AR5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45375</v>
       </c>
       <c r="AS5" s="63">
@@ -2286,23 +2425,23 @@
         <v>45377</v>
       </c>
       <c r="AU5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45378</v>
       </c>
       <c r="AV5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45379</v>
       </c>
       <c r="AW5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45380</v>
       </c>
       <c r="AX5" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45381</v>
       </c>
       <c r="AY5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>45382</v>
       </c>
       <c r="AZ5" s="63">
@@ -2314,23 +2453,23 @@
         <v>45384</v>
       </c>
       <c r="BB5" s="64">
-        <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
+        <f t="shared" ref="BB5:BF5" si="14">BA5+1</f>
         <v>45385</v>
       </c>
       <c r="BC5" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>45386</v>
       </c>
       <c r="BD5" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>45387</v>
       </c>
       <c r="BE5" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>45388</v>
       </c>
       <c r="BF5" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>45389</v>
       </c>
       <c r="BG5" s="63">
@@ -2342,27 +2481,419 @@
         <v>45391</v>
       </c>
       <c r="BI5" s="64">
-        <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
+        <f t="shared" ref="BI5:BM5" si="15">BH5+1</f>
         <v>45392</v>
       </c>
       <c r="BJ5" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>45393</v>
       </c>
       <c r="BK5" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>45394</v>
       </c>
       <c r="BL5" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>45395</v>
       </c>
       <c r="BM5" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>45396</v>
       </c>
+      <c r="BN5" s="65">
+        <f t="shared" ref="BN5" si="16">BM5+1</f>
+        <v>45397</v>
+      </c>
+      <c r="BO5" s="65">
+        <f t="shared" ref="BO5" si="17">BN5+1</f>
+        <v>45398</v>
+      </c>
+      <c r="BP5" s="65">
+        <f t="shared" ref="BP5" si="18">BO5+1</f>
+        <v>45399</v>
+      </c>
+      <c r="BQ5" s="65">
+        <f t="shared" ref="BQ5" si="19">BP5+1</f>
+        <v>45400</v>
+      </c>
+      <c r="BR5" s="65">
+        <f t="shared" ref="BR5" si="20">BQ5+1</f>
+        <v>45401</v>
+      </c>
+      <c r="BS5" s="65">
+        <f t="shared" ref="BS5" si="21">BR5+1</f>
+        <v>45402</v>
+      </c>
+      <c r="BT5" s="65">
+        <f t="shared" ref="BT5" si="22">BS5+1</f>
+        <v>45403</v>
+      </c>
+      <c r="BU5" s="65">
+        <f t="shared" ref="BU5" si="23">BT5+1</f>
+        <v>45404</v>
+      </c>
+      <c r="BV5" s="65">
+        <f t="shared" ref="BV5" si="24">BU5+1</f>
+        <v>45405</v>
+      </c>
+      <c r="BW5" s="65">
+        <f t="shared" ref="BW5" si="25">BV5+1</f>
+        <v>45406</v>
+      </c>
+      <c r="BX5" s="65">
+        <f t="shared" ref="BX5" si="26">BW5+1</f>
+        <v>45407</v>
+      </c>
+      <c r="BY5" s="65">
+        <f t="shared" ref="BY5" si="27">BX5+1</f>
+        <v>45408</v>
+      </c>
+      <c r="BZ5" s="65">
+        <f t="shared" ref="BZ5" si="28">BY5+1</f>
+        <v>45409</v>
+      </c>
+      <c r="CA5" s="65">
+        <f t="shared" ref="CA5" si="29">BZ5+1</f>
+        <v>45410</v>
+      </c>
+      <c r="CB5" s="65">
+        <f t="shared" ref="CB5" si="30">CA5+1</f>
+        <v>45411</v>
+      </c>
+      <c r="CC5" s="65">
+        <f t="shared" ref="CC5" si="31">CB5+1</f>
+        <v>45412</v>
+      </c>
+      <c r="CD5" s="65">
+        <f t="shared" ref="CD5" si="32">CC5+1</f>
+        <v>45413</v>
+      </c>
+      <c r="CE5" s="65">
+        <f t="shared" ref="CE5" si="33">CD5+1</f>
+        <v>45414</v>
+      </c>
+      <c r="CF5" s="65">
+        <f t="shared" ref="CF5" si="34">CE5+1</f>
+        <v>45415</v>
+      </c>
+      <c r="CG5" s="65">
+        <f t="shared" ref="CG5" si="35">CF5+1</f>
+        <v>45416</v>
+      </c>
+      <c r="CH5" s="65">
+        <f t="shared" ref="CH5" si="36">CG5+1</f>
+        <v>45417</v>
+      </c>
+      <c r="CI5" s="65">
+        <f t="shared" ref="CI5" si="37">CH5+1</f>
+        <v>45418</v>
+      </c>
+      <c r="CJ5" s="65">
+        <f t="shared" ref="CJ5" si="38">CI5+1</f>
+        <v>45419</v>
+      </c>
+      <c r="CK5" s="65">
+        <f t="shared" ref="CK5" si="39">CJ5+1</f>
+        <v>45420</v>
+      </c>
+      <c r="CL5" s="65">
+        <f t="shared" ref="CL5" si="40">CK5+1</f>
+        <v>45421</v>
+      </c>
+      <c r="CM5" s="65">
+        <f t="shared" ref="CM5" si="41">CL5+1</f>
+        <v>45422</v>
+      </c>
+      <c r="CN5" s="65">
+        <f t="shared" ref="CN5" si="42">CM5+1</f>
+        <v>45423</v>
+      </c>
+      <c r="CO5" s="65">
+        <f t="shared" ref="CO5" si="43">CN5+1</f>
+        <v>45424</v>
+      </c>
+      <c r="CP5" s="65">
+        <f t="shared" ref="CP5" si="44">CO5+1</f>
+        <v>45425</v>
+      </c>
+      <c r="CQ5" s="65">
+        <f t="shared" ref="CQ5" si="45">CP5+1</f>
+        <v>45426</v>
+      </c>
+      <c r="CR5" s="65">
+        <f t="shared" ref="CR5" si="46">CQ5+1</f>
+        <v>45427</v>
+      </c>
+      <c r="CS5" s="65">
+        <f t="shared" ref="CS5" si="47">CR5+1</f>
+        <v>45428</v>
+      </c>
+      <c r="CT5" s="65">
+        <f t="shared" ref="CT5" si="48">CS5+1</f>
+        <v>45429</v>
+      </c>
+      <c r="CU5" s="65">
+        <f t="shared" ref="CU5" si="49">CT5+1</f>
+        <v>45430</v>
+      </c>
+      <c r="CV5" s="65">
+        <f t="shared" ref="CV5" si="50">CU5+1</f>
+        <v>45431</v>
+      </c>
+      <c r="CW5" s="65">
+        <f t="shared" ref="CW5" si="51">CV5+1</f>
+        <v>45432</v>
+      </c>
+      <c r="CX5" s="65">
+        <f t="shared" ref="CX5" si="52">CW5+1</f>
+        <v>45433</v>
+      </c>
+      <c r="CY5" s="65">
+        <f t="shared" ref="CY5" si="53">CX5+1</f>
+        <v>45434</v>
+      </c>
+      <c r="CZ5" s="65">
+        <f t="shared" ref="CZ5" si="54">CY5+1</f>
+        <v>45435</v>
+      </c>
+      <c r="DA5" s="65">
+        <f t="shared" ref="DA5" si="55">CZ5+1</f>
+        <v>45436</v>
+      </c>
+      <c r="DB5" s="65">
+        <f t="shared" ref="DB5" si="56">DA5+1</f>
+        <v>45437</v>
+      </c>
+      <c r="DC5" s="65">
+        <f t="shared" ref="DC5" si="57">DB5+1</f>
+        <v>45438</v>
+      </c>
+      <c r="DD5" s="65">
+        <f t="shared" ref="DD5" si="58">DC5+1</f>
+        <v>45439</v>
+      </c>
+      <c r="DE5" s="65">
+        <f t="shared" ref="DE5" si="59">DD5+1</f>
+        <v>45440</v>
+      </c>
+      <c r="DF5" s="65">
+        <f t="shared" ref="DF5" si="60">DE5+1</f>
+        <v>45441</v>
+      </c>
+      <c r="DG5" s="65">
+        <f t="shared" ref="DG5" si="61">DF5+1</f>
+        <v>45442</v>
+      </c>
+      <c r="DH5" s="65">
+        <f t="shared" ref="DH5" si="62">DG5+1</f>
+        <v>45443</v>
+      </c>
+      <c r="DI5" s="65">
+        <f t="shared" ref="DI5" si="63">DH5+1</f>
+        <v>45444</v>
+      </c>
+      <c r="DJ5" s="65">
+        <f t="shared" ref="DJ5" si="64">DI5+1</f>
+        <v>45445</v>
+      </c>
+      <c r="DK5" s="65">
+        <f t="shared" ref="DK5" si="65">DJ5+1</f>
+        <v>45446</v>
+      </c>
+      <c r="DL5" s="65">
+        <f t="shared" ref="DL5" si="66">DK5+1</f>
+        <v>45447</v>
+      </c>
+      <c r="DM5" s="65">
+        <f t="shared" ref="DM5" si="67">DL5+1</f>
+        <v>45448</v>
+      </c>
+      <c r="DN5" s="65">
+        <f t="shared" ref="DN5" si="68">DM5+1</f>
+        <v>45449</v>
+      </c>
+      <c r="DO5" s="65">
+        <f t="shared" ref="DO5" si="69">DN5+1</f>
+        <v>45450</v>
+      </c>
+      <c r="DP5" s="65">
+        <f t="shared" ref="DP5" si="70">DO5+1</f>
+        <v>45451</v>
+      </c>
+      <c r="DQ5" s="65">
+        <f t="shared" ref="DQ5" si="71">DP5+1</f>
+        <v>45452</v>
+      </c>
+      <c r="DR5" s="65">
+        <f t="shared" ref="DR5" si="72">DQ5+1</f>
+        <v>45453</v>
+      </c>
+      <c r="DS5" s="65">
+        <f t="shared" ref="DS5" si="73">DR5+1</f>
+        <v>45454</v>
+      </c>
+      <c r="DT5" s="65">
+        <f t="shared" ref="DT5" si="74">DS5+1</f>
+        <v>45455</v>
+      </c>
+      <c r="DU5" s="65">
+        <f t="shared" ref="DU5" si="75">DT5+1</f>
+        <v>45456</v>
+      </c>
+      <c r="DV5" s="65">
+        <f t="shared" ref="DV5" si="76">DU5+1</f>
+        <v>45457</v>
+      </c>
+      <c r="DW5" s="65">
+        <f t="shared" ref="DW5" si="77">DV5+1</f>
+        <v>45458</v>
+      </c>
+      <c r="DX5" s="65">
+        <f t="shared" ref="DX5" si="78">DW5+1</f>
+        <v>45459</v>
+      </c>
+      <c r="DY5" s="65">
+        <f t="shared" ref="DY5" si="79">DX5+1</f>
+        <v>45460</v>
+      </c>
+      <c r="DZ5" s="65">
+        <f t="shared" ref="DZ5" si="80">DY5+1</f>
+        <v>45461</v>
+      </c>
+      <c r="EA5" s="65">
+        <f t="shared" ref="EA5" si="81">DZ5+1</f>
+        <v>45462</v>
+      </c>
+      <c r="EB5" s="65">
+        <f t="shared" ref="EB5" si="82">EA5+1</f>
+        <v>45463</v>
+      </c>
+      <c r="EC5" s="65">
+        <f t="shared" ref="EC5" si="83">EB5+1</f>
+        <v>45464</v>
+      </c>
+      <c r="ED5" s="65">
+        <f t="shared" ref="ED5" si="84">EC5+1</f>
+        <v>45465</v>
+      </c>
+      <c r="EE5" s="65">
+        <f t="shared" ref="EE5" si="85">ED5+1</f>
+        <v>45466</v>
+      </c>
+      <c r="EF5" s="65">
+        <f t="shared" ref="EF5" si="86">EE5+1</f>
+        <v>45467</v>
+      </c>
+      <c r="EG5" s="65">
+        <f t="shared" ref="EG5" si="87">EF5+1</f>
+        <v>45468</v>
+      </c>
+      <c r="EH5" s="65">
+        <f t="shared" ref="EH5" si="88">EG5+1</f>
+        <v>45469</v>
+      </c>
+      <c r="EI5" s="65">
+        <f t="shared" ref="EI5" si="89">EH5+1</f>
+        <v>45470</v>
+      </c>
+      <c r="EJ5" s="65">
+        <f t="shared" ref="EJ5" si="90">EI5+1</f>
+        <v>45471</v>
+      </c>
+      <c r="EK5" s="65">
+        <f t="shared" ref="EK5" si="91">EJ5+1</f>
+        <v>45472</v>
+      </c>
+      <c r="EL5" s="65">
+        <f t="shared" ref="EL5" si="92">EK5+1</f>
+        <v>45473</v>
+      </c>
+      <c r="EM5" s="65">
+        <f t="shared" ref="EM5" si="93">EL5+1</f>
+        <v>45474</v>
+      </c>
+      <c r="EN5" s="65">
+        <f t="shared" ref="EN5" si="94">EM5+1</f>
+        <v>45475</v>
+      </c>
+      <c r="EO5" s="65">
+        <f t="shared" ref="EO5" si="95">EN5+1</f>
+        <v>45476</v>
+      </c>
+      <c r="EP5" s="65">
+        <f t="shared" ref="EP5" si="96">EO5+1</f>
+        <v>45477</v>
+      </c>
+      <c r="EQ5" s="65">
+        <f t="shared" ref="EQ5" si="97">EP5+1</f>
+        <v>45478</v>
+      </c>
+      <c r="ER5" s="65">
+        <f t="shared" ref="ER5" si="98">EQ5+1</f>
+        <v>45479</v>
+      </c>
+      <c r="ES5" s="65">
+        <f t="shared" ref="ES5" si="99">ER5+1</f>
+        <v>45480</v>
+      </c>
+      <c r="ET5" s="65">
+        <f t="shared" ref="ET5" si="100">ES5+1</f>
+        <v>45481</v>
+      </c>
+      <c r="EU5" s="65">
+        <f t="shared" ref="EU5" si="101">ET5+1</f>
+        <v>45482</v>
+      </c>
+      <c r="EV5" s="65">
+        <f t="shared" ref="EV5" si="102">EU5+1</f>
+        <v>45483</v>
+      </c>
+      <c r="EW5" s="65">
+        <f t="shared" ref="EW5" si="103">EV5+1</f>
+        <v>45484</v>
+      </c>
+      <c r="EX5" s="65">
+        <f t="shared" ref="EX5" si="104">EW5+1</f>
+        <v>45485</v>
+      </c>
+      <c r="EY5" s="65">
+        <f t="shared" ref="EY5" si="105">EX5+1</f>
+        <v>45486</v>
+      </c>
+      <c r="EZ5" s="65">
+        <f t="shared" ref="EZ5" si="106">EY5+1</f>
+        <v>45487</v>
+      </c>
+      <c r="FA5" s="65">
+        <f t="shared" ref="FA5" si="107">EZ5+1</f>
+        <v>45488</v>
+      </c>
+      <c r="FB5" s="65">
+        <f t="shared" ref="FB5" si="108">FA5+1</f>
+        <v>45489</v>
+      </c>
+      <c r="FC5" s="65">
+        <f t="shared" ref="FC5" si="109">FB5+1</f>
+        <v>45490</v>
+      </c>
+      <c r="FD5" s="65">
+        <f t="shared" ref="FD5" si="110">FC5+1</f>
+        <v>45491</v>
+      </c>
+      <c r="FE5" s="65">
+        <f t="shared" ref="FE5" si="111">FD5+1</f>
+        <v>45492</v>
+      </c>
+      <c r="FF5" s="65">
+        <f t="shared" ref="FF5" si="112">FE5+1</f>
+        <v>45493</v>
+      </c>
+      <c r="FG5" s="65">
+        <f t="shared" ref="FG5" si="113">FF5+1</f>
+        <v>45494</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
@@ -2389,231 +2920,623 @@
         <v>14</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="shared" ref="J6:AO6" si="3">LEFT(TEXT(J5,"TTTT"),1)</f>
+        <f t="shared" ref="J6:AO6" si="114">LEFT(TEXT(J5,"TTTT"),1)</f>
         <v>M</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="M6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>F</v>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="P6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="Q6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="R6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="S6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="T6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="U6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>F</v>
       </c>
       <c r="V6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="W6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="X6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="Y6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="Z6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="AA6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="AB6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>F</v>
       </c>
       <c r="AC6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="AD6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="AE6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="AF6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="AG6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="AH6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="AI6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>F</v>
       </c>
       <c r="AJ6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="AK6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>S</v>
       </c>
       <c r="AL6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="AM6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="AN6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>M</v>
       </c>
       <c r="AO6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="114"/>
         <v>D</v>
       </c>
       <c r="AP6" s="9" t="str">
-        <f t="shared" ref="AP6:BM6" si="4">LEFT(TEXT(AP5,"TTTT"),1)</f>
+        <f t="shared" ref="AP6:DA6" si="115">LEFT(TEXT(AP5,"TTTT"),1)</f>
         <v>F</v>
       </c>
       <c r="AQ6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="AR6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="AS6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>M</v>
       </c>
       <c r="AT6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>D</v>
       </c>
       <c r="AU6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>M</v>
       </c>
       <c r="AV6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>D</v>
       </c>
       <c r="AW6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>F</v>
       </c>
       <c r="AX6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="AY6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="AZ6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>M</v>
       </c>
       <c r="BA6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>D</v>
       </c>
       <c r="BB6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>M</v>
       </c>
       <c r="BC6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>D</v>
       </c>
       <c r="BD6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>F</v>
       </c>
       <c r="BE6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="BF6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="BG6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>M</v>
       </c>
       <c r="BH6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>D</v>
       </c>
       <c r="BI6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>M</v>
       </c>
       <c r="BJ6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>D</v>
       </c>
       <c r="BK6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>F</v>
       </c>
       <c r="BL6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
       <c r="BM6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="115"/>
         <v>S</v>
       </c>
+      <c r="BN6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="BO6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="BP6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="BQ6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="BR6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="BS6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="BT6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="BU6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="BV6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="BW6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="BX6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="BY6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="BZ6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CA6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CB6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CC6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CD6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CE6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CF6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="CG6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CI6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CJ6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CK6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CL6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CM6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="CN6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CP6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CQ6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CR6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CS6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CT6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="CU6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CV6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>S</v>
+      </c>
+      <c r="CW6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CX6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="CY6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>M</v>
+      </c>
+      <c r="CZ6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>D</v>
+      </c>
+      <c r="DA6" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>F</v>
+      </c>
+      <c r="DB6" s="9" t="str">
+        <f t="shared" ref="DB6:FG6" si="116">LEFT(TEXT(DB5,"TTTT"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="DC6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DD6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DE6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="DF6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DG6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="DH6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="DI6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DJ6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DK6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DL6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="DM6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DN6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="DO6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="DP6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DQ6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DR6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DS6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="DT6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DU6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="DV6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="DW6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DX6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="DY6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="DZ6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EA6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EB6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EC6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="ED6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="EE6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="EF6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EG6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EH6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EI6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EJ6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="EK6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="EL6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="EM6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EN6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EO6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EP6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EQ6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="ER6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="ES6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="ET6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EU6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EV6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="EW6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="EX6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="EY6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="EZ6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="FA6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="FB6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="FC6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>M</v>
+      </c>
+      <c r="FD6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>D</v>
+      </c>
+      <c r="FE6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>F</v>
+      </c>
+      <c r="FF6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
+      <c r="FG6" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:163" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="34" t="s">
         <v>15</v>
       </c>
@@ -2680,7 +3603,7 @@
       <c r="BL7" s="21"/>
       <c r="BM7" s="21"/>
     </row>
-    <row r="8" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="85" t="s">
         <v>53</v>
       </c>
@@ -2745,8 +3668,106 @@
       <c r="BK8" s="21"/>
       <c r="BL8" s="21"/>
       <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+      <c r="BV8" s="21"/>
+      <c r="BW8" s="21"/>
+      <c r="BX8" s="21"/>
+      <c r="BY8" s="21"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="21"/>
+      <c r="CF8" s="21"/>
+      <c r="CG8" s="21"/>
+      <c r="CH8" s="21"/>
+      <c r="CI8" s="21"/>
+      <c r="CJ8" s="21"/>
+      <c r="CK8" s="21"/>
+      <c r="CL8" s="21"/>
+      <c r="CM8" s="21"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="21"/>
+      <c r="CS8" s="21"/>
+      <c r="CT8" s="21"/>
+      <c r="CU8" s="21"/>
+      <c r="CV8" s="21"/>
+      <c r="CW8" s="21"/>
+      <c r="CX8" s="21"/>
+      <c r="CY8" s="21"/>
+      <c r="CZ8" s="21"/>
+      <c r="DA8" s="21"/>
+      <c r="DB8" s="21"/>
+      <c r="DC8" s="21"/>
+      <c r="DD8" s="21"/>
+      <c r="DE8" s="21"/>
+      <c r="DF8" s="21"/>
+      <c r="DG8" s="21"/>
+      <c r="DH8" s="21"/>
+      <c r="DI8" s="21"/>
+      <c r="DJ8" s="21"/>
+      <c r="DK8" s="21"/>
+      <c r="DL8" s="21"/>
+      <c r="DM8" s="21"/>
+      <c r="DN8" s="21"/>
+      <c r="DO8" s="21"/>
+      <c r="DP8" s="21"/>
+      <c r="DQ8" s="21"/>
+      <c r="DR8" s="21"/>
+      <c r="DS8" s="21"/>
+      <c r="DT8" s="21"/>
+      <c r="DU8" s="21"/>
+      <c r="DV8" s="21"/>
+      <c r="DW8" s="21"/>
+      <c r="DX8" s="21"/>
+      <c r="DY8" s="21"/>
+      <c r="DZ8" s="21"/>
+      <c r="EA8" s="21"/>
+      <c r="EB8" s="21"/>
+      <c r="EC8" s="21"/>
+      <c r="ED8" s="21"/>
+      <c r="EE8" s="21"/>
+      <c r="EF8" s="21"/>
+      <c r="EG8" s="21"/>
+      <c r="EH8" s="21"/>
+      <c r="EI8" s="21"/>
+      <c r="EJ8" s="21"/>
+      <c r="EK8" s="21"/>
+      <c r="EL8" s="21"/>
+      <c r="EM8" s="21"/>
+      <c r="EN8" s="21"/>
+      <c r="EO8" s="21"/>
+      <c r="EP8" s="21"/>
+      <c r="EQ8" s="21"/>
+      <c r="ER8" s="21"/>
+      <c r="ES8" s="21"/>
+      <c r="ET8" s="21"/>
+      <c r="EU8" s="21"/>
+      <c r="EV8" s="21"/>
+      <c r="EW8" s="21"/>
+      <c r="EX8" s="21"/>
+      <c r="EY8" s="21"/>
+      <c r="EZ8" s="21"/>
+      <c r="FA8" s="21"/>
+      <c r="FB8" s="21"/>
+      <c r="FC8" s="21"/>
+      <c r="FD8" s="21"/>
+      <c r="FE8" s="21"/>
+      <c r="FF8" s="21"/>
+      <c r="FG8" s="21"/>
     </row>
-    <row r="9" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="90" t="s">
         <v>75</v>
       </c>
@@ -2823,8 +3844,106 @@
       <c r="BK9" s="21"/>
       <c r="BL9" s="21"/>
       <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21"/>
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21"/>
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21"/>
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
+      <c r="CT9" s="21"/>
+      <c r="CU9" s="21"/>
+      <c r="CV9" s="21"/>
+      <c r="CW9" s="21"/>
+      <c r="CX9" s="21"/>
+      <c r="CY9" s="21"/>
+      <c r="CZ9" s="21"/>
+      <c r="DA9" s="21"/>
+      <c r="DB9" s="21"/>
+      <c r="DC9" s="21"/>
+      <c r="DD9" s="21"/>
+      <c r="DE9" s="21"/>
+      <c r="DF9" s="21"/>
+      <c r="DG9" s="21"/>
+      <c r="DH9" s="21"/>
+      <c r="DI9" s="21"/>
+      <c r="DJ9" s="21"/>
+      <c r="DK9" s="21"/>
+      <c r="DL9" s="21"/>
+      <c r="DM9" s="21"/>
+      <c r="DN9" s="21"/>
+      <c r="DO9" s="21"/>
+      <c r="DP9" s="21"/>
+      <c r="DQ9" s="21"/>
+      <c r="DR9" s="21"/>
+      <c r="DS9" s="21"/>
+      <c r="DT9" s="21"/>
+      <c r="DU9" s="21"/>
+      <c r="DV9" s="21"/>
+      <c r="DW9" s="21"/>
+      <c r="DX9" s="21"/>
+      <c r="DY9" s="21"/>
+      <c r="DZ9" s="21"/>
+      <c r="EA9" s="21"/>
+      <c r="EB9" s="21"/>
+      <c r="EC9" s="21"/>
+      <c r="ED9" s="21"/>
+      <c r="EE9" s="21"/>
+      <c r="EF9" s="21"/>
+      <c r="EG9" s="21"/>
+      <c r="EH9" s="21"/>
+      <c r="EI9" s="21"/>
+      <c r="EJ9" s="21"/>
+      <c r="EK9" s="21"/>
+      <c r="EL9" s="21"/>
+      <c r="EM9" s="21"/>
+      <c r="EN9" s="21"/>
+      <c r="EO9" s="21"/>
+      <c r="EP9" s="21"/>
+      <c r="EQ9" s="21"/>
+      <c r="ER9" s="21"/>
+      <c r="ES9" s="21"/>
+      <c r="ET9" s="21"/>
+      <c r="EU9" s="21"/>
+      <c r="EV9" s="21"/>
+      <c r="EW9" s="21"/>
+      <c r="EX9" s="21"/>
+      <c r="EY9" s="21"/>
+      <c r="EZ9" s="21"/>
+      <c r="FA9" s="21"/>
+      <c r="FB9" s="21"/>
+      <c r="FC9" s="21"/>
+      <c r="FD9" s="21"/>
+      <c r="FE9" s="21"/>
+      <c r="FF9" s="21"/>
+      <c r="FG9" s="21"/>
     </row>
-    <row r="10" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="90" t="s">
         <v>72</v>
       </c>
@@ -2898,8 +4017,106 @@
       <c r="BK10" s="21"/>
       <c r="BL10" s="21"/>
       <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="21"/>
+      <c r="CI10" s="21"/>
+      <c r="CJ10" s="21"/>
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
+      <c r="CM10" s="21"/>
+      <c r="CN10" s="21"/>
+      <c r="CO10" s="21"/>
+      <c r="CP10" s="21"/>
+      <c r="CQ10" s="21"/>
+      <c r="CR10" s="21"/>
+      <c r="CS10" s="21"/>
+      <c r="CT10" s="21"/>
+      <c r="CU10" s="21"/>
+      <c r="CV10" s="21"/>
+      <c r="CW10" s="21"/>
+      <c r="CX10" s="21"/>
+      <c r="CY10" s="21"/>
+      <c r="CZ10" s="21"/>
+      <c r="DA10" s="21"/>
+      <c r="DB10" s="21"/>
+      <c r="DC10" s="21"/>
+      <c r="DD10" s="21"/>
+      <c r="DE10" s="21"/>
+      <c r="DF10" s="21"/>
+      <c r="DG10" s="21"/>
+      <c r="DH10" s="21"/>
+      <c r="DI10" s="21"/>
+      <c r="DJ10" s="21"/>
+      <c r="DK10" s="21"/>
+      <c r="DL10" s="21"/>
+      <c r="DM10" s="21"/>
+      <c r="DN10" s="21"/>
+      <c r="DO10" s="21"/>
+      <c r="DP10" s="21"/>
+      <c r="DQ10" s="21"/>
+      <c r="DR10" s="21"/>
+      <c r="DS10" s="21"/>
+      <c r="DT10" s="21"/>
+      <c r="DU10" s="21"/>
+      <c r="DV10" s="21"/>
+      <c r="DW10" s="21"/>
+      <c r="DX10" s="21"/>
+      <c r="DY10" s="21"/>
+      <c r="DZ10" s="21"/>
+      <c r="EA10" s="21"/>
+      <c r="EB10" s="21"/>
+      <c r="EC10" s="21"/>
+      <c r="ED10" s="21"/>
+      <c r="EE10" s="21"/>
+      <c r="EF10" s="21"/>
+      <c r="EG10" s="21"/>
+      <c r="EH10" s="21"/>
+      <c r="EI10" s="21"/>
+      <c r="EJ10" s="21"/>
+      <c r="EK10" s="21"/>
+      <c r="EL10" s="21"/>
+      <c r="EM10" s="21"/>
+      <c r="EN10" s="21"/>
+      <c r="EO10" s="21"/>
+      <c r="EP10" s="21"/>
+      <c r="EQ10" s="21"/>
+      <c r="ER10" s="21"/>
+      <c r="ES10" s="21"/>
+      <c r="ET10" s="21"/>
+      <c r="EU10" s="21"/>
+      <c r="EV10" s="21"/>
+      <c r="EW10" s="21"/>
+      <c r="EX10" s="21"/>
+      <c r="EY10" s="21"/>
+      <c r="EZ10" s="21"/>
+      <c r="FA10" s="21"/>
+      <c r="FB10" s="21"/>
+      <c r="FC10" s="21"/>
+      <c r="FD10" s="21"/>
+      <c r="FE10" s="21"/>
+      <c r="FF10" s="21"/>
+      <c r="FG10" s="21"/>
     </row>
-    <row r="11" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="90" t="s">
         <v>73</v>
       </c>
@@ -2976,8 +4193,106 @@
       <c r="BK11" s="21"/>
       <c r="BL11" s="21"/>
       <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="21"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="21"/>
+      <c r="BY11" s="21"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="21"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="21"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" s="21"/>
+      <c r="CI11" s="21"/>
+      <c r="CJ11" s="21"/>
+      <c r="CK11" s="21"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="21"/>
+      <c r="CN11" s="21"/>
+      <c r="CO11" s="21"/>
+      <c r="CP11" s="21"/>
+      <c r="CQ11" s="21"/>
+      <c r="CR11" s="21"/>
+      <c r="CS11" s="21"/>
+      <c r="CT11" s="21"/>
+      <c r="CU11" s="21"/>
+      <c r="CV11" s="21"/>
+      <c r="CW11" s="21"/>
+      <c r="CX11" s="21"/>
+      <c r="CY11" s="21"/>
+      <c r="CZ11" s="21"/>
+      <c r="DA11" s="21"/>
+      <c r="DB11" s="21"/>
+      <c r="DC11" s="21"/>
+      <c r="DD11" s="21"/>
+      <c r="DE11" s="21"/>
+      <c r="DF11" s="21"/>
+      <c r="DG11" s="21"/>
+      <c r="DH11" s="21"/>
+      <c r="DI11" s="21"/>
+      <c r="DJ11" s="21"/>
+      <c r="DK11" s="21"/>
+      <c r="DL11" s="21"/>
+      <c r="DM11" s="21"/>
+      <c r="DN11" s="21"/>
+      <c r="DO11" s="21"/>
+      <c r="DP11" s="21"/>
+      <c r="DQ11" s="21"/>
+      <c r="DR11" s="21"/>
+      <c r="DS11" s="21"/>
+      <c r="DT11" s="21"/>
+      <c r="DU11" s="21"/>
+      <c r="DV11" s="21"/>
+      <c r="DW11" s="21"/>
+      <c r="DX11" s="21"/>
+      <c r="DY11" s="21"/>
+      <c r="DZ11" s="21"/>
+      <c r="EA11" s="21"/>
+      <c r="EB11" s="21"/>
+      <c r="EC11" s="21"/>
+      <c r="ED11" s="21"/>
+      <c r="EE11" s="21"/>
+      <c r="EF11" s="21"/>
+      <c r="EG11" s="21"/>
+      <c r="EH11" s="21"/>
+      <c r="EI11" s="21"/>
+      <c r="EJ11" s="21"/>
+      <c r="EK11" s="21"/>
+      <c r="EL11" s="21"/>
+      <c r="EM11" s="21"/>
+      <c r="EN11" s="21"/>
+      <c r="EO11" s="21"/>
+      <c r="EP11" s="21"/>
+      <c r="EQ11" s="21"/>
+      <c r="ER11" s="21"/>
+      <c r="ES11" s="21"/>
+      <c r="ET11" s="21"/>
+      <c r="EU11" s="21"/>
+      <c r="EV11" s="21"/>
+      <c r="EW11" s="21"/>
+      <c r="EX11" s="21"/>
+      <c r="EY11" s="21"/>
+      <c r="EZ11" s="21"/>
+      <c r="FA11" s="21"/>
+      <c r="FB11" s="21"/>
+      <c r="FC11" s="21"/>
+      <c r="FD11" s="21"/>
+      <c r="FE11" s="21"/>
+      <c r="FF11" s="21"/>
+      <c r="FG11" s="21"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
@@ -2991,7 +4306,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="str">
-        <f t="shared" ref="I12:I41" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="I12:I41" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="J12" s="21"/>
@@ -3050,8 +4365,106 @@
       <c r="BK12" s="21"/>
       <c r="BL12" s="21"/>
       <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="21"/>
+      <c r="BV12" s="21"/>
+      <c r="BW12" s="21"/>
+      <c r="BX12" s="21"/>
+      <c r="BY12" s="21"/>
+      <c r="BZ12" s="21"/>
+      <c r="CA12" s="21"/>
+      <c r="CB12" s="21"/>
+      <c r="CC12" s="21"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="21"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="21"/>
+      <c r="CH12" s="21"/>
+      <c r="CI12" s="21"/>
+      <c r="CJ12" s="21"/>
+      <c r="CK12" s="21"/>
+      <c r="CL12" s="21"/>
+      <c r="CM12" s="21"/>
+      <c r="CN12" s="21"/>
+      <c r="CO12" s="21"/>
+      <c r="CP12" s="21"/>
+      <c r="CQ12" s="21"/>
+      <c r="CR12" s="21"/>
+      <c r="CS12" s="21"/>
+      <c r="CT12" s="21"/>
+      <c r="CU12" s="21"/>
+      <c r="CV12" s="21"/>
+      <c r="CW12" s="21"/>
+      <c r="CX12" s="21"/>
+      <c r="CY12" s="21"/>
+      <c r="CZ12" s="21"/>
+      <c r="DA12" s="21"/>
+      <c r="DB12" s="21"/>
+      <c r="DC12" s="21"/>
+      <c r="DD12" s="21"/>
+      <c r="DE12" s="21"/>
+      <c r="DF12" s="21"/>
+      <c r="DG12" s="21"/>
+      <c r="DH12" s="21"/>
+      <c r="DI12" s="21"/>
+      <c r="DJ12" s="21"/>
+      <c r="DK12" s="21"/>
+      <c r="DL12" s="21"/>
+      <c r="DM12" s="21"/>
+      <c r="DN12" s="21"/>
+      <c r="DO12" s="21"/>
+      <c r="DP12" s="21"/>
+      <c r="DQ12" s="21"/>
+      <c r="DR12" s="21"/>
+      <c r="DS12" s="21"/>
+      <c r="DT12" s="21"/>
+      <c r="DU12" s="21"/>
+      <c r="DV12" s="21"/>
+      <c r="DW12" s="21"/>
+      <c r="DX12" s="21"/>
+      <c r="DY12" s="21"/>
+      <c r="DZ12" s="21"/>
+      <c r="EA12" s="21"/>
+      <c r="EB12" s="21"/>
+      <c r="EC12" s="21"/>
+      <c r="ED12" s="21"/>
+      <c r="EE12" s="21"/>
+      <c r="EF12" s="21"/>
+      <c r="EG12" s="21"/>
+      <c r="EH12" s="21"/>
+      <c r="EI12" s="21"/>
+      <c r="EJ12" s="21"/>
+      <c r="EK12" s="21"/>
+      <c r="EL12" s="21"/>
+      <c r="EM12" s="21"/>
+      <c r="EN12" s="21"/>
+      <c r="EO12" s="21"/>
+      <c r="EP12" s="21"/>
+      <c r="EQ12" s="21"/>
+      <c r="ER12" s="21"/>
+      <c r="ES12" s="21"/>
+      <c r="ET12" s="21"/>
+      <c r="EU12" s="21"/>
+      <c r="EV12" s="21"/>
+      <c r="EW12" s="21"/>
+      <c r="EX12" s="21"/>
+      <c r="EY12" s="21"/>
+      <c r="EZ12" s="21"/>
+      <c r="FA12" s="21"/>
+      <c r="FB12" s="21"/>
+      <c r="FC12" s="21"/>
+      <c r="FD12" s="21"/>
+      <c r="FE12" s="21"/>
+      <c r="FF12" s="21"/>
+      <c r="FG12" s="21"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="35" t="s">
         <v>17</v>
       </c>
@@ -3077,7 +4490,7 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v>20</v>
       </c>
       <c r="J13" s="21"/>
@@ -3136,8 +4549,106 @@
       <c r="BK13" s="21"/>
       <c r="BL13" s="21"/>
       <c r="BM13" s="21"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="21"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="21"/>
+      <c r="BW13" s="21"/>
+      <c r="BX13" s="21"/>
+      <c r="BY13" s="21"/>
+      <c r="BZ13" s="21"/>
+      <c r="CA13" s="21"/>
+      <c r="CB13" s="21"/>
+      <c r="CC13" s="21"/>
+      <c r="CD13" s="21"/>
+      <c r="CE13" s="21"/>
+      <c r="CF13" s="21"/>
+      <c r="CG13" s="21"/>
+      <c r="CH13" s="21"/>
+      <c r="CI13" s="21"/>
+      <c r="CJ13" s="21"/>
+      <c r="CK13" s="21"/>
+      <c r="CL13" s="21"/>
+      <c r="CM13" s="21"/>
+      <c r="CN13" s="21"/>
+      <c r="CO13" s="21"/>
+      <c r="CP13" s="21"/>
+      <c r="CQ13" s="21"/>
+      <c r="CR13" s="21"/>
+      <c r="CS13" s="21"/>
+      <c r="CT13" s="21"/>
+      <c r="CU13" s="21"/>
+      <c r="CV13" s="21"/>
+      <c r="CW13" s="21"/>
+      <c r="CX13" s="21"/>
+      <c r="CY13" s="21"/>
+      <c r="CZ13" s="21"/>
+      <c r="DA13" s="21"/>
+      <c r="DB13" s="21"/>
+      <c r="DC13" s="21"/>
+      <c r="DD13" s="21"/>
+      <c r="DE13" s="21"/>
+      <c r="DF13" s="21"/>
+      <c r="DG13" s="21"/>
+      <c r="DH13" s="21"/>
+      <c r="DI13" s="21"/>
+      <c r="DJ13" s="21"/>
+      <c r="DK13" s="21"/>
+      <c r="DL13" s="21"/>
+      <c r="DM13" s="21"/>
+      <c r="DN13" s="21"/>
+      <c r="DO13" s="21"/>
+      <c r="DP13" s="21"/>
+      <c r="DQ13" s="21"/>
+      <c r="DR13" s="21"/>
+      <c r="DS13" s="21"/>
+      <c r="DT13" s="21"/>
+      <c r="DU13" s="21"/>
+      <c r="DV13" s="21"/>
+      <c r="DW13" s="21"/>
+      <c r="DX13" s="21"/>
+      <c r="DY13" s="21"/>
+      <c r="DZ13" s="21"/>
+      <c r="EA13" s="21"/>
+      <c r="EB13" s="21"/>
+      <c r="EC13" s="21"/>
+      <c r="ED13" s="21"/>
+      <c r="EE13" s="21"/>
+      <c r="EF13" s="21"/>
+      <c r="EG13" s="21"/>
+      <c r="EH13" s="21"/>
+      <c r="EI13" s="21"/>
+      <c r="EJ13" s="21"/>
+      <c r="EK13" s="21"/>
+      <c r="EL13" s="21"/>
+      <c r="EM13" s="21"/>
+      <c r="EN13" s="21"/>
+      <c r="EO13" s="21"/>
+      <c r="EP13" s="21"/>
+      <c r="EQ13" s="21"/>
+      <c r="ER13" s="21"/>
+      <c r="ES13" s="21"/>
+      <c r="ET13" s="21"/>
+      <c r="EU13" s="21"/>
+      <c r="EV13" s="21"/>
+      <c r="EW13" s="21"/>
+      <c r="EX13" s="21"/>
+      <c r="EY13" s="21"/>
+      <c r="EZ13" s="21"/>
+      <c r="FA13" s="21"/>
+      <c r="FB13" s="21"/>
+      <c r="FC13" s="21"/>
+      <c r="FD13" s="21"/>
+      <c r="FE13" s="21"/>
+      <c r="FF13" s="21"/>
+      <c r="FG13" s="21"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="35"/>
       <c r="B14" s="47" t="s">
         <v>43</v>
@@ -3217,8 +4728,106 @@
       <c r="BK14" s="21"/>
       <c r="BL14" s="21"/>
       <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="21"/>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="21"/>
+      <c r="CP14" s="21"/>
+      <c r="CQ14" s="21"/>
+      <c r="CR14" s="21"/>
+      <c r="CS14" s="21"/>
+      <c r="CT14" s="21"/>
+      <c r="CU14" s="21"/>
+      <c r="CV14" s="21"/>
+      <c r="CW14" s="21"/>
+      <c r="CX14" s="21"/>
+      <c r="CY14" s="21"/>
+      <c r="CZ14" s="21"/>
+      <c r="DA14" s="21"/>
+      <c r="DB14" s="21"/>
+      <c r="DC14" s="21"/>
+      <c r="DD14" s="21"/>
+      <c r="DE14" s="21"/>
+      <c r="DF14" s="21"/>
+      <c r="DG14" s="21"/>
+      <c r="DH14" s="21"/>
+      <c r="DI14" s="21"/>
+      <c r="DJ14" s="21"/>
+      <c r="DK14" s="21"/>
+      <c r="DL14" s="21"/>
+      <c r="DM14" s="21"/>
+      <c r="DN14" s="21"/>
+      <c r="DO14" s="21"/>
+      <c r="DP14" s="21"/>
+      <c r="DQ14" s="21"/>
+      <c r="DR14" s="21"/>
+      <c r="DS14" s="21"/>
+      <c r="DT14" s="21"/>
+      <c r="DU14" s="21"/>
+      <c r="DV14" s="21"/>
+      <c r="DW14" s="21"/>
+      <c r="DX14" s="21"/>
+      <c r="DY14" s="21"/>
+      <c r="DZ14" s="21"/>
+      <c r="EA14" s="21"/>
+      <c r="EB14" s="21"/>
+      <c r="EC14" s="21"/>
+      <c r="ED14" s="21"/>
+      <c r="EE14" s="21"/>
+      <c r="EF14" s="21"/>
+      <c r="EG14" s="21"/>
+      <c r="EH14" s="21"/>
+      <c r="EI14" s="21"/>
+      <c r="EJ14" s="21"/>
+      <c r="EK14" s="21"/>
+      <c r="EL14" s="21"/>
+      <c r="EM14" s="21"/>
+      <c r="EN14" s="21"/>
+      <c r="EO14" s="21"/>
+      <c r="EP14" s="21"/>
+      <c r="EQ14" s="21"/>
+      <c r="ER14" s="21"/>
+      <c r="ES14" s="21"/>
+      <c r="ET14" s="21"/>
+      <c r="EU14" s="21"/>
+      <c r="EV14" s="21"/>
+      <c r="EW14" s="21"/>
+      <c r="EX14" s="21"/>
+      <c r="EY14" s="21"/>
+      <c r="EZ14" s="21"/>
+      <c r="FA14" s="21"/>
+      <c r="FB14" s="21"/>
+      <c r="FC14" s="21"/>
+      <c r="FD14" s="21"/>
+      <c r="FE14" s="21"/>
+      <c r="FF14" s="21"/>
+      <c r="FG14" s="21"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="35"/>
       <c r="B15" s="47" t="s">
         <v>42</v>
@@ -3298,8 +4907,106 @@
       <c r="BK15" s="21"/>
       <c r="BL15" s="21"/>
       <c r="BM15" s="21"/>
+      <c r="BN15" s="21"/>
+      <c r="BO15" s="21"/>
+      <c r="BP15" s="21"/>
+      <c r="BQ15" s="21"/>
+      <c r="BR15" s="21"/>
+      <c r="BS15" s="21"/>
+      <c r="BT15" s="21"/>
+      <c r="BU15" s="21"/>
+      <c r="BV15" s="21"/>
+      <c r="BW15" s="21"/>
+      <c r="BX15" s="21"/>
+      <c r="BY15" s="21"/>
+      <c r="BZ15" s="21"/>
+      <c r="CA15" s="21"/>
+      <c r="CB15" s="21"/>
+      <c r="CC15" s="21"/>
+      <c r="CD15" s="21"/>
+      <c r="CE15" s="21"/>
+      <c r="CF15" s="21"/>
+      <c r="CG15" s="21"/>
+      <c r="CH15" s="21"/>
+      <c r="CI15" s="21"/>
+      <c r="CJ15" s="21"/>
+      <c r="CK15" s="21"/>
+      <c r="CL15" s="21"/>
+      <c r="CM15" s="21"/>
+      <c r="CN15" s="21"/>
+      <c r="CO15" s="21"/>
+      <c r="CP15" s="21"/>
+      <c r="CQ15" s="21"/>
+      <c r="CR15" s="21"/>
+      <c r="CS15" s="21"/>
+      <c r="CT15" s="21"/>
+      <c r="CU15" s="21"/>
+      <c r="CV15" s="21"/>
+      <c r="CW15" s="21"/>
+      <c r="CX15" s="21"/>
+      <c r="CY15" s="21"/>
+      <c r="CZ15" s="21"/>
+      <c r="DA15" s="21"/>
+      <c r="DB15" s="21"/>
+      <c r="DC15" s="21"/>
+      <c r="DD15" s="21"/>
+      <c r="DE15" s="21"/>
+      <c r="DF15" s="21"/>
+      <c r="DG15" s="21"/>
+      <c r="DH15" s="21"/>
+      <c r="DI15" s="21"/>
+      <c r="DJ15" s="21"/>
+      <c r="DK15" s="21"/>
+      <c r="DL15" s="21"/>
+      <c r="DM15" s="21"/>
+      <c r="DN15" s="21"/>
+      <c r="DO15" s="21"/>
+      <c r="DP15" s="21"/>
+      <c r="DQ15" s="21"/>
+      <c r="DR15" s="21"/>
+      <c r="DS15" s="21"/>
+      <c r="DT15" s="21"/>
+      <c r="DU15" s="21"/>
+      <c r="DV15" s="21"/>
+      <c r="DW15" s="21"/>
+      <c r="DX15" s="21"/>
+      <c r="DY15" s="21"/>
+      <c r="DZ15" s="21"/>
+      <c r="EA15" s="21"/>
+      <c r="EB15" s="21"/>
+      <c r="EC15" s="21"/>
+      <c r="ED15" s="21"/>
+      <c r="EE15" s="21"/>
+      <c r="EF15" s="21"/>
+      <c r="EG15" s="21"/>
+      <c r="EH15" s="21"/>
+      <c r="EI15" s="21"/>
+      <c r="EJ15" s="21"/>
+      <c r="EK15" s="21"/>
+      <c r="EL15" s="21"/>
+      <c r="EM15" s="21"/>
+      <c r="EN15" s="21"/>
+      <c r="EO15" s="21"/>
+      <c r="EP15" s="21"/>
+      <c r="EQ15" s="21"/>
+      <c r="ER15" s="21"/>
+      <c r="ES15" s="21"/>
+      <c r="ET15" s="21"/>
+      <c r="EU15" s="21"/>
+      <c r="EV15" s="21"/>
+      <c r="EW15" s="21"/>
+      <c r="EX15" s="21"/>
+      <c r="EY15" s="21"/>
+      <c r="EZ15" s="21"/>
+      <c r="FA15" s="21"/>
+      <c r="FB15" s="21"/>
+      <c r="FC15" s="21"/>
+      <c r="FD15" s="21"/>
+      <c r="FE15" s="21"/>
+      <c r="FF15" s="21"/>
+      <c r="FG15" s="21"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -3325,7 +5032,7 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v>23</v>
       </c>
       <c r="J16" s="21"/>
@@ -3384,8 +5091,106 @@
       <c r="BK16" s="21"/>
       <c r="BL16" s="21"/>
       <c r="BM16" s="21"/>
+      <c r="BN16" s="21"/>
+      <c r="BO16" s="21"/>
+      <c r="BP16" s="21"/>
+      <c r="BQ16" s="21"/>
+      <c r="BR16" s="21"/>
+      <c r="BS16" s="21"/>
+      <c r="BT16" s="21"/>
+      <c r="BU16" s="21"/>
+      <c r="BV16" s="21"/>
+      <c r="BW16" s="21"/>
+      <c r="BX16" s="21"/>
+      <c r="BY16" s="21"/>
+      <c r="BZ16" s="21"/>
+      <c r="CA16" s="21"/>
+      <c r="CB16" s="21"/>
+      <c r="CC16" s="21"/>
+      <c r="CD16" s="21"/>
+      <c r="CE16" s="21"/>
+      <c r="CF16" s="21"/>
+      <c r="CG16" s="21"/>
+      <c r="CH16" s="21"/>
+      <c r="CI16" s="21"/>
+      <c r="CJ16" s="21"/>
+      <c r="CK16" s="21"/>
+      <c r="CL16" s="21"/>
+      <c r="CM16" s="21"/>
+      <c r="CN16" s="21"/>
+      <c r="CO16" s="21"/>
+      <c r="CP16" s="21"/>
+      <c r="CQ16" s="21"/>
+      <c r="CR16" s="21"/>
+      <c r="CS16" s="21"/>
+      <c r="CT16" s="21"/>
+      <c r="CU16" s="21"/>
+      <c r="CV16" s="21"/>
+      <c r="CW16" s="21"/>
+      <c r="CX16" s="21"/>
+      <c r="CY16" s="21"/>
+      <c r="CZ16" s="21"/>
+      <c r="DA16" s="21"/>
+      <c r="DB16" s="21"/>
+      <c r="DC16" s="21"/>
+      <c r="DD16" s="21"/>
+      <c r="DE16" s="21"/>
+      <c r="DF16" s="21"/>
+      <c r="DG16" s="21"/>
+      <c r="DH16" s="21"/>
+      <c r="DI16" s="21"/>
+      <c r="DJ16" s="21"/>
+      <c r="DK16" s="21"/>
+      <c r="DL16" s="21"/>
+      <c r="DM16" s="21"/>
+      <c r="DN16" s="21"/>
+      <c r="DO16" s="21"/>
+      <c r="DP16" s="21"/>
+      <c r="DQ16" s="21"/>
+      <c r="DR16" s="21"/>
+      <c r="DS16" s="21"/>
+      <c r="DT16" s="21"/>
+      <c r="DU16" s="21"/>
+      <c r="DV16" s="21"/>
+      <c r="DW16" s="21"/>
+      <c r="DX16" s="21"/>
+      <c r="DY16" s="21"/>
+      <c r="DZ16" s="21"/>
+      <c r="EA16" s="21"/>
+      <c r="EB16" s="21"/>
+      <c r="EC16" s="21"/>
+      <c r="ED16" s="21"/>
+      <c r="EE16" s="21"/>
+      <c r="EF16" s="21"/>
+      <c r="EG16" s="21"/>
+      <c r="EH16" s="21"/>
+      <c r="EI16" s="21"/>
+      <c r="EJ16" s="21"/>
+      <c r="EK16" s="21"/>
+      <c r="EL16" s="21"/>
+      <c r="EM16" s="21"/>
+      <c r="EN16" s="21"/>
+      <c r="EO16" s="21"/>
+      <c r="EP16" s="21"/>
+      <c r="EQ16" s="21"/>
+      <c r="ER16" s="21"/>
+      <c r="ES16" s="21"/>
+      <c r="ET16" s="21"/>
+      <c r="EU16" s="21"/>
+      <c r="EV16" s="21"/>
+      <c r="EW16" s="21"/>
+      <c r="EX16" s="21"/>
+      <c r="EY16" s="21"/>
+      <c r="EZ16" s="21"/>
+      <c r="FA16" s="21"/>
+      <c r="FB16" s="21"/>
+      <c r="FC16" s="21"/>
+      <c r="FD16" s="21"/>
+      <c r="FE16" s="21"/>
+      <c r="FF16" s="21"/>
+      <c r="FG16" s="21"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="35"/>
       <c r="B17" s="47" t="s">
         <v>46</v>
@@ -3404,7 +5209,7 @@
         <v>45344</v>
       </c>
       <c r="G17" s="55">
-        <f t="shared" ref="G17:G18" si="6">F17+12</f>
+        <f t="shared" ref="G17:G18" si="118">F17+12</f>
         <v>45356</v>
       </c>
       <c r="H17" s="11"/>
@@ -3465,8 +5270,106 @@
       <c r="BK17" s="21"/>
       <c r="BL17" s="21"/>
       <c r="BM17" s="21"/>
+      <c r="BN17" s="21"/>
+      <c r="BO17" s="21"/>
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="21"/>
+      <c r="BR17" s="21"/>
+      <c r="BS17" s="21"/>
+      <c r="BT17" s="21"/>
+      <c r="BU17" s="21"/>
+      <c r="BV17" s="21"/>
+      <c r="BW17" s="21"/>
+      <c r="BX17" s="21"/>
+      <c r="BY17" s="21"/>
+      <c r="BZ17" s="21"/>
+      <c r="CA17" s="21"/>
+      <c r="CB17" s="21"/>
+      <c r="CC17" s="21"/>
+      <c r="CD17" s="21"/>
+      <c r="CE17" s="21"/>
+      <c r="CF17" s="21"/>
+      <c r="CG17" s="21"/>
+      <c r="CH17" s="21"/>
+      <c r="CI17" s="21"/>
+      <c r="CJ17" s="21"/>
+      <c r="CK17" s="21"/>
+      <c r="CL17" s="21"/>
+      <c r="CM17" s="21"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="21"/>
+      <c r="CP17" s="21"/>
+      <c r="CQ17" s="21"/>
+      <c r="CR17" s="21"/>
+      <c r="CS17" s="21"/>
+      <c r="CT17" s="21"/>
+      <c r="CU17" s="21"/>
+      <c r="CV17" s="21"/>
+      <c r="CW17" s="21"/>
+      <c r="CX17" s="21"/>
+      <c r="CY17" s="21"/>
+      <c r="CZ17" s="21"/>
+      <c r="DA17" s="21"/>
+      <c r="DB17" s="21"/>
+      <c r="DC17" s="21"/>
+      <c r="DD17" s="21"/>
+      <c r="DE17" s="21"/>
+      <c r="DF17" s="21"/>
+      <c r="DG17" s="21"/>
+      <c r="DH17" s="21"/>
+      <c r="DI17" s="21"/>
+      <c r="DJ17" s="21"/>
+      <c r="DK17" s="21"/>
+      <c r="DL17" s="21"/>
+      <c r="DM17" s="21"/>
+      <c r="DN17" s="21"/>
+      <c r="DO17" s="21"/>
+      <c r="DP17" s="21"/>
+      <c r="DQ17" s="21"/>
+      <c r="DR17" s="21"/>
+      <c r="DS17" s="21"/>
+      <c r="DT17" s="21"/>
+      <c r="DU17" s="21"/>
+      <c r="DV17" s="21"/>
+      <c r="DW17" s="21"/>
+      <c r="DX17" s="21"/>
+      <c r="DY17" s="21"/>
+      <c r="DZ17" s="21"/>
+      <c r="EA17" s="21"/>
+      <c r="EB17" s="21"/>
+      <c r="EC17" s="21"/>
+      <c r="ED17" s="21"/>
+      <c r="EE17" s="21"/>
+      <c r="EF17" s="21"/>
+      <c r="EG17" s="21"/>
+      <c r="EH17" s="21"/>
+      <c r="EI17" s="21"/>
+      <c r="EJ17" s="21"/>
+      <c r="EK17" s="21"/>
+      <c r="EL17" s="21"/>
+      <c r="EM17" s="21"/>
+      <c r="EN17" s="21"/>
+      <c r="EO17" s="21"/>
+      <c r="EP17" s="21"/>
+      <c r="EQ17" s="21"/>
+      <c r="ER17" s="21"/>
+      <c r="ES17" s="21"/>
+      <c r="ET17" s="21"/>
+      <c r="EU17" s="21"/>
+      <c r="EV17" s="21"/>
+      <c r="EW17" s="21"/>
+      <c r="EX17" s="21"/>
+      <c r="EY17" s="21"/>
+      <c r="EZ17" s="21"/>
+      <c r="FA17" s="21"/>
+      <c r="FB17" s="21"/>
+      <c r="FC17" s="21"/>
+      <c r="FD17" s="21"/>
+      <c r="FE17" s="21"/>
+      <c r="FF17" s="21"/>
+      <c r="FG17" s="21"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="35"/>
       <c r="B18" s="47" t="s">
         <v>74</v>
@@ -3485,7 +5388,7 @@
         <v>45344</v>
       </c>
       <c r="G18" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="118"/>
         <v>45356</v>
       </c>
       <c r="H18" s="11"/>
@@ -3546,8 +5449,106 @@
       <c r="BK18" s="21"/>
       <c r="BL18" s="21"/>
       <c r="BM18" s="21"/>
+      <c r="BN18" s="21"/>
+      <c r="BO18" s="21"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="21"/>
+      <c r="BR18" s="21"/>
+      <c r="BS18" s="21"/>
+      <c r="BT18" s="21"/>
+      <c r="BU18" s="21"/>
+      <c r="BV18" s="21"/>
+      <c r="BW18" s="21"/>
+      <c r="BX18" s="21"/>
+      <c r="BY18" s="21"/>
+      <c r="BZ18" s="21"/>
+      <c r="CA18" s="21"/>
+      <c r="CB18" s="21"/>
+      <c r="CC18" s="21"/>
+      <c r="CD18" s="21"/>
+      <c r="CE18" s="21"/>
+      <c r="CF18" s="21"/>
+      <c r="CG18" s="21"/>
+      <c r="CH18" s="21"/>
+      <c r="CI18" s="21"/>
+      <c r="CJ18" s="21"/>
+      <c r="CK18" s="21"/>
+      <c r="CL18" s="21"/>
+      <c r="CM18" s="21"/>
+      <c r="CN18" s="21"/>
+      <c r="CO18" s="21"/>
+      <c r="CP18" s="21"/>
+      <c r="CQ18" s="21"/>
+      <c r="CR18" s="21"/>
+      <c r="CS18" s="21"/>
+      <c r="CT18" s="21"/>
+      <c r="CU18" s="21"/>
+      <c r="CV18" s="21"/>
+      <c r="CW18" s="21"/>
+      <c r="CX18" s="21"/>
+      <c r="CY18" s="21"/>
+      <c r="CZ18" s="21"/>
+      <c r="DA18" s="21"/>
+      <c r="DB18" s="21"/>
+      <c r="DC18" s="21"/>
+      <c r="DD18" s="21"/>
+      <c r="DE18" s="21"/>
+      <c r="DF18" s="21"/>
+      <c r="DG18" s="21"/>
+      <c r="DH18" s="21"/>
+      <c r="DI18" s="21"/>
+      <c r="DJ18" s="21"/>
+      <c r="DK18" s="21"/>
+      <c r="DL18" s="21"/>
+      <c r="DM18" s="21"/>
+      <c r="DN18" s="21"/>
+      <c r="DO18" s="21"/>
+      <c r="DP18" s="21"/>
+      <c r="DQ18" s="21"/>
+      <c r="DR18" s="21"/>
+      <c r="DS18" s="21"/>
+      <c r="DT18" s="21"/>
+      <c r="DU18" s="21"/>
+      <c r="DV18" s="21"/>
+      <c r="DW18" s="21"/>
+      <c r="DX18" s="21"/>
+      <c r="DY18" s="21"/>
+      <c r="DZ18" s="21"/>
+      <c r="EA18" s="21"/>
+      <c r="EB18" s="21"/>
+      <c r="EC18" s="21"/>
+      <c r="ED18" s="21"/>
+      <c r="EE18" s="21"/>
+      <c r="EF18" s="21"/>
+      <c r="EG18" s="21"/>
+      <c r="EH18" s="21"/>
+      <c r="EI18" s="21"/>
+      <c r="EJ18" s="21"/>
+      <c r="EK18" s="21"/>
+      <c r="EL18" s="21"/>
+      <c r="EM18" s="21"/>
+      <c r="EN18" s="21"/>
+      <c r="EO18" s="21"/>
+      <c r="EP18" s="21"/>
+      <c r="EQ18" s="21"/>
+      <c r="ER18" s="21"/>
+      <c r="ES18" s="21"/>
+      <c r="ET18" s="21"/>
+      <c r="EU18" s="21"/>
+      <c r="EV18" s="21"/>
+      <c r="EW18" s="21"/>
+      <c r="EX18" s="21"/>
+      <c r="EY18" s="21"/>
+      <c r="EZ18" s="21"/>
+      <c r="FA18" s="21"/>
+      <c r="FB18" s="21"/>
+      <c r="FC18" s="21"/>
+      <c r="FD18" s="21"/>
+      <c r="FE18" s="21"/>
+      <c r="FF18" s="21"/>
+      <c r="FG18" s="21"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -3561,7 +5562,7 @@
       <c r="G19" s="57"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J19" s="21"/>
@@ -3620,8 +5621,106 @@
       <c r="BK19" s="21"/>
       <c r="BL19" s="21"/>
       <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="21"/>
+      <c r="CU19" s="21"/>
+      <c r="CV19" s="21"/>
+      <c r="CW19" s="21"/>
+      <c r="CX19" s="21"/>
+      <c r="CY19" s="21"/>
+      <c r="CZ19" s="21"/>
+      <c r="DA19" s="21"/>
+      <c r="DB19" s="21"/>
+      <c r="DC19" s="21"/>
+      <c r="DD19" s="21"/>
+      <c r="DE19" s="21"/>
+      <c r="DF19" s="21"/>
+      <c r="DG19" s="21"/>
+      <c r="DH19" s="21"/>
+      <c r="DI19" s="21"/>
+      <c r="DJ19" s="21"/>
+      <c r="DK19" s="21"/>
+      <c r="DL19" s="21"/>
+      <c r="DM19" s="21"/>
+      <c r="DN19" s="21"/>
+      <c r="DO19" s="21"/>
+      <c r="DP19" s="21"/>
+      <c r="DQ19" s="21"/>
+      <c r="DR19" s="21"/>
+      <c r="DS19" s="21"/>
+      <c r="DT19" s="21"/>
+      <c r="DU19" s="21"/>
+      <c r="DV19" s="21"/>
+      <c r="DW19" s="21"/>
+      <c r="DX19" s="21"/>
+      <c r="DY19" s="21"/>
+      <c r="DZ19" s="21"/>
+      <c r="EA19" s="21"/>
+      <c r="EB19" s="21"/>
+      <c r="EC19" s="21"/>
+      <c r="ED19" s="21"/>
+      <c r="EE19" s="21"/>
+      <c r="EF19" s="21"/>
+      <c r="EG19" s="21"/>
+      <c r="EH19" s="21"/>
+      <c r="EI19" s="21"/>
+      <c r="EJ19" s="21"/>
+      <c r="EK19" s="21"/>
+      <c r="EL19" s="21"/>
+      <c r="EM19" s="21"/>
+      <c r="EN19" s="21"/>
+      <c r="EO19" s="21"/>
+      <c r="EP19" s="21"/>
+      <c r="EQ19" s="21"/>
+      <c r="ER19" s="21"/>
+      <c r="ES19" s="21"/>
+      <c r="ET19" s="21"/>
+      <c r="EU19" s="21"/>
+      <c r="EV19" s="21"/>
+      <c r="EW19" s="21"/>
+      <c r="EX19" s="21"/>
+      <c r="EY19" s="21"/>
+      <c r="EZ19" s="21"/>
+      <c r="FA19" s="21"/>
+      <c r="FB19" s="21"/>
+      <c r="FC19" s="21"/>
+      <c r="FD19" s="21"/>
+      <c r="FE19" s="21"/>
+      <c r="FF19" s="21"/>
+      <c r="FG19" s="21"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="35"/>
       <c r="B20" s="15" t="s">
         <v>50</v>
@@ -3689,8 +5788,106 @@
       <c r="BK20" s="21"/>
       <c r="BL20" s="21"/>
       <c r="BM20" s="21"/>
+      <c r="BN20" s="21"/>
+      <c r="BO20" s="21"/>
+      <c r="BP20" s="21"/>
+      <c r="BQ20" s="21"/>
+      <c r="BR20" s="21"/>
+      <c r="BS20" s="21"/>
+      <c r="BT20" s="21"/>
+      <c r="BU20" s="21"/>
+      <c r="BV20" s="21"/>
+      <c r="BW20" s="21"/>
+      <c r="BX20" s="21"/>
+      <c r="BY20" s="21"/>
+      <c r="BZ20" s="21"/>
+      <c r="CA20" s="21"/>
+      <c r="CB20" s="21"/>
+      <c r="CC20" s="21"/>
+      <c r="CD20" s="21"/>
+      <c r="CE20" s="21"/>
+      <c r="CF20" s="21"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" s="21"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="21"/>
+      <c r="CK20" s="21"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="21"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
+      <c r="CU20" s="21"/>
+      <c r="CV20" s="21"/>
+      <c r="CW20" s="21"/>
+      <c r="CX20" s="21"/>
+      <c r="CY20" s="21"/>
+      <c r="CZ20" s="21"/>
+      <c r="DA20" s="21"/>
+      <c r="DB20" s="21"/>
+      <c r="DC20" s="21"/>
+      <c r="DD20" s="21"/>
+      <c r="DE20" s="21"/>
+      <c r="DF20" s="21"/>
+      <c r="DG20" s="21"/>
+      <c r="DH20" s="21"/>
+      <c r="DI20" s="21"/>
+      <c r="DJ20" s="21"/>
+      <c r="DK20" s="21"/>
+      <c r="DL20" s="21"/>
+      <c r="DM20" s="21"/>
+      <c r="DN20" s="21"/>
+      <c r="DO20" s="21"/>
+      <c r="DP20" s="21"/>
+      <c r="DQ20" s="21"/>
+      <c r="DR20" s="21"/>
+      <c r="DS20" s="21"/>
+      <c r="DT20" s="21"/>
+      <c r="DU20" s="21"/>
+      <c r="DV20" s="21"/>
+      <c r="DW20" s="21"/>
+      <c r="DX20" s="21"/>
+      <c r="DY20" s="21"/>
+      <c r="DZ20" s="21"/>
+      <c r="EA20" s="21"/>
+      <c r="EB20" s="21"/>
+      <c r="EC20" s="21"/>
+      <c r="ED20" s="21"/>
+      <c r="EE20" s="21"/>
+      <c r="EF20" s="21"/>
+      <c r="EG20" s="21"/>
+      <c r="EH20" s="21"/>
+      <c r="EI20" s="21"/>
+      <c r="EJ20" s="21"/>
+      <c r="EK20" s="21"/>
+      <c r="EL20" s="21"/>
+      <c r="EM20" s="21"/>
+      <c r="EN20" s="21"/>
+      <c r="EO20" s="21"/>
+      <c r="EP20" s="21"/>
+      <c r="EQ20" s="21"/>
+      <c r="ER20" s="21"/>
+      <c r="ES20" s="21"/>
+      <c r="ET20" s="21"/>
+      <c r="EU20" s="21"/>
+      <c r="EV20" s="21"/>
+      <c r="EW20" s="21"/>
+      <c r="EX20" s="21"/>
+      <c r="EY20" s="21"/>
+      <c r="EZ20" s="21"/>
+      <c r="FA20" s="21"/>
+      <c r="FB20" s="21"/>
+      <c r="FC20" s="21"/>
+      <c r="FD20" s="21"/>
+      <c r="FE20" s="21"/>
+      <c r="FF20" s="21"/>
+      <c r="FG20" s="21"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="35"/>
       <c r="B21" s="48" t="s">
         <v>61</v>
@@ -3711,7 +5908,7 @@
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v>8</v>
       </c>
       <c r="J21" s="21"/>
@@ -3770,8 +5967,106 @@
       <c r="BK21" s="21"/>
       <c r="BL21" s="21"/>
       <c r="BM21" s="21"/>
+      <c r="BN21" s="21"/>
+      <c r="BO21" s="21"/>
+      <c r="BP21" s="21"/>
+      <c r="BQ21" s="21"/>
+      <c r="BR21" s="21"/>
+      <c r="BS21" s="21"/>
+      <c r="BT21" s="21"/>
+      <c r="BU21" s="21"/>
+      <c r="BV21" s="21"/>
+      <c r="BW21" s="21"/>
+      <c r="BX21" s="21"/>
+      <c r="BY21" s="21"/>
+      <c r="BZ21" s="21"/>
+      <c r="CA21" s="21"/>
+      <c r="CB21" s="21"/>
+      <c r="CC21" s="21"/>
+      <c r="CD21" s="21"/>
+      <c r="CE21" s="21"/>
+      <c r="CF21" s="21"/>
+      <c r="CG21" s="21"/>
+      <c r="CH21" s="21"/>
+      <c r="CI21" s="21"/>
+      <c r="CJ21" s="21"/>
+      <c r="CK21" s="21"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="21"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
+      <c r="CS21" s="21"/>
+      <c r="CT21" s="21"/>
+      <c r="CU21" s="21"/>
+      <c r="CV21" s="21"/>
+      <c r="CW21" s="21"/>
+      <c r="CX21" s="21"/>
+      <c r="CY21" s="21"/>
+      <c r="CZ21" s="21"/>
+      <c r="DA21" s="21"/>
+      <c r="DB21" s="21"/>
+      <c r="DC21" s="21"/>
+      <c r="DD21" s="21"/>
+      <c r="DE21" s="21"/>
+      <c r="DF21" s="21"/>
+      <c r="DG21" s="21"/>
+      <c r="DH21" s="21"/>
+      <c r="DI21" s="21"/>
+      <c r="DJ21" s="21"/>
+      <c r="DK21" s="21"/>
+      <c r="DL21" s="21"/>
+      <c r="DM21" s="21"/>
+      <c r="DN21" s="21"/>
+      <c r="DO21" s="21"/>
+      <c r="DP21" s="21"/>
+      <c r="DQ21" s="21"/>
+      <c r="DR21" s="21"/>
+      <c r="DS21" s="21"/>
+      <c r="DT21" s="21"/>
+      <c r="DU21" s="21"/>
+      <c r="DV21" s="21"/>
+      <c r="DW21" s="21"/>
+      <c r="DX21" s="21"/>
+      <c r="DY21" s="21"/>
+      <c r="DZ21" s="21"/>
+      <c r="EA21" s="21"/>
+      <c r="EB21" s="21"/>
+      <c r="EC21" s="21"/>
+      <c r="ED21" s="21"/>
+      <c r="EE21" s="21"/>
+      <c r="EF21" s="21"/>
+      <c r="EG21" s="21"/>
+      <c r="EH21" s="21"/>
+      <c r="EI21" s="21"/>
+      <c r="EJ21" s="21"/>
+      <c r="EK21" s="21"/>
+      <c r="EL21" s="21"/>
+      <c r="EM21" s="21"/>
+      <c r="EN21" s="21"/>
+      <c r="EO21" s="21"/>
+      <c r="EP21" s="21"/>
+      <c r="EQ21" s="21"/>
+      <c r="ER21" s="21"/>
+      <c r="ES21" s="21"/>
+      <c r="ET21" s="21"/>
+      <c r="EU21" s="21"/>
+      <c r="EV21" s="21"/>
+      <c r="EW21" s="21"/>
+      <c r="EX21" s="21"/>
+      <c r="EY21" s="21"/>
+      <c r="EZ21" s="21"/>
+      <c r="FA21" s="21"/>
+      <c r="FB21" s="21"/>
+      <c r="FC21" s="21"/>
+      <c r="FD21" s="21"/>
+      <c r="FE21" s="21"/>
+      <c r="FF21" s="21"/>
+      <c r="FG21" s="21"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="35"/>
       <c r="B22" s="48" t="s">
         <v>76</v>
@@ -3851,8 +6146,106 @@
       <c r="BK22" s="21"/>
       <c r="BL22" s="21"/>
       <c r="BM22" s="21"/>
+      <c r="BN22" s="21"/>
+      <c r="BO22" s="21"/>
+      <c r="BP22" s="21"/>
+      <c r="BQ22" s="21"/>
+      <c r="BR22" s="21"/>
+      <c r="BS22" s="21"/>
+      <c r="BT22" s="21"/>
+      <c r="BU22" s="21"/>
+      <c r="BV22" s="21"/>
+      <c r="BW22" s="21"/>
+      <c r="BX22" s="21"/>
+      <c r="BY22" s="21"/>
+      <c r="BZ22" s="21"/>
+      <c r="CA22" s="21"/>
+      <c r="CB22" s="21"/>
+      <c r="CC22" s="21"/>
+      <c r="CD22" s="21"/>
+      <c r="CE22" s="21"/>
+      <c r="CF22" s="21"/>
+      <c r="CG22" s="21"/>
+      <c r="CH22" s="21"/>
+      <c r="CI22" s="21"/>
+      <c r="CJ22" s="21"/>
+      <c r="CK22" s="21"/>
+      <c r="CL22" s="21"/>
+      <c r="CM22" s="21"/>
+      <c r="CN22" s="21"/>
+      <c r="CO22" s="21"/>
+      <c r="CP22" s="21"/>
+      <c r="CQ22" s="21"/>
+      <c r="CR22" s="21"/>
+      <c r="CS22" s="21"/>
+      <c r="CT22" s="21"/>
+      <c r="CU22" s="21"/>
+      <c r="CV22" s="21"/>
+      <c r="CW22" s="21"/>
+      <c r="CX22" s="21"/>
+      <c r="CY22" s="21"/>
+      <c r="CZ22" s="21"/>
+      <c r="DA22" s="21"/>
+      <c r="DB22" s="21"/>
+      <c r="DC22" s="21"/>
+      <c r="DD22" s="21"/>
+      <c r="DE22" s="21"/>
+      <c r="DF22" s="21"/>
+      <c r="DG22" s="21"/>
+      <c r="DH22" s="21"/>
+      <c r="DI22" s="21"/>
+      <c r="DJ22" s="21"/>
+      <c r="DK22" s="21"/>
+      <c r="DL22" s="21"/>
+      <c r="DM22" s="21"/>
+      <c r="DN22" s="21"/>
+      <c r="DO22" s="21"/>
+      <c r="DP22" s="21"/>
+      <c r="DQ22" s="21"/>
+      <c r="DR22" s="21"/>
+      <c r="DS22" s="21"/>
+      <c r="DT22" s="21"/>
+      <c r="DU22" s="21"/>
+      <c r="DV22" s="21"/>
+      <c r="DW22" s="21"/>
+      <c r="DX22" s="21"/>
+      <c r="DY22" s="21"/>
+      <c r="DZ22" s="21"/>
+      <c r="EA22" s="21"/>
+      <c r="EB22" s="21"/>
+      <c r="EC22" s="21"/>
+      <c r="ED22" s="21"/>
+      <c r="EE22" s="21"/>
+      <c r="EF22" s="21"/>
+      <c r="EG22" s="21"/>
+      <c r="EH22" s="21"/>
+      <c r="EI22" s="21"/>
+      <c r="EJ22" s="21"/>
+      <c r="EK22" s="21"/>
+      <c r="EL22" s="21"/>
+      <c r="EM22" s="21"/>
+      <c r="EN22" s="21"/>
+      <c r="EO22" s="21"/>
+      <c r="EP22" s="21"/>
+      <c r="EQ22" s="21"/>
+      <c r="ER22" s="21"/>
+      <c r="ES22" s="21"/>
+      <c r="ET22" s="21"/>
+      <c r="EU22" s="21"/>
+      <c r="EV22" s="21"/>
+      <c r="EW22" s="21"/>
+      <c r="EX22" s="21"/>
+      <c r="EY22" s="21"/>
+      <c r="EZ22" s="21"/>
+      <c r="FA22" s="21"/>
+      <c r="FB22" s="21"/>
+      <c r="FC22" s="21"/>
+      <c r="FD22" s="21"/>
+      <c r="FE22" s="21"/>
+      <c r="FF22" s="21"/>
+      <c r="FG22" s="21"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="35"/>
       <c r="B23" s="48" t="s">
         <v>62</v>
@@ -3869,8 +6262,8 @@
         <v>45366</v>
       </c>
       <c r="G23" s="58">
-        <f>G21</f>
-        <v>45373</v>
+        <f>G21+16</f>
+        <v>45389</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3930,8 +6323,106 @@
       <c r="BK23" s="21"/>
       <c r="BL23" s="21"/>
       <c r="BM23" s="21"/>
+      <c r="BN23" s="21"/>
+      <c r="BO23" s="21"/>
+      <c r="BP23" s="21"/>
+      <c r="BQ23" s="21"/>
+      <c r="BR23" s="21"/>
+      <c r="BS23" s="21"/>
+      <c r="BT23" s="21"/>
+      <c r="BU23" s="21"/>
+      <c r="BV23" s="21"/>
+      <c r="BW23" s="21"/>
+      <c r="BX23" s="21"/>
+      <c r="BY23" s="21"/>
+      <c r="BZ23" s="21"/>
+      <c r="CA23" s="21"/>
+      <c r="CB23" s="21"/>
+      <c r="CC23" s="21"/>
+      <c r="CD23" s="21"/>
+      <c r="CE23" s="21"/>
+      <c r="CF23" s="21"/>
+      <c r="CG23" s="21"/>
+      <c r="CH23" s="21"/>
+      <c r="CI23" s="21"/>
+      <c r="CJ23" s="21"/>
+      <c r="CK23" s="21"/>
+      <c r="CL23" s="21"/>
+      <c r="CM23" s="21"/>
+      <c r="CN23" s="21"/>
+      <c r="CO23" s="21"/>
+      <c r="CP23" s="21"/>
+      <c r="CQ23" s="21"/>
+      <c r="CR23" s="21"/>
+      <c r="CS23" s="21"/>
+      <c r="CT23" s="21"/>
+      <c r="CU23" s="21"/>
+      <c r="CV23" s="21"/>
+      <c r="CW23" s="21"/>
+      <c r="CX23" s="21"/>
+      <c r="CY23" s="21"/>
+      <c r="CZ23" s="21"/>
+      <c r="DA23" s="21"/>
+      <c r="DB23" s="21"/>
+      <c r="DC23" s="21"/>
+      <c r="DD23" s="21"/>
+      <c r="DE23" s="21"/>
+      <c r="DF23" s="21"/>
+      <c r="DG23" s="21"/>
+      <c r="DH23" s="21"/>
+      <c r="DI23" s="21"/>
+      <c r="DJ23" s="21"/>
+      <c r="DK23" s="21"/>
+      <c r="DL23" s="21"/>
+      <c r="DM23" s="21"/>
+      <c r="DN23" s="21"/>
+      <c r="DO23" s="21"/>
+      <c r="DP23" s="21"/>
+      <c r="DQ23" s="21"/>
+      <c r="DR23" s="21"/>
+      <c r="DS23" s="21"/>
+      <c r="DT23" s="21"/>
+      <c r="DU23" s="21"/>
+      <c r="DV23" s="21"/>
+      <c r="DW23" s="21"/>
+      <c r="DX23" s="21"/>
+      <c r="DY23" s="21"/>
+      <c r="DZ23" s="21"/>
+      <c r="EA23" s="21"/>
+      <c r="EB23" s="21"/>
+      <c r="EC23" s="21"/>
+      <c r="ED23" s="21"/>
+      <c r="EE23" s="21"/>
+      <c r="EF23" s="21"/>
+      <c r="EG23" s="21"/>
+      <c r="EH23" s="21"/>
+      <c r="EI23" s="21"/>
+      <c r="EJ23" s="21"/>
+      <c r="EK23" s="21"/>
+      <c r="EL23" s="21"/>
+      <c r="EM23" s="21"/>
+      <c r="EN23" s="21"/>
+      <c r="EO23" s="21"/>
+      <c r="EP23" s="21"/>
+      <c r="EQ23" s="21"/>
+      <c r="ER23" s="21"/>
+      <c r="ES23" s="21"/>
+      <c r="ET23" s="21"/>
+      <c r="EU23" s="21"/>
+      <c r="EV23" s="21"/>
+      <c r="EW23" s="21"/>
+      <c r="EX23" s="21"/>
+      <c r="EY23" s="21"/>
+      <c r="EZ23" s="21"/>
+      <c r="FA23" s="21"/>
+      <c r="FB23" s="21"/>
+      <c r="FC23" s="21"/>
+      <c r="FD23" s="21"/>
+      <c r="FE23" s="21"/>
+      <c r="FF23" s="21"/>
+      <c r="FG23" s="21"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="35"/>
       <c r="B24" s="48" t="s">
         <v>63</v>
@@ -3945,11 +6436,11 @@
       <c r="E24" s="43"/>
       <c r="F24" s="58">
         <f>G23</f>
-        <v>45373</v>
+        <v>45389</v>
       </c>
       <c r="G24" s="58">
-        <f>F35-1</f>
-        <v>45459</v>
+        <f>F24+21</f>
+        <v>45410</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -4009,8 +6500,106 @@
       <c r="BK24" s="21"/>
       <c r="BL24" s="21"/>
       <c r="BM24" s="21"/>
+      <c r="BN24" s="21"/>
+      <c r="BO24" s="21"/>
+      <c r="BP24" s="21"/>
+      <c r="BQ24" s="21"/>
+      <c r="BR24" s="21"/>
+      <c r="BS24" s="21"/>
+      <c r="BT24" s="21"/>
+      <c r="BU24" s="21"/>
+      <c r="BV24" s="21"/>
+      <c r="BW24" s="21"/>
+      <c r="BX24" s="21"/>
+      <c r="BY24" s="21"/>
+      <c r="BZ24" s="21"/>
+      <c r="CA24" s="21"/>
+      <c r="CB24" s="21"/>
+      <c r="CC24" s="21"/>
+      <c r="CD24" s="21"/>
+      <c r="CE24" s="21"/>
+      <c r="CF24" s="21"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" s="21"/>
+      <c r="CI24" s="21"/>
+      <c r="CJ24" s="21"/>
+      <c r="CK24" s="21"/>
+      <c r="CL24" s="21"/>
+      <c r="CM24" s="21"/>
+      <c r="CN24" s="21"/>
+      <c r="CO24" s="21"/>
+      <c r="CP24" s="21"/>
+      <c r="CQ24" s="21"/>
+      <c r="CR24" s="21"/>
+      <c r="CS24" s="21"/>
+      <c r="CT24" s="21"/>
+      <c r="CU24" s="21"/>
+      <c r="CV24" s="21"/>
+      <c r="CW24" s="21"/>
+      <c r="CX24" s="21"/>
+      <c r="CY24" s="21"/>
+      <c r="CZ24" s="21"/>
+      <c r="DA24" s="21"/>
+      <c r="DB24" s="21"/>
+      <c r="DC24" s="21"/>
+      <c r="DD24" s="21"/>
+      <c r="DE24" s="21"/>
+      <c r="DF24" s="21"/>
+      <c r="DG24" s="21"/>
+      <c r="DH24" s="21"/>
+      <c r="DI24" s="21"/>
+      <c r="DJ24" s="21"/>
+      <c r="DK24" s="21"/>
+      <c r="DL24" s="21"/>
+      <c r="DM24" s="21"/>
+      <c r="DN24" s="21"/>
+      <c r="DO24" s="21"/>
+      <c r="DP24" s="21"/>
+      <c r="DQ24" s="21"/>
+      <c r="DR24" s="21"/>
+      <c r="DS24" s="21"/>
+      <c r="DT24" s="21"/>
+      <c r="DU24" s="21"/>
+      <c r="DV24" s="21"/>
+      <c r="DW24" s="21"/>
+      <c r="DX24" s="21"/>
+      <c r="DY24" s="21"/>
+      <c r="DZ24" s="21"/>
+      <c r="EA24" s="21"/>
+      <c r="EB24" s="21"/>
+      <c r="EC24" s="21"/>
+      <c r="ED24" s="21"/>
+      <c r="EE24" s="21"/>
+      <c r="EF24" s="21"/>
+      <c r="EG24" s="21"/>
+      <c r="EH24" s="21"/>
+      <c r="EI24" s="21"/>
+      <c r="EJ24" s="21"/>
+      <c r="EK24" s="21"/>
+      <c r="EL24" s="21"/>
+      <c r="EM24" s="21"/>
+      <c r="EN24" s="21"/>
+      <c r="EO24" s="21"/>
+      <c r="EP24" s="21"/>
+      <c r="EQ24" s="21"/>
+      <c r="ER24" s="21"/>
+      <c r="ES24" s="21"/>
+      <c r="ET24" s="21"/>
+      <c r="EU24" s="21"/>
+      <c r="EV24" s="21"/>
+      <c r="EW24" s="21"/>
+      <c r="EX24" s="21"/>
+      <c r="EY24" s="21"/>
+      <c r="EZ24" s="21"/>
+      <c r="FA24" s="21"/>
+      <c r="FB24" s="21"/>
+      <c r="FC24" s="21"/>
+      <c r="FD24" s="21"/>
+      <c r="FE24" s="21"/>
+      <c r="FF24" s="21"/>
+      <c r="FG24" s="21"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="34"/>
       <c r="B25" s="48" t="s">
         <v>21</v>
@@ -4025,17 +6614,17 @@
         <v>1.25</v>
       </c>
       <c r="F25" s="58">
-        <f>F24</f>
-        <v>45373</v>
+        <f>G24</f>
+        <v>45410</v>
       </c>
       <c r="G25" s="58">
-        <f>G24</f>
-        <v>45459</v>
+        <f>F25+14</f>
+        <v>45424</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f t="shared" si="117"/>
+        <v>15</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -4093,8 +6682,106 @@
       <c r="BK25" s="21"/>
       <c r="BL25" s="21"/>
       <c r="BM25" s="21"/>
+      <c r="BN25" s="21"/>
+      <c r="BO25" s="21"/>
+      <c r="BP25" s="21"/>
+      <c r="BQ25" s="21"/>
+      <c r="BR25" s="21"/>
+      <c r="BS25" s="21"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+      <c r="BV25" s="21"/>
+      <c r="BW25" s="21"/>
+      <c r="BX25" s="21"/>
+      <c r="BY25" s="21"/>
+      <c r="BZ25" s="21"/>
+      <c r="CA25" s="21"/>
+      <c r="CB25" s="21"/>
+      <c r="CC25" s="21"/>
+      <c r="CD25" s="21"/>
+      <c r="CE25" s="21"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
+      <c r="CI25" s="21"/>
+      <c r="CJ25" s="21"/>
+      <c r="CK25" s="21"/>
+      <c r="CL25" s="21"/>
+      <c r="CM25" s="21"/>
+      <c r="CN25" s="21"/>
+      <c r="CO25" s="21"/>
+      <c r="CP25" s="21"/>
+      <c r="CQ25" s="21"/>
+      <c r="CR25" s="21"/>
+      <c r="CS25" s="21"/>
+      <c r="CT25" s="21"/>
+      <c r="CU25" s="21"/>
+      <c r="CV25" s="21"/>
+      <c r="CW25" s="21"/>
+      <c r="CX25" s="21"/>
+      <c r="CY25" s="21"/>
+      <c r="CZ25" s="21"/>
+      <c r="DA25" s="21"/>
+      <c r="DB25" s="21"/>
+      <c r="DC25" s="21"/>
+      <c r="DD25" s="21"/>
+      <c r="DE25" s="21"/>
+      <c r="DF25" s="21"/>
+      <c r="DG25" s="21"/>
+      <c r="DH25" s="21"/>
+      <c r="DI25" s="21"/>
+      <c r="DJ25" s="21"/>
+      <c r="DK25" s="21"/>
+      <c r="DL25" s="21"/>
+      <c r="DM25" s="21"/>
+      <c r="DN25" s="21"/>
+      <c r="DO25" s="21"/>
+      <c r="DP25" s="21"/>
+      <c r="DQ25" s="21"/>
+      <c r="DR25" s="21"/>
+      <c r="DS25" s="21"/>
+      <c r="DT25" s="21"/>
+      <c r="DU25" s="21"/>
+      <c r="DV25" s="21"/>
+      <c r="DW25" s="21"/>
+      <c r="DX25" s="21"/>
+      <c r="DY25" s="21"/>
+      <c r="DZ25" s="21"/>
+      <c r="EA25" s="21"/>
+      <c r="EB25" s="21"/>
+      <c r="EC25" s="21"/>
+      <c r="ED25" s="21"/>
+      <c r="EE25" s="21"/>
+      <c r="EF25" s="21"/>
+      <c r="EG25" s="21"/>
+      <c r="EH25" s="21"/>
+      <c r="EI25" s="21"/>
+      <c r="EJ25" s="21"/>
+      <c r="EK25" s="21"/>
+      <c r="EL25" s="21"/>
+      <c r="EM25" s="21"/>
+      <c r="EN25" s="21"/>
+      <c r="EO25" s="21"/>
+      <c r="EP25" s="21"/>
+      <c r="EQ25" s="21"/>
+      <c r="ER25" s="21"/>
+      <c r="ES25" s="21"/>
+      <c r="ET25" s="21"/>
+      <c r="EU25" s="21"/>
+      <c r="EV25" s="21"/>
+      <c r="EW25" s="21"/>
+      <c r="EX25" s="21"/>
+      <c r="EY25" s="21"/>
+      <c r="EZ25" s="21"/>
+      <c r="FA25" s="21"/>
+      <c r="FB25" s="21"/>
+      <c r="FC25" s="21"/>
+      <c r="FD25" s="21"/>
+      <c r="FE25" s="21"/>
+      <c r="FF25" s="21"/>
+      <c r="FG25" s="21"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="34"/>
       <c r="B26" s="48" t="s">
         <v>64</v>
@@ -4107,17 +6794,17 @@
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="58">
-        <f>F25</f>
-        <v>45373</v>
+        <f>G25</f>
+        <v>45424</v>
       </c>
       <c r="G26" s="58">
-        <f>G25</f>
-        <v>45459</v>
+        <f>F26+14</f>
+        <v>45438</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f t="shared" si="117"/>
+        <v>15</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -4175,8 +6862,106 @@
       <c r="BK26" s="21"/>
       <c r="BL26" s="21"/>
       <c r="BM26" s="21"/>
+      <c r="BN26" s="21"/>
+      <c r="BO26" s="21"/>
+      <c r="BP26" s="21"/>
+      <c r="BQ26" s="21"/>
+      <c r="BR26" s="21"/>
+      <c r="BS26" s="21"/>
+      <c r="BT26" s="21"/>
+      <c r="BU26" s="21"/>
+      <c r="BV26" s="21"/>
+      <c r="BW26" s="21"/>
+      <c r="BX26" s="21"/>
+      <c r="BY26" s="21"/>
+      <c r="BZ26" s="21"/>
+      <c r="CA26" s="21"/>
+      <c r="CB26" s="21"/>
+      <c r="CC26" s="21"/>
+      <c r="CD26" s="21"/>
+      <c r="CE26" s="21"/>
+      <c r="CF26" s="21"/>
+      <c r="CG26" s="21"/>
+      <c r="CH26" s="21"/>
+      <c r="CI26" s="21"/>
+      <c r="CJ26" s="21"/>
+      <c r="CK26" s="21"/>
+      <c r="CL26" s="21"/>
+      <c r="CM26" s="21"/>
+      <c r="CN26" s="21"/>
+      <c r="CO26" s="21"/>
+      <c r="CP26" s="21"/>
+      <c r="CQ26" s="21"/>
+      <c r="CR26" s="21"/>
+      <c r="CS26" s="21"/>
+      <c r="CT26" s="21"/>
+      <c r="CU26" s="21"/>
+      <c r="CV26" s="21"/>
+      <c r="CW26" s="21"/>
+      <c r="CX26" s="21"/>
+      <c r="CY26" s="21"/>
+      <c r="CZ26" s="21"/>
+      <c r="DA26" s="21"/>
+      <c r="DB26" s="21"/>
+      <c r="DC26" s="21"/>
+      <c r="DD26" s="21"/>
+      <c r="DE26" s="21"/>
+      <c r="DF26" s="21"/>
+      <c r="DG26" s="21"/>
+      <c r="DH26" s="21"/>
+      <c r="DI26" s="21"/>
+      <c r="DJ26" s="21"/>
+      <c r="DK26" s="21"/>
+      <c r="DL26" s="21"/>
+      <c r="DM26" s="21"/>
+      <c r="DN26" s="21"/>
+      <c r="DO26" s="21"/>
+      <c r="DP26" s="21"/>
+      <c r="DQ26" s="21"/>
+      <c r="DR26" s="21"/>
+      <c r="DS26" s="21"/>
+      <c r="DT26" s="21"/>
+      <c r="DU26" s="21"/>
+      <c r="DV26" s="21"/>
+      <c r="DW26" s="21"/>
+      <c r="DX26" s="21"/>
+      <c r="DY26" s="21"/>
+      <c r="DZ26" s="21"/>
+      <c r="EA26" s="21"/>
+      <c r="EB26" s="21"/>
+      <c r="EC26" s="21"/>
+      <c r="ED26" s="21"/>
+      <c r="EE26" s="21"/>
+      <c r="EF26" s="21"/>
+      <c r="EG26" s="21"/>
+      <c r="EH26" s="21"/>
+      <c r="EI26" s="21"/>
+      <c r="EJ26" s="21"/>
+      <c r="EK26" s="21"/>
+      <c r="EL26" s="21"/>
+      <c r="EM26" s="21"/>
+      <c r="EN26" s="21"/>
+      <c r="EO26" s="21"/>
+      <c r="EP26" s="21"/>
+      <c r="EQ26" s="21"/>
+      <c r="ER26" s="21"/>
+      <c r="ES26" s="21"/>
+      <c r="ET26" s="21"/>
+      <c r="EU26" s="21"/>
+      <c r="EV26" s="21"/>
+      <c r="EW26" s="21"/>
+      <c r="EX26" s="21"/>
+      <c r="EY26" s="21"/>
+      <c r="EZ26" s="21"/>
+      <c r="FA26" s="21"/>
+      <c r="FB26" s="21"/>
+      <c r="FC26" s="21"/>
+      <c r="FD26" s="21"/>
+      <c r="FE26" s="21"/>
+      <c r="FF26" s="21"/>
+      <c r="FG26" s="21"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="34"/>
       <c r="B27" s="15" t="s">
         <v>51</v>
@@ -4244,8 +7029,106 @@
       <c r="BK27" s="21"/>
       <c r="BL27" s="21"/>
       <c r="BM27" s="21"/>
+      <c r="BN27" s="21"/>
+      <c r="BO27" s="21"/>
+      <c r="BP27" s="21"/>
+      <c r="BQ27" s="21"/>
+      <c r="BR27" s="21"/>
+      <c r="BS27" s="21"/>
+      <c r="BT27" s="21"/>
+      <c r="BU27" s="21"/>
+      <c r="BV27" s="21"/>
+      <c r="BW27" s="21"/>
+      <c r="BX27" s="21"/>
+      <c r="BY27" s="21"/>
+      <c r="BZ27" s="21"/>
+      <c r="CA27" s="21"/>
+      <c r="CB27" s="21"/>
+      <c r="CC27" s="21"/>
+      <c r="CD27" s="21"/>
+      <c r="CE27" s="21"/>
+      <c r="CF27" s="21"/>
+      <c r="CG27" s="21"/>
+      <c r="CH27" s="21"/>
+      <c r="CI27" s="21"/>
+      <c r="CJ27" s="21"/>
+      <c r="CK27" s="21"/>
+      <c r="CL27" s="21"/>
+      <c r="CM27" s="21"/>
+      <c r="CN27" s="21"/>
+      <c r="CO27" s="21"/>
+      <c r="CP27" s="21"/>
+      <c r="CQ27" s="21"/>
+      <c r="CR27" s="21"/>
+      <c r="CS27" s="21"/>
+      <c r="CT27" s="21"/>
+      <c r="CU27" s="21"/>
+      <c r="CV27" s="21"/>
+      <c r="CW27" s="21"/>
+      <c r="CX27" s="21"/>
+      <c r="CY27" s="21"/>
+      <c r="CZ27" s="21"/>
+      <c r="DA27" s="21"/>
+      <c r="DB27" s="21"/>
+      <c r="DC27" s="21"/>
+      <c r="DD27" s="21"/>
+      <c r="DE27" s="21"/>
+      <c r="DF27" s="21"/>
+      <c r="DG27" s="21"/>
+      <c r="DH27" s="21"/>
+      <c r="DI27" s="21"/>
+      <c r="DJ27" s="21"/>
+      <c r="DK27" s="21"/>
+      <c r="DL27" s="21"/>
+      <c r="DM27" s="21"/>
+      <c r="DN27" s="21"/>
+      <c r="DO27" s="21"/>
+      <c r="DP27" s="21"/>
+      <c r="DQ27" s="21"/>
+      <c r="DR27" s="21"/>
+      <c r="DS27" s="21"/>
+      <c r="DT27" s="21"/>
+      <c r="DU27" s="21"/>
+      <c r="DV27" s="21"/>
+      <c r="DW27" s="21"/>
+      <c r="DX27" s="21"/>
+      <c r="DY27" s="21"/>
+      <c r="DZ27" s="21"/>
+      <c r="EA27" s="21"/>
+      <c r="EB27" s="21"/>
+      <c r="EC27" s="21"/>
+      <c r="ED27" s="21"/>
+      <c r="EE27" s="21"/>
+      <c r="EF27" s="21"/>
+      <c r="EG27" s="21"/>
+      <c r="EH27" s="21"/>
+      <c r="EI27" s="21"/>
+      <c r="EJ27" s="21"/>
+      <c r="EK27" s="21"/>
+      <c r="EL27" s="21"/>
+      <c r="EM27" s="21"/>
+      <c r="EN27" s="21"/>
+      <c r="EO27" s="21"/>
+      <c r="EP27" s="21"/>
+      <c r="EQ27" s="21"/>
+      <c r="ER27" s="21"/>
+      <c r="ES27" s="21"/>
+      <c r="ET27" s="21"/>
+      <c r="EU27" s="21"/>
+      <c r="EV27" s="21"/>
+      <c r="EW27" s="21"/>
+      <c r="EX27" s="21"/>
+      <c r="EY27" s="21"/>
+      <c r="EZ27" s="21"/>
+      <c r="FA27" s="21"/>
+      <c r="FB27" s="21"/>
+      <c r="FC27" s="21"/>
+      <c r="FD27" s="21"/>
+      <c r="FE27" s="21"/>
+      <c r="FF27" s="21"/>
+      <c r="FG27" s="21"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="34"/>
       <c r="B28" s="48" t="s">
         <v>65</v>
@@ -4258,17 +7141,17 @@
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="58">
-        <f>F26</f>
-        <v>45373</v>
+        <f>F24</f>
+        <v>45389</v>
       </c>
       <c r="G28" s="58">
-        <f>G26</f>
+        <f>F35-1</f>
         <v>45459</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f t="shared" si="117"/>
+        <v>71</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -4326,8 +7209,106 @@
       <c r="BK28" s="21"/>
       <c r="BL28" s="21"/>
       <c r="BM28" s="21"/>
+      <c r="BN28" s="21"/>
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="21"/>
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="21"/>
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="21"/>
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="21"/>
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="21"/>
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21"/>
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
+      <c r="CP28" s="21"/>
+      <c r="CQ28" s="21"/>
+      <c r="CR28" s="21"/>
+      <c r="CS28" s="21"/>
+      <c r="CT28" s="21"/>
+      <c r="CU28" s="21"/>
+      <c r="CV28" s="21"/>
+      <c r="CW28" s="21"/>
+      <c r="CX28" s="21"/>
+      <c r="CY28" s="21"/>
+      <c r="CZ28" s="21"/>
+      <c r="DA28" s="21"/>
+      <c r="DB28" s="21"/>
+      <c r="DC28" s="21"/>
+      <c r="DD28" s="21"/>
+      <c r="DE28" s="21"/>
+      <c r="DF28" s="21"/>
+      <c r="DG28" s="21"/>
+      <c r="DH28" s="21"/>
+      <c r="DI28" s="21"/>
+      <c r="DJ28" s="21"/>
+      <c r="DK28" s="21"/>
+      <c r="DL28" s="21"/>
+      <c r="DM28" s="21"/>
+      <c r="DN28" s="21"/>
+      <c r="DO28" s="21"/>
+      <c r="DP28" s="21"/>
+      <c r="DQ28" s="21"/>
+      <c r="DR28" s="21"/>
+      <c r="DS28" s="21"/>
+      <c r="DT28" s="21"/>
+      <c r="DU28" s="21"/>
+      <c r="DV28" s="21"/>
+      <c r="DW28" s="21"/>
+      <c r="DX28" s="21"/>
+      <c r="DY28" s="21"/>
+      <c r="DZ28" s="21"/>
+      <c r="EA28" s="21"/>
+      <c r="EB28" s="21"/>
+      <c r="EC28" s="21"/>
+      <c r="ED28" s="21"/>
+      <c r="EE28" s="21"/>
+      <c r="EF28" s="21"/>
+      <c r="EG28" s="21"/>
+      <c r="EH28" s="21"/>
+      <c r="EI28" s="21"/>
+      <c r="EJ28" s="21"/>
+      <c r="EK28" s="21"/>
+      <c r="EL28" s="21"/>
+      <c r="EM28" s="21"/>
+      <c r="EN28" s="21"/>
+      <c r="EO28" s="21"/>
+      <c r="EP28" s="21"/>
+      <c r="EQ28" s="21"/>
+      <c r="ER28" s="21"/>
+      <c r="ES28" s="21"/>
+      <c r="ET28" s="21"/>
+      <c r="EU28" s="21"/>
+      <c r="EV28" s="21"/>
+      <c r="EW28" s="21"/>
+      <c r="EX28" s="21"/>
+      <c r="EY28" s="21"/>
+      <c r="EZ28" s="21"/>
+      <c r="FA28" s="21"/>
+      <c r="FB28" s="21"/>
+      <c r="FC28" s="21"/>
+      <c r="FD28" s="21"/>
+      <c r="FE28" s="21"/>
+      <c r="FF28" s="21"/>
+      <c r="FG28" s="21"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="34"/>
       <c r="B29" s="48" t="s">
         <v>66</v>
@@ -4340,8 +7321,8 @@
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="58">
-        <f>F28</f>
-        <v>45373</v>
+        <f>F35-7</f>
+        <v>45453</v>
       </c>
       <c r="G29" s="58">
         <f>G28</f>
@@ -4405,8 +7386,106 @@
       <c r="BK29" s="21"/>
       <c r="BL29" s="21"/>
       <c r="BM29" s="21"/>
+      <c r="BN29" s="21"/>
+      <c r="BO29" s="21"/>
+      <c r="BP29" s="21"/>
+      <c r="BQ29" s="21"/>
+      <c r="BR29" s="21"/>
+      <c r="BS29" s="21"/>
+      <c r="BT29" s="21"/>
+      <c r="BU29" s="21"/>
+      <c r="BV29" s="21"/>
+      <c r="BW29" s="21"/>
+      <c r="BX29" s="21"/>
+      <c r="BY29" s="21"/>
+      <c r="BZ29" s="21"/>
+      <c r="CA29" s="21"/>
+      <c r="CB29" s="21"/>
+      <c r="CC29" s="21"/>
+      <c r="CD29" s="21"/>
+      <c r="CE29" s="21"/>
+      <c r="CF29" s="21"/>
+      <c r="CG29" s="21"/>
+      <c r="CH29" s="21"/>
+      <c r="CI29" s="21"/>
+      <c r="CJ29" s="21"/>
+      <c r="CK29" s="21"/>
+      <c r="CL29" s="21"/>
+      <c r="CM29" s="21"/>
+      <c r="CN29" s="21"/>
+      <c r="CO29" s="21"/>
+      <c r="CP29" s="21"/>
+      <c r="CQ29" s="21"/>
+      <c r="CR29" s="21"/>
+      <c r="CS29" s="21"/>
+      <c r="CT29" s="21"/>
+      <c r="CU29" s="21"/>
+      <c r="CV29" s="21"/>
+      <c r="CW29" s="21"/>
+      <c r="CX29" s="21"/>
+      <c r="CY29" s="21"/>
+      <c r="CZ29" s="21"/>
+      <c r="DA29" s="21"/>
+      <c r="DB29" s="21"/>
+      <c r="DC29" s="21"/>
+      <c r="DD29" s="21"/>
+      <c r="DE29" s="21"/>
+      <c r="DF29" s="21"/>
+      <c r="DG29" s="21"/>
+      <c r="DH29" s="21"/>
+      <c r="DI29" s="21"/>
+      <c r="DJ29" s="21"/>
+      <c r="DK29" s="21"/>
+      <c r="DL29" s="21"/>
+      <c r="DM29" s="21"/>
+      <c r="DN29" s="21"/>
+      <c r="DO29" s="21"/>
+      <c r="DP29" s="21"/>
+      <c r="DQ29" s="21"/>
+      <c r="DR29" s="21"/>
+      <c r="DS29" s="21"/>
+      <c r="DT29" s="21"/>
+      <c r="DU29" s="21"/>
+      <c r="DV29" s="21"/>
+      <c r="DW29" s="21"/>
+      <c r="DX29" s="21"/>
+      <c r="DY29" s="21"/>
+      <c r="DZ29" s="21"/>
+      <c r="EA29" s="21"/>
+      <c r="EB29" s="21"/>
+      <c r="EC29" s="21"/>
+      <c r="ED29" s="21"/>
+      <c r="EE29" s="21"/>
+      <c r="EF29" s="21"/>
+      <c r="EG29" s="21"/>
+      <c r="EH29" s="21"/>
+      <c r="EI29" s="21"/>
+      <c r="EJ29" s="21"/>
+      <c r="EK29" s="21"/>
+      <c r="EL29" s="21"/>
+      <c r="EM29" s="21"/>
+      <c r="EN29" s="21"/>
+      <c r="EO29" s="21"/>
+      <c r="EP29" s="21"/>
+      <c r="EQ29" s="21"/>
+      <c r="ER29" s="21"/>
+      <c r="ES29" s="21"/>
+      <c r="ET29" s="21"/>
+      <c r="EU29" s="21"/>
+      <c r="EV29" s="21"/>
+      <c r="EW29" s="21"/>
+      <c r="EX29" s="21"/>
+      <c r="EY29" s="21"/>
+      <c r="EZ29" s="21"/>
+      <c r="FA29" s="21"/>
+      <c r="FB29" s="21"/>
+      <c r="FC29" s="21"/>
+      <c r="FD29" s="21"/>
+      <c r="FE29" s="21"/>
+      <c r="FF29" s="21"/>
+      <c r="FG29" s="21"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="34"/>
       <c r="B30" s="48" t="s">
         <v>67</v>
@@ -4419,11 +7498,11 @@
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="58">
-        <f t="shared" ref="F30:F34" si="7">F29</f>
-        <v>45373</v>
+        <f>G26</f>
+        <v>45438</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" ref="G30:G34" si="8">G29</f>
+        <f t="shared" ref="G30:G34" si="119">G29</f>
         <v>45459</v>
       </c>
       <c r="H30" s="11"/>
@@ -4484,8 +7563,106 @@
       <c r="BK30" s="21"/>
       <c r="BL30" s="21"/>
       <c r="BM30" s="21"/>
+      <c r="BN30" s="21"/>
+      <c r="BO30" s="21"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="21"/>
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="21"/>
+      <c r="BU30" s="21"/>
+      <c r="BV30" s="21"/>
+      <c r="BW30" s="21"/>
+      <c r="BX30" s="21"/>
+      <c r="BY30" s="21"/>
+      <c r="BZ30" s="21"/>
+      <c r="CA30" s="21"/>
+      <c r="CB30" s="21"/>
+      <c r="CC30" s="21"/>
+      <c r="CD30" s="21"/>
+      <c r="CE30" s="21"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21"/>
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CN30" s="21"/>
+      <c r="CO30" s="21"/>
+      <c r="CP30" s="21"/>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
+      <c r="CS30" s="21"/>
+      <c r="CT30" s="21"/>
+      <c r="CU30" s="21"/>
+      <c r="CV30" s="21"/>
+      <c r="CW30" s="21"/>
+      <c r="CX30" s="21"/>
+      <c r="CY30" s="21"/>
+      <c r="CZ30" s="21"/>
+      <c r="DA30" s="21"/>
+      <c r="DB30" s="21"/>
+      <c r="DC30" s="21"/>
+      <c r="DD30" s="21"/>
+      <c r="DE30" s="21"/>
+      <c r="DF30" s="21"/>
+      <c r="DG30" s="21"/>
+      <c r="DH30" s="21"/>
+      <c r="DI30" s="21"/>
+      <c r="DJ30" s="21"/>
+      <c r="DK30" s="21"/>
+      <c r="DL30" s="21"/>
+      <c r="DM30" s="21"/>
+      <c r="DN30" s="21"/>
+      <c r="DO30" s="21"/>
+      <c r="DP30" s="21"/>
+      <c r="DQ30" s="21"/>
+      <c r="DR30" s="21"/>
+      <c r="DS30" s="21"/>
+      <c r="DT30" s="21"/>
+      <c r="DU30" s="21"/>
+      <c r="DV30" s="21"/>
+      <c r="DW30" s="21"/>
+      <c r="DX30" s="21"/>
+      <c r="DY30" s="21"/>
+      <c r="DZ30" s="21"/>
+      <c r="EA30" s="21"/>
+      <c r="EB30" s="21"/>
+      <c r="EC30" s="21"/>
+      <c r="ED30" s="21"/>
+      <c r="EE30" s="21"/>
+      <c r="EF30" s="21"/>
+      <c r="EG30" s="21"/>
+      <c r="EH30" s="21"/>
+      <c r="EI30" s="21"/>
+      <c r="EJ30" s="21"/>
+      <c r="EK30" s="21"/>
+      <c r="EL30" s="21"/>
+      <c r="EM30" s="21"/>
+      <c r="EN30" s="21"/>
+      <c r="EO30" s="21"/>
+      <c r="EP30" s="21"/>
+      <c r="EQ30" s="21"/>
+      <c r="ER30" s="21"/>
+      <c r="ES30" s="21"/>
+      <c r="ET30" s="21"/>
+      <c r="EU30" s="21"/>
+      <c r="EV30" s="21"/>
+      <c r="EW30" s="21"/>
+      <c r="EX30" s="21"/>
+      <c r="EY30" s="21"/>
+      <c r="EZ30" s="21"/>
+      <c r="FA30" s="21"/>
+      <c r="FB30" s="21"/>
+      <c r="FC30" s="21"/>
+      <c r="FD30" s="21"/>
+      <c r="FE30" s="21"/>
+      <c r="FF30" s="21"/>
+      <c r="FG30" s="21"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="34"/>
       <c r="B31" s="48" t="s">
         <v>68</v>
@@ -4498,11 +7675,11 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="58">
-        <f t="shared" si="7"/>
-        <v>45373</v>
+        <f t="shared" ref="F30:F34" si="120">F30</f>
+        <v>45438</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="119"/>
         <v>45459</v>
       </c>
       <c r="H31" s="11"/>
@@ -4563,8 +7740,106 @@
       <c r="BK31" s="21"/>
       <c r="BL31" s="21"/>
       <c r="BM31" s="21"/>
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="21"/>
+      <c r="BR31" s="21"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="21"/>
+      <c r="BU31" s="21"/>
+      <c r="BV31" s="21"/>
+      <c r="BW31" s="21"/>
+      <c r="BX31" s="21"/>
+      <c r="BY31" s="21"/>
+      <c r="BZ31" s="21"/>
+      <c r="CA31" s="21"/>
+      <c r="CB31" s="21"/>
+      <c r="CC31" s="21"/>
+      <c r="CD31" s="21"/>
+      <c r="CE31" s="21"/>
+      <c r="CF31" s="21"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" s="21"/>
+      <c r="CI31" s="21"/>
+      <c r="CJ31" s="21"/>
+      <c r="CK31" s="21"/>
+      <c r="CL31" s="21"/>
+      <c r="CM31" s="21"/>
+      <c r="CN31" s="21"/>
+      <c r="CO31" s="21"/>
+      <c r="CP31" s="21"/>
+      <c r="CQ31" s="21"/>
+      <c r="CR31" s="21"/>
+      <c r="CS31" s="21"/>
+      <c r="CT31" s="21"/>
+      <c r="CU31" s="21"/>
+      <c r="CV31" s="21"/>
+      <c r="CW31" s="21"/>
+      <c r="CX31" s="21"/>
+      <c r="CY31" s="21"/>
+      <c r="CZ31" s="21"/>
+      <c r="DA31" s="21"/>
+      <c r="DB31" s="21"/>
+      <c r="DC31" s="21"/>
+      <c r="DD31" s="21"/>
+      <c r="DE31" s="21"/>
+      <c r="DF31" s="21"/>
+      <c r="DG31" s="21"/>
+      <c r="DH31" s="21"/>
+      <c r="DI31" s="21"/>
+      <c r="DJ31" s="21"/>
+      <c r="DK31" s="21"/>
+      <c r="DL31" s="21"/>
+      <c r="DM31" s="21"/>
+      <c r="DN31" s="21"/>
+      <c r="DO31" s="21"/>
+      <c r="DP31" s="21"/>
+      <c r="DQ31" s="21"/>
+      <c r="DR31" s="21"/>
+      <c r="DS31" s="21"/>
+      <c r="DT31" s="21"/>
+      <c r="DU31" s="21"/>
+      <c r="DV31" s="21"/>
+      <c r="DW31" s="21"/>
+      <c r="DX31" s="21"/>
+      <c r="DY31" s="21"/>
+      <c r="DZ31" s="21"/>
+      <c r="EA31" s="21"/>
+      <c r="EB31" s="21"/>
+      <c r="EC31" s="21"/>
+      <c r="ED31" s="21"/>
+      <c r="EE31" s="21"/>
+      <c r="EF31" s="21"/>
+      <c r="EG31" s="21"/>
+      <c r="EH31" s="21"/>
+      <c r="EI31" s="21"/>
+      <c r="EJ31" s="21"/>
+      <c r="EK31" s="21"/>
+      <c r="EL31" s="21"/>
+      <c r="EM31" s="21"/>
+      <c r="EN31" s="21"/>
+      <c r="EO31" s="21"/>
+      <c r="EP31" s="21"/>
+      <c r="EQ31" s="21"/>
+      <c r="ER31" s="21"/>
+      <c r="ES31" s="21"/>
+      <c r="ET31" s="21"/>
+      <c r="EU31" s="21"/>
+      <c r="EV31" s="21"/>
+      <c r="EW31" s="21"/>
+      <c r="EX31" s="21"/>
+      <c r="EY31" s="21"/>
+      <c r="EZ31" s="21"/>
+      <c r="FA31" s="21"/>
+      <c r="FB31" s="21"/>
+      <c r="FC31" s="21"/>
+      <c r="FD31" s="21"/>
+      <c r="FE31" s="21"/>
+      <c r="FF31" s="21"/>
+      <c r="FG31" s="21"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="34"/>
       <c r="B32" s="48" t="s">
         <v>69</v>
@@ -4577,11 +7852,11 @@
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="58">
-        <f t="shared" si="7"/>
-        <v>45373</v>
+        <f t="shared" si="120"/>
+        <v>45438</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="119"/>
         <v>45459</v>
       </c>
       <c r="H32" s="11"/>
@@ -4642,8 +7917,106 @@
       <c r="BK32" s="21"/>
       <c r="BL32" s="21"/>
       <c r="BM32" s="21"/>
+      <c r="BN32" s="21"/>
+      <c r="BO32" s="21"/>
+      <c r="BP32" s="21"/>
+      <c r="BQ32" s="21"/>
+      <c r="BR32" s="21"/>
+      <c r="BS32" s="21"/>
+      <c r="BT32" s="21"/>
+      <c r="BU32" s="21"/>
+      <c r="BV32" s="21"/>
+      <c r="BW32" s="21"/>
+      <c r="BX32" s="21"/>
+      <c r="BY32" s="21"/>
+      <c r="BZ32" s="21"/>
+      <c r="CA32" s="21"/>
+      <c r="CB32" s="21"/>
+      <c r="CC32" s="21"/>
+      <c r="CD32" s="21"/>
+      <c r="CE32" s="21"/>
+      <c r="CF32" s="21"/>
+      <c r="CG32" s="21"/>
+      <c r="CH32" s="21"/>
+      <c r="CI32" s="21"/>
+      <c r="CJ32" s="21"/>
+      <c r="CK32" s="21"/>
+      <c r="CL32" s="21"/>
+      <c r="CM32" s="21"/>
+      <c r="CN32" s="21"/>
+      <c r="CO32" s="21"/>
+      <c r="CP32" s="21"/>
+      <c r="CQ32" s="21"/>
+      <c r="CR32" s="21"/>
+      <c r="CS32" s="21"/>
+      <c r="CT32" s="21"/>
+      <c r="CU32" s="21"/>
+      <c r="CV32" s="21"/>
+      <c r="CW32" s="21"/>
+      <c r="CX32" s="21"/>
+      <c r="CY32" s="21"/>
+      <c r="CZ32" s="21"/>
+      <c r="DA32" s="21"/>
+      <c r="DB32" s="21"/>
+      <c r="DC32" s="21"/>
+      <c r="DD32" s="21"/>
+      <c r="DE32" s="21"/>
+      <c r="DF32" s="21"/>
+      <c r="DG32" s="21"/>
+      <c r="DH32" s="21"/>
+      <c r="DI32" s="21"/>
+      <c r="DJ32" s="21"/>
+      <c r="DK32" s="21"/>
+      <c r="DL32" s="21"/>
+      <c r="DM32" s="21"/>
+      <c r="DN32" s="21"/>
+      <c r="DO32" s="21"/>
+      <c r="DP32" s="21"/>
+      <c r="DQ32" s="21"/>
+      <c r="DR32" s="21"/>
+      <c r="DS32" s="21"/>
+      <c r="DT32" s="21"/>
+      <c r="DU32" s="21"/>
+      <c r="DV32" s="21"/>
+      <c r="DW32" s="21"/>
+      <c r="DX32" s="21"/>
+      <c r="DY32" s="21"/>
+      <c r="DZ32" s="21"/>
+      <c r="EA32" s="21"/>
+      <c r="EB32" s="21"/>
+      <c r="EC32" s="21"/>
+      <c r="ED32" s="21"/>
+      <c r="EE32" s="21"/>
+      <c r="EF32" s="21"/>
+      <c r="EG32" s="21"/>
+      <c r="EH32" s="21"/>
+      <c r="EI32" s="21"/>
+      <c r="EJ32" s="21"/>
+      <c r="EK32" s="21"/>
+      <c r="EL32" s="21"/>
+      <c r="EM32" s="21"/>
+      <c r="EN32" s="21"/>
+      <c r="EO32" s="21"/>
+      <c r="EP32" s="21"/>
+      <c r="EQ32" s="21"/>
+      <c r="ER32" s="21"/>
+      <c r="ES32" s="21"/>
+      <c r="ET32" s="21"/>
+      <c r="EU32" s="21"/>
+      <c r="EV32" s="21"/>
+      <c r="EW32" s="21"/>
+      <c r="EX32" s="21"/>
+      <c r="EY32" s="21"/>
+      <c r="EZ32" s="21"/>
+      <c r="FA32" s="21"/>
+      <c r="FB32" s="21"/>
+      <c r="FC32" s="21"/>
+      <c r="FD32" s="21"/>
+      <c r="FE32" s="21"/>
+      <c r="FF32" s="21"/>
+      <c r="FG32" s="21"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="34"/>
       <c r="B33" s="48" t="s">
         <v>70</v>
@@ -4656,11 +8029,11 @@
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="58">
-        <f t="shared" si="7"/>
-        <v>45373</v>
+        <f t="shared" si="120"/>
+        <v>45438</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="119"/>
         <v>45459</v>
       </c>
       <c r="H33" s="11"/>
@@ -4721,8 +8094,106 @@
       <c r="BK33" s="21"/>
       <c r="BL33" s="21"/>
       <c r="BM33" s="21"/>
+      <c r="BN33" s="21"/>
+      <c r="BO33" s="21"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="21"/>
+      <c r="BR33" s="21"/>
+      <c r="BS33" s="21"/>
+      <c r="BT33" s="21"/>
+      <c r="BU33" s="21"/>
+      <c r="BV33" s="21"/>
+      <c r="BW33" s="21"/>
+      <c r="BX33" s="21"/>
+      <c r="BY33" s="21"/>
+      <c r="BZ33" s="21"/>
+      <c r="CA33" s="21"/>
+      <c r="CB33" s="21"/>
+      <c r="CC33" s="21"/>
+      <c r="CD33" s="21"/>
+      <c r="CE33" s="21"/>
+      <c r="CF33" s="21"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
+      <c r="CN33" s="21"/>
+      <c r="CO33" s="21"/>
+      <c r="CP33" s="21"/>
+      <c r="CQ33" s="21"/>
+      <c r="CR33" s="21"/>
+      <c r="CS33" s="21"/>
+      <c r="CT33" s="21"/>
+      <c r="CU33" s="21"/>
+      <c r="CV33" s="21"/>
+      <c r="CW33" s="21"/>
+      <c r="CX33" s="21"/>
+      <c r="CY33" s="21"/>
+      <c r="CZ33" s="21"/>
+      <c r="DA33" s="21"/>
+      <c r="DB33" s="21"/>
+      <c r="DC33" s="21"/>
+      <c r="DD33" s="21"/>
+      <c r="DE33" s="21"/>
+      <c r="DF33" s="21"/>
+      <c r="DG33" s="21"/>
+      <c r="DH33" s="21"/>
+      <c r="DI33" s="21"/>
+      <c r="DJ33" s="21"/>
+      <c r="DK33" s="21"/>
+      <c r="DL33" s="21"/>
+      <c r="DM33" s="21"/>
+      <c r="DN33" s="21"/>
+      <c r="DO33" s="21"/>
+      <c r="DP33" s="21"/>
+      <c r="DQ33" s="21"/>
+      <c r="DR33" s="21"/>
+      <c r="DS33" s="21"/>
+      <c r="DT33" s="21"/>
+      <c r="DU33" s="21"/>
+      <c r="DV33" s="21"/>
+      <c r="DW33" s="21"/>
+      <c r="DX33" s="21"/>
+      <c r="DY33" s="21"/>
+      <c r="DZ33" s="21"/>
+      <c r="EA33" s="21"/>
+      <c r="EB33" s="21"/>
+      <c r="EC33" s="21"/>
+      <c r="ED33" s="21"/>
+      <c r="EE33" s="21"/>
+      <c r="EF33" s="21"/>
+      <c r="EG33" s="21"/>
+      <c r="EH33" s="21"/>
+      <c r="EI33" s="21"/>
+      <c r="EJ33" s="21"/>
+      <c r="EK33" s="21"/>
+      <c r="EL33" s="21"/>
+      <c r="EM33" s="21"/>
+      <c r="EN33" s="21"/>
+      <c r="EO33" s="21"/>
+      <c r="EP33" s="21"/>
+      <c r="EQ33" s="21"/>
+      <c r="ER33" s="21"/>
+      <c r="ES33" s="21"/>
+      <c r="ET33" s="21"/>
+      <c r="EU33" s="21"/>
+      <c r="EV33" s="21"/>
+      <c r="EW33" s="21"/>
+      <c r="EX33" s="21"/>
+      <c r="EY33" s="21"/>
+      <c r="EZ33" s="21"/>
+      <c r="FA33" s="21"/>
+      <c r="FB33" s="21"/>
+      <c r="FC33" s="21"/>
+      <c r="FD33" s="21"/>
+      <c r="FE33" s="21"/>
+      <c r="FF33" s="21"/>
+      <c r="FG33" s="21"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="34"/>
       <c r="B34" s="48" t="s">
         <v>71</v>
@@ -4735,11 +8206,11 @@
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="58">
-        <f t="shared" si="7"/>
-        <v>45373</v>
+        <f t="shared" si="120"/>
+        <v>45438</v>
       </c>
       <c r="G34" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="119"/>
         <v>45459</v>
       </c>
       <c r="H34" s="11"/>
@@ -4800,8 +8271,106 @@
       <c r="BK34" s="21"/>
       <c r="BL34" s="21"/>
       <c r="BM34" s="21"/>
+      <c r="BN34" s="21"/>
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21"/>
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+      <c r="BV34" s="21"/>
+      <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21"/>
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
+      <c r="CD34" s="21"/>
+      <c r="CE34" s="21"/>
+      <c r="CF34" s="21"/>
+      <c r="CG34" s="21"/>
+      <c r="CH34" s="21"/>
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="21"/>
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21"/>
+      <c r="CU34" s="21"/>
+      <c r="CV34" s="21"/>
+      <c r="CW34" s="21"/>
+      <c r="CX34" s="21"/>
+      <c r="CY34" s="21"/>
+      <c r="CZ34" s="21"/>
+      <c r="DA34" s="21"/>
+      <c r="DB34" s="21"/>
+      <c r="DC34" s="21"/>
+      <c r="DD34" s="21"/>
+      <c r="DE34" s="21"/>
+      <c r="DF34" s="21"/>
+      <c r="DG34" s="21"/>
+      <c r="DH34" s="21"/>
+      <c r="DI34" s="21"/>
+      <c r="DJ34" s="21"/>
+      <c r="DK34" s="21"/>
+      <c r="DL34" s="21"/>
+      <c r="DM34" s="21"/>
+      <c r="DN34" s="21"/>
+      <c r="DO34" s="21"/>
+      <c r="DP34" s="21"/>
+      <c r="DQ34" s="21"/>
+      <c r="DR34" s="21"/>
+      <c r="DS34" s="21"/>
+      <c r="DT34" s="21"/>
+      <c r="DU34" s="21"/>
+      <c r="DV34" s="21"/>
+      <c r="DW34" s="21"/>
+      <c r="DX34" s="21"/>
+      <c r="DY34" s="21"/>
+      <c r="DZ34" s="21"/>
+      <c r="EA34" s="21"/>
+      <c r="EB34" s="21"/>
+      <c r="EC34" s="21"/>
+      <c r="ED34" s="21"/>
+      <c r="EE34" s="21"/>
+      <c r="EF34" s="21"/>
+      <c r="EG34" s="21"/>
+      <c r="EH34" s="21"/>
+      <c r="EI34" s="21"/>
+      <c r="EJ34" s="21"/>
+      <c r="EK34" s="21"/>
+      <c r="EL34" s="21"/>
+      <c r="EM34" s="21"/>
+      <c r="EN34" s="21"/>
+      <c r="EO34" s="21"/>
+      <c r="EP34" s="21"/>
+      <c r="EQ34" s="21"/>
+      <c r="ER34" s="21"/>
+      <c r="ES34" s="21"/>
+      <c r="ET34" s="21"/>
+      <c r="EU34" s="21"/>
+      <c r="EV34" s="21"/>
+      <c r="EW34" s="21"/>
+      <c r="EX34" s="21"/>
+      <c r="EY34" s="21"/>
+      <c r="EZ34" s="21"/>
+      <c r="FA34" s="21"/>
+      <c r="FB34" s="21"/>
+      <c r="FC34" s="21"/>
+      <c r="FD34" s="21"/>
+      <c r="FE34" s="21"/>
+      <c r="FF34" s="21"/>
+      <c r="FG34" s="21"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="34"/>
       <c r="B35" s="76" t="s">
         <v>52</v>
@@ -4879,8 +8448,106 @@
       <c r="BK35" s="21"/>
       <c r="BL35" s="21"/>
       <c r="BM35" s="21"/>
+      <c r="BN35" s="21"/>
+      <c r="BO35" s="21"/>
+      <c r="BP35" s="21"/>
+      <c r="BQ35" s="21"/>
+      <c r="BR35" s="21"/>
+      <c r="BS35" s="21"/>
+      <c r="BT35" s="21"/>
+      <c r="BU35" s="21"/>
+      <c r="BV35" s="21"/>
+      <c r="BW35" s="21"/>
+      <c r="BX35" s="21"/>
+      <c r="BY35" s="21"/>
+      <c r="BZ35" s="21"/>
+      <c r="CA35" s="21"/>
+      <c r="CB35" s="21"/>
+      <c r="CC35" s="21"/>
+      <c r="CD35" s="21"/>
+      <c r="CE35" s="21"/>
+      <c r="CF35" s="21"/>
+      <c r="CG35" s="21"/>
+      <c r="CH35" s="21"/>
+      <c r="CI35" s="21"/>
+      <c r="CJ35" s="21"/>
+      <c r="CK35" s="21"/>
+      <c r="CL35" s="21"/>
+      <c r="CM35" s="21"/>
+      <c r="CN35" s="21"/>
+      <c r="CO35" s="21"/>
+      <c r="CP35" s="21"/>
+      <c r="CQ35" s="21"/>
+      <c r="CR35" s="21"/>
+      <c r="CS35" s="21"/>
+      <c r="CT35" s="21"/>
+      <c r="CU35" s="21"/>
+      <c r="CV35" s="21"/>
+      <c r="CW35" s="21"/>
+      <c r="CX35" s="21"/>
+      <c r="CY35" s="21"/>
+      <c r="CZ35" s="21"/>
+      <c r="DA35" s="21"/>
+      <c r="DB35" s="21"/>
+      <c r="DC35" s="21"/>
+      <c r="DD35" s="21"/>
+      <c r="DE35" s="21"/>
+      <c r="DF35" s="21"/>
+      <c r="DG35" s="21"/>
+      <c r="DH35" s="21"/>
+      <c r="DI35" s="21"/>
+      <c r="DJ35" s="21"/>
+      <c r="DK35" s="21"/>
+      <c r="DL35" s="21"/>
+      <c r="DM35" s="21"/>
+      <c r="DN35" s="21"/>
+      <c r="DO35" s="21"/>
+      <c r="DP35" s="21"/>
+      <c r="DQ35" s="21"/>
+      <c r="DR35" s="21"/>
+      <c r="DS35" s="21"/>
+      <c r="DT35" s="21"/>
+      <c r="DU35" s="21"/>
+      <c r="DV35" s="21"/>
+      <c r="DW35" s="21"/>
+      <c r="DX35" s="21"/>
+      <c r="DY35" s="21"/>
+      <c r="DZ35" s="21"/>
+      <c r="EA35" s="21"/>
+      <c r="EB35" s="21"/>
+      <c r="EC35" s="21"/>
+      <c r="ED35" s="21"/>
+      <c r="EE35" s="21"/>
+      <c r="EF35" s="21"/>
+      <c r="EG35" s="21"/>
+      <c r="EH35" s="21"/>
+      <c r="EI35" s="21"/>
+      <c r="EJ35" s="21"/>
+      <c r="EK35" s="21"/>
+      <c r="EL35" s="21"/>
+      <c r="EM35" s="21"/>
+      <c r="EN35" s="21"/>
+      <c r="EO35" s="21"/>
+      <c r="EP35" s="21"/>
+      <c r="EQ35" s="21"/>
+      <c r="ER35" s="21"/>
+      <c r="ES35" s="21"/>
+      <c r="ET35" s="21"/>
+      <c r="EU35" s="21"/>
+      <c r="EV35" s="21"/>
+      <c r="EW35" s="21"/>
+      <c r="EX35" s="21"/>
+      <c r="EY35" s="21"/>
+      <c r="EZ35" s="21"/>
+      <c r="FA35" s="21"/>
+      <c r="FB35" s="21"/>
+      <c r="FC35" s="21"/>
+      <c r="FD35" s="21"/>
+      <c r="FE35" s="21"/>
+      <c r="FF35" s="21"/>
+      <c r="FG35" s="21"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="34" t="s">
         <v>22</v>
       </c>
@@ -4894,7 +8561,7 @@
       <c r="G36" s="60"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J36" s="21"/>
@@ -4953,8 +8620,106 @@
       <c r="BK36" s="21"/>
       <c r="BL36" s="21"/>
       <c r="BM36" s="21"/>
+      <c r="BN36" s="21"/>
+      <c r="BO36" s="21"/>
+      <c r="BP36" s="21"/>
+      <c r="BQ36" s="21"/>
+      <c r="BR36" s="21"/>
+      <c r="BS36" s="21"/>
+      <c r="BT36" s="21"/>
+      <c r="BU36" s="21"/>
+      <c r="BV36" s="21"/>
+      <c r="BW36" s="21"/>
+      <c r="BX36" s="21"/>
+      <c r="BY36" s="21"/>
+      <c r="BZ36" s="21"/>
+      <c r="CA36" s="21"/>
+      <c r="CB36" s="21"/>
+      <c r="CC36" s="21"/>
+      <c r="CD36" s="21"/>
+      <c r="CE36" s="21"/>
+      <c r="CF36" s="21"/>
+      <c r="CG36" s="21"/>
+      <c r="CH36" s="21"/>
+      <c r="CI36" s="21"/>
+      <c r="CJ36" s="21"/>
+      <c r="CK36" s="21"/>
+      <c r="CL36" s="21"/>
+      <c r="CM36" s="21"/>
+      <c r="CN36" s="21"/>
+      <c r="CO36" s="21"/>
+      <c r="CP36" s="21"/>
+      <c r="CQ36" s="21"/>
+      <c r="CR36" s="21"/>
+      <c r="CS36" s="21"/>
+      <c r="CT36" s="21"/>
+      <c r="CU36" s="21"/>
+      <c r="CV36" s="21"/>
+      <c r="CW36" s="21"/>
+      <c r="CX36" s="21"/>
+      <c r="CY36" s="21"/>
+      <c r="CZ36" s="21"/>
+      <c r="DA36" s="21"/>
+      <c r="DB36" s="21"/>
+      <c r="DC36" s="21"/>
+      <c r="DD36" s="21"/>
+      <c r="DE36" s="21"/>
+      <c r="DF36" s="21"/>
+      <c r="DG36" s="21"/>
+      <c r="DH36" s="21"/>
+      <c r="DI36" s="21"/>
+      <c r="DJ36" s="21"/>
+      <c r="DK36" s="21"/>
+      <c r="DL36" s="21"/>
+      <c r="DM36" s="21"/>
+      <c r="DN36" s="21"/>
+      <c r="DO36" s="21"/>
+      <c r="DP36" s="21"/>
+      <c r="DQ36" s="21"/>
+      <c r="DR36" s="21"/>
+      <c r="DS36" s="21"/>
+      <c r="DT36" s="21"/>
+      <c r="DU36" s="21"/>
+      <c r="DV36" s="21"/>
+      <c r="DW36" s="21"/>
+      <c r="DX36" s="21"/>
+      <c r="DY36" s="21"/>
+      <c r="DZ36" s="21"/>
+      <c r="EA36" s="21"/>
+      <c r="EB36" s="21"/>
+      <c r="EC36" s="21"/>
+      <c r="ED36" s="21"/>
+      <c r="EE36" s="21"/>
+      <c r="EF36" s="21"/>
+      <c r="EG36" s="21"/>
+      <c r="EH36" s="21"/>
+      <c r="EI36" s="21"/>
+      <c r="EJ36" s="21"/>
+      <c r="EK36" s="21"/>
+      <c r="EL36" s="21"/>
+      <c r="EM36" s="21"/>
+      <c r="EN36" s="21"/>
+      <c r="EO36" s="21"/>
+      <c r="EP36" s="21"/>
+      <c r="EQ36" s="21"/>
+      <c r="ER36" s="21"/>
+      <c r="ES36" s="21"/>
+      <c r="ET36" s="21"/>
+      <c r="EU36" s="21"/>
+      <c r="EV36" s="21"/>
+      <c r="EW36" s="21"/>
+      <c r="EX36" s="21"/>
+      <c r="EY36" s="21"/>
+      <c r="EZ36" s="21"/>
+      <c r="FA36" s="21"/>
+      <c r="FB36" s="21"/>
+      <c r="FC36" s="21"/>
+      <c r="FD36" s="21"/>
+      <c r="FE36" s="21"/>
+      <c r="FF36" s="21"/>
+      <c r="FG36" s="21"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="34"/>
       <c r="B37" s="66" t="s">
         <v>58</v>
@@ -4978,7 +8743,7 @@
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v>14</v>
       </c>
       <c r="J37" s="21"/>
@@ -5037,8 +8802,106 @@
       <c r="BK37" s="21"/>
       <c r="BL37" s="21"/>
       <c r="BM37" s="21"/>
+      <c r="BN37" s="21"/>
+      <c r="BO37" s="21"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="21"/>
+      <c r="BR37" s="21"/>
+      <c r="BS37" s="21"/>
+      <c r="BT37" s="21"/>
+      <c r="BU37" s="21"/>
+      <c r="BV37" s="21"/>
+      <c r="BW37" s="21"/>
+      <c r="BX37" s="21"/>
+      <c r="BY37" s="21"/>
+      <c r="BZ37" s="21"/>
+      <c r="CA37" s="21"/>
+      <c r="CB37" s="21"/>
+      <c r="CC37" s="21"/>
+      <c r="CD37" s="21"/>
+      <c r="CE37" s="21"/>
+      <c r="CF37" s="21"/>
+      <c r="CG37" s="21"/>
+      <c r="CH37" s="21"/>
+      <c r="CI37" s="21"/>
+      <c r="CJ37" s="21"/>
+      <c r="CK37" s="21"/>
+      <c r="CL37" s="21"/>
+      <c r="CM37" s="21"/>
+      <c r="CN37" s="21"/>
+      <c r="CO37" s="21"/>
+      <c r="CP37" s="21"/>
+      <c r="CQ37" s="21"/>
+      <c r="CR37" s="21"/>
+      <c r="CS37" s="21"/>
+      <c r="CT37" s="21"/>
+      <c r="CU37" s="21"/>
+      <c r="CV37" s="21"/>
+      <c r="CW37" s="21"/>
+      <c r="CX37" s="21"/>
+      <c r="CY37" s="21"/>
+      <c r="CZ37" s="21"/>
+      <c r="DA37" s="21"/>
+      <c r="DB37" s="21"/>
+      <c r="DC37" s="21"/>
+      <c r="DD37" s="21"/>
+      <c r="DE37" s="21"/>
+      <c r="DF37" s="21"/>
+      <c r="DG37" s="21"/>
+      <c r="DH37" s="21"/>
+      <c r="DI37" s="21"/>
+      <c r="DJ37" s="21"/>
+      <c r="DK37" s="21"/>
+      <c r="DL37" s="21"/>
+      <c r="DM37" s="21"/>
+      <c r="DN37" s="21"/>
+      <c r="DO37" s="21"/>
+      <c r="DP37" s="21"/>
+      <c r="DQ37" s="21"/>
+      <c r="DR37" s="21"/>
+      <c r="DS37" s="21"/>
+      <c r="DT37" s="21"/>
+      <c r="DU37" s="21"/>
+      <c r="DV37" s="21"/>
+      <c r="DW37" s="21"/>
+      <c r="DX37" s="21"/>
+      <c r="DY37" s="21"/>
+      <c r="DZ37" s="21"/>
+      <c r="EA37" s="21"/>
+      <c r="EB37" s="21"/>
+      <c r="EC37" s="21"/>
+      <c r="ED37" s="21"/>
+      <c r="EE37" s="21"/>
+      <c r="EF37" s="21"/>
+      <c r="EG37" s="21"/>
+      <c r="EH37" s="21"/>
+      <c r="EI37" s="21"/>
+      <c r="EJ37" s="21"/>
+      <c r="EK37" s="21"/>
+      <c r="EL37" s="21"/>
+      <c r="EM37" s="21"/>
+      <c r="EN37" s="21"/>
+      <c r="EO37" s="21"/>
+      <c r="EP37" s="21"/>
+      <c r="EQ37" s="21"/>
+      <c r="ER37" s="21"/>
+      <c r="ES37" s="21"/>
+      <c r="ET37" s="21"/>
+      <c r="EU37" s="21"/>
+      <c r="EV37" s="21"/>
+      <c r="EW37" s="21"/>
+      <c r="EX37" s="21"/>
+      <c r="EY37" s="21"/>
+      <c r="EZ37" s="21"/>
+      <c r="FA37" s="21"/>
+      <c r="FB37" s="21"/>
+      <c r="FC37" s="21"/>
+      <c r="FD37" s="21"/>
+      <c r="FE37" s="21"/>
+      <c r="FF37" s="21"/>
+      <c r="FG37" s="21"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="34"/>
       <c r="B38" s="66" t="s">
         <v>54</v>
@@ -5055,7 +8918,7 @@
         <v>45465</v>
       </c>
       <c r="G38" s="61">
-        <f t="shared" ref="G38:G39" si="9">F38+13</f>
+        <f t="shared" ref="G38:G39" si="121">F38+13</f>
         <v>45478</v>
       </c>
       <c r="H38" s="11"/>
@@ -5116,8 +8979,106 @@
       <c r="BK38" s="21"/>
       <c r="BL38" s="21"/>
       <c r="BM38" s="21"/>
+      <c r="BN38" s="21"/>
+      <c r="BO38" s="21"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="21"/>
+      <c r="BR38" s="21"/>
+      <c r="BS38" s="21"/>
+      <c r="BT38" s="21"/>
+      <c r="BU38" s="21"/>
+      <c r="BV38" s="21"/>
+      <c r="BW38" s="21"/>
+      <c r="BX38" s="21"/>
+      <c r="BY38" s="21"/>
+      <c r="BZ38" s="21"/>
+      <c r="CA38" s="21"/>
+      <c r="CB38" s="21"/>
+      <c r="CC38" s="21"/>
+      <c r="CD38" s="21"/>
+      <c r="CE38" s="21"/>
+      <c r="CF38" s="21"/>
+      <c r="CG38" s="21"/>
+      <c r="CH38" s="21"/>
+      <c r="CI38" s="21"/>
+      <c r="CJ38" s="21"/>
+      <c r="CK38" s="21"/>
+      <c r="CL38" s="21"/>
+      <c r="CM38" s="21"/>
+      <c r="CN38" s="21"/>
+      <c r="CO38" s="21"/>
+      <c r="CP38" s="21"/>
+      <c r="CQ38" s="21"/>
+      <c r="CR38" s="21"/>
+      <c r="CS38" s="21"/>
+      <c r="CT38" s="21"/>
+      <c r="CU38" s="21"/>
+      <c r="CV38" s="21"/>
+      <c r="CW38" s="21"/>
+      <c r="CX38" s="21"/>
+      <c r="CY38" s="21"/>
+      <c r="CZ38" s="21"/>
+      <c r="DA38" s="21"/>
+      <c r="DB38" s="21"/>
+      <c r="DC38" s="21"/>
+      <c r="DD38" s="21"/>
+      <c r="DE38" s="21"/>
+      <c r="DF38" s="21"/>
+      <c r="DG38" s="21"/>
+      <c r="DH38" s="21"/>
+      <c r="DI38" s="21"/>
+      <c r="DJ38" s="21"/>
+      <c r="DK38" s="21"/>
+      <c r="DL38" s="21"/>
+      <c r="DM38" s="21"/>
+      <c r="DN38" s="21"/>
+      <c r="DO38" s="21"/>
+      <c r="DP38" s="21"/>
+      <c r="DQ38" s="21"/>
+      <c r="DR38" s="21"/>
+      <c r="DS38" s="21"/>
+      <c r="DT38" s="21"/>
+      <c r="DU38" s="21"/>
+      <c r="DV38" s="21"/>
+      <c r="DW38" s="21"/>
+      <c r="DX38" s="21"/>
+      <c r="DY38" s="21"/>
+      <c r="DZ38" s="21"/>
+      <c r="EA38" s="21"/>
+      <c r="EB38" s="21"/>
+      <c r="EC38" s="21"/>
+      <c r="ED38" s="21"/>
+      <c r="EE38" s="21"/>
+      <c r="EF38" s="21"/>
+      <c r="EG38" s="21"/>
+      <c r="EH38" s="21"/>
+      <c r="EI38" s="21"/>
+      <c r="EJ38" s="21"/>
+      <c r="EK38" s="21"/>
+      <c r="EL38" s="21"/>
+      <c r="EM38" s="21"/>
+      <c r="EN38" s="21"/>
+      <c r="EO38" s="21"/>
+      <c r="EP38" s="21"/>
+      <c r="EQ38" s="21"/>
+      <c r="ER38" s="21"/>
+      <c r="ES38" s="21"/>
+      <c r="ET38" s="21"/>
+      <c r="EU38" s="21"/>
+      <c r="EV38" s="21"/>
+      <c r="EW38" s="21"/>
+      <c r="EX38" s="21"/>
+      <c r="EY38" s="21"/>
+      <c r="EZ38" s="21"/>
+      <c r="FA38" s="21"/>
+      <c r="FB38" s="21"/>
+      <c r="FC38" s="21"/>
+      <c r="FD38" s="21"/>
+      <c r="FE38" s="21"/>
+      <c r="FF38" s="21"/>
+      <c r="FG38" s="21"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="34"/>
       <c r="B39" s="66" t="s">
         <v>56</v>
@@ -5134,7 +9095,7 @@
         <v>45465</v>
       </c>
       <c r="G39" s="61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="121"/>
         <v>45478</v>
       </c>
       <c r="H39" s="11"/>
@@ -5195,8 +9156,106 @@
       <c r="BK39" s="21"/>
       <c r="BL39" s="21"/>
       <c r="BM39" s="21"/>
+      <c r="BN39" s="21"/>
+      <c r="BO39" s="21"/>
+      <c r="BP39" s="21"/>
+      <c r="BQ39" s="21"/>
+      <c r="BR39" s="21"/>
+      <c r="BS39" s="21"/>
+      <c r="BT39" s="21"/>
+      <c r="BU39" s="21"/>
+      <c r="BV39" s="21"/>
+      <c r="BW39" s="21"/>
+      <c r="BX39" s="21"/>
+      <c r="BY39" s="21"/>
+      <c r="BZ39" s="21"/>
+      <c r="CA39" s="21"/>
+      <c r="CB39" s="21"/>
+      <c r="CC39" s="21"/>
+      <c r="CD39" s="21"/>
+      <c r="CE39" s="21"/>
+      <c r="CF39" s="21"/>
+      <c r="CG39" s="21"/>
+      <c r="CH39" s="21"/>
+      <c r="CI39" s="21"/>
+      <c r="CJ39" s="21"/>
+      <c r="CK39" s="21"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CN39" s="21"/>
+      <c r="CO39" s="21"/>
+      <c r="CP39" s="21"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
+      <c r="CS39" s="21"/>
+      <c r="CT39" s="21"/>
+      <c r="CU39" s="21"/>
+      <c r="CV39" s="21"/>
+      <c r="CW39" s="21"/>
+      <c r="CX39" s="21"/>
+      <c r="CY39" s="21"/>
+      <c r="CZ39" s="21"/>
+      <c r="DA39" s="21"/>
+      <c r="DB39" s="21"/>
+      <c r="DC39" s="21"/>
+      <c r="DD39" s="21"/>
+      <c r="DE39" s="21"/>
+      <c r="DF39" s="21"/>
+      <c r="DG39" s="21"/>
+      <c r="DH39" s="21"/>
+      <c r="DI39" s="21"/>
+      <c r="DJ39" s="21"/>
+      <c r="DK39" s="21"/>
+      <c r="DL39" s="21"/>
+      <c r="DM39" s="21"/>
+      <c r="DN39" s="21"/>
+      <c r="DO39" s="21"/>
+      <c r="DP39" s="21"/>
+      <c r="DQ39" s="21"/>
+      <c r="DR39" s="21"/>
+      <c r="DS39" s="21"/>
+      <c r="DT39" s="21"/>
+      <c r="DU39" s="21"/>
+      <c r="DV39" s="21"/>
+      <c r="DW39" s="21"/>
+      <c r="DX39" s="21"/>
+      <c r="DY39" s="21"/>
+      <c r="DZ39" s="21"/>
+      <c r="EA39" s="21"/>
+      <c r="EB39" s="21"/>
+      <c r="EC39" s="21"/>
+      <c r="ED39" s="21"/>
+      <c r="EE39" s="21"/>
+      <c r="EF39" s="21"/>
+      <c r="EG39" s="21"/>
+      <c r="EH39" s="21"/>
+      <c r="EI39" s="21"/>
+      <c r="EJ39" s="21"/>
+      <c r="EK39" s="21"/>
+      <c r="EL39" s="21"/>
+      <c r="EM39" s="21"/>
+      <c r="EN39" s="21"/>
+      <c r="EO39" s="21"/>
+      <c r="EP39" s="21"/>
+      <c r="EQ39" s="21"/>
+      <c r="ER39" s="21"/>
+      <c r="ES39" s="21"/>
+      <c r="ET39" s="21"/>
+      <c r="EU39" s="21"/>
+      <c r="EV39" s="21"/>
+      <c r="EW39" s="21"/>
+      <c r="EX39" s="21"/>
+      <c r="EY39" s="21"/>
+      <c r="EZ39" s="21"/>
+      <c r="FA39" s="21"/>
+      <c r="FB39" s="21"/>
+      <c r="FC39" s="21"/>
+      <c r="FD39" s="21"/>
+      <c r="FE39" s="21"/>
+      <c r="FF39" s="21"/>
+      <c r="FG39" s="21"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="34"/>
       <c r="B40" s="66" t="s">
         <v>55</v>
@@ -5274,8 +9333,106 @@
       <c r="BK40" s="21"/>
       <c r="BL40" s="21"/>
       <c r="BM40" s="21"/>
+      <c r="BN40" s="21"/>
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="21"/>
+      <c r="BR40" s="21"/>
+      <c r="BS40" s="21"/>
+      <c r="BT40" s="21"/>
+      <c r="BU40" s="21"/>
+      <c r="BV40" s="21"/>
+      <c r="BW40" s="21"/>
+      <c r="BX40" s="21"/>
+      <c r="BY40" s="21"/>
+      <c r="BZ40" s="21"/>
+      <c r="CA40" s="21"/>
+      <c r="CB40" s="21"/>
+      <c r="CC40" s="21"/>
+      <c r="CD40" s="21"/>
+      <c r="CE40" s="21"/>
+      <c r="CF40" s="21"/>
+      <c r="CG40" s="21"/>
+      <c r="CH40" s="21"/>
+      <c r="CI40" s="21"/>
+      <c r="CJ40" s="21"/>
+      <c r="CK40" s="21"/>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CN40" s="21"/>
+      <c r="CO40" s="21"/>
+      <c r="CP40" s="21"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
+      <c r="CS40" s="21"/>
+      <c r="CT40" s="21"/>
+      <c r="CU40" s="21"/>
+      <c r="CV40" s="21"/>
+      <c r="CW40" s="21"/>
+      <c r="CX40" s="21"/>
+      <c r="CY40" s="21"/>
+      <c r="CZ40" s="21"/>
+      <c r="DA40" s="21"/>
+      <c r="DB40" s="21"/>
+      <c r="DC40" s="21"/>
+      <c r="DD40" s="21"/>
+      <c r="DE40" s="21"/>
+      <c r="DF40" s="21"/>
+      <c r="DG40" s="21"/>
+      <c r="DH40" s="21"/>
+      <c r="DI40" s="21"/>
+      <c r="DJ40" s="21"/>
+      <c r="DK40" s="21"/>
+      <c r="DL40" s="21"/>
+      <c r="DM40" s="21"/>
+      <c r="DN40" s="21"/>
+      <c r="DO40" s="21"/>
+      <c r="DP40" s="21"/>
+      <c r="DQ40" s="21"/>
+      <c r="DR40" s="21"/>
+      <c r="DS40" s="21"/>
+      <c r="DT40" s="21"/>
+      <c r="DU40" s="21"/>
+      <c r="DV40" s="21"/>
+      <c r="DW40" s="21"/>
+      <c r="DX40" s="21"/>
+      <c r="DY40" s="21"/>
+      <c r="DZ40" s="21"/>
+      <c r="EA40" s="21"/>
+      <c r="EB40" s="21"/>
+      <c r="EC40" s="21"/>
+      <c r="ED40" s="21"/>
+      <c r="EE40" s="21"/>
+      <c r="EF40" s="21"/>
+      <c r="EG40" s="21"/>
+      <c r="EH40" s="21"/>
+      <c r="EI40" s="21"/>
+      <c r="EJ40" s="21"/>
+      <c r="EK40" s="21"/>
+      <c r="EL40" s="21"/>
+      <c r="EM40" s="21"/>
+      <c r="EN40" s="21"/>
+      <c r="EO40" s="21"/>
+      <c r="EP40" s="21"/>
+      <c r="EQ40" s="21"/>
+      <c r="ER40" s="21"/>
+      <c r="ES40" s="21"/>
+      <c r="ET40" s="21"/>
+      <c r="EU40" s="21"/>
+      <c r="EV40" s="21"/>
+      <c r="EW40" s="21"/>
+      <c r="EX40" s="21"/>
+      <c r="EY40" s="21"/>
+      <c r="EZ40" s="21"/>
+      <c r="FA40" s="21"/>
+      <c r="FB40" s="21"/>
+      <c r="FC40" s="21"/>
+      <c r="FD40" s="21"/>
+      <c r="FE40" s="21"/>
+      <c r="FF40" s="21"/>
+      <c r="FG40" s="21"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="34" t="s">
         <v>23</v>
       </c>
@@ -5292,7 +9449,7 @@
       <c r="G41" s="62"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J41" s="21"/>
@@ -5351,20 +9508,132 @@
       <c r="BK41" s="21"/>
       <c r="BL41" s="21"/>
       <c r="BM41" s="21"/>
+      <c r="BN41" s="21"/>
+      <c r="BO41" s="21"/>
+      <c r="BP41" s="21"/>
+      <c r="BQ41" s="21"/>
+      <c r="BR41" s="21"/>
+      <c r="BS41" s="21"/>
+      <c r="BT41" s="21"/>
+      <c r="BU41" s="21"/>
+      <c r="BV41" s="21"/>
+      <c r="BW41" s="21"/>
+      <c r="BX41" s="21"/>
+      <c r="BY41" s="21"/>
+      <c r="BZ41" s="21"/>
+      <c r="CA41" s="21"/>
+      <c r="CB41" s="21"/>
+      <c r="CC41" s="21"/>
+      <c r="CD41" s="21"/>
+      <c r="CE41" s="21"/>
+      <c r="CF41" s="21"/>
+      <c r="CG41" s="21"/>
+      <c r="CH41" s="21"/>
+      <c r="CI41" s="21"/>
+      <c r="CJ41" s="21"/>
+      <c r="CK41" s="21"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
+      <c r="CU41" s="21"/>
+      <c r="CV41" s="21"/>
+      <c r="CW41" s="21"/>
+      <c r="CX41" s="21"/>
+      <c r="CY41" s="21"/>
+      <c r="CZ41" s="21"/>
+      <c r="DA41" s="21"/>
+      <c r="DB41" s="21"/>
+      <c r="DC41" s="21"/>
+      <c r="DD41" s="21"/>
+      <c r="DE41" s="21"/>
+      <c r="DF41" s="21"/>
+      <c r="DG41" s="21"/>
+      <c r="DH41" s="21"/>
+      <c r="DI41" s="21"/>
+      <c r="DJ41" s="21"/>
+      <c r="DK41" s="21"/>
+      <c r="DL41" s="21"/>
+      <c r="DM41" s="21"/>
+      <c r="DN41" s="21"/>
+      <c r="DO41" s="21"/>
+      <c r="DP41" s="21"/>
+      <c r="DQ41" s="21"/>
+      <c r="DR41" s="21"/>
+      <c r="DS41" s="21"/>
+      <c r="DT41" s="21"/>
+      <c r="DU41" s="21"/>
+      <c r="DV41" s="21"/>
+      <c r="DW41" s="21"/>
+      <c r="DX41" s="21"/>
+      <c r="DY41" s="21"/>
+      <c r="DZ41" s="21"/>
+      <c r="EA41" s="21"/>
+      <c r="EB41" s="21"/>
+      <c r="EC41" s="21"/>
+      <c r="ED41" s="21"/>
+      <c r="EE41" s="21"/>
+      <c r="EF41" s="21"/>
+      <c r="EG41" s="21"/>
+      <c r="EH41" s="21"/>
+      <c r="EI41" s="21"/>
+      <c r="EJ41" s="21"/>
+      <c r="EK41" s="21"/>
+      <c r="EL41" s="21"/>
+      <c r="EM41" s="21"/>
+      <c r="EN41" s="21"/>
+      <c r="EO41" s="21"/>
+      <c r="EP41" s="21"/>
+      <c r="EQ41" s="21"/>
+      <c r="ER41" s="21"/>
+      <c r="ES41" s="21"/>
+      <c r="ET41" s="21"/>
+      <c r="EU41" s="21"/>
+      <c r="EV41" s="21"/>
+      <c r="EW41" s="21"/>
+      <c r="EX41" s="21"/>
+      <c r="EY41" s="21"/>
+      <c r="EZ41" s="21"/>
+      <c r="FA41" s="21"/>
+      <c r="FB41" s="21"/>
+      <c r="FC41" s="21"/>
+      <c r="FD41" s="21"/>
+      <c r="FE41" s="21"/>
+      <c r="FF41" s="21"/>
+      <c r="FG41" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="25">
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
+    <mergeCell ref="CB4:CH4"/>
+    <mergeCell ref="CI4:CO4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -5380,12 +9649,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM41">
+  <conditionalFormatting sqref="BN5:FG6 J5:BM41 BN8:FG41">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:BM41">
+  <conditionalFormatting sqref="J7:BM41 BN8:FG41">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5532,35 +9801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5848,27 +10088,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5887,4 +10136,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996FA8E3-DE14-40D7-8226-51F7706F6538}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247BB2F6-C68E-4364-8C5E-BA88823D29FD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1354,14 +1354,14 @@
     <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2022,24 +2022,24 @@
       <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="94">
+      <c r="F3" s="96">
         <v>45344</v>
       </c>
-      <c r="G3" s="94"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:163" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="69"/>
       <c r="F4" s="6">
         <v>1</v>
@@ -5896,9 +5896,11 @@
         <v>18</v>
       </c>
       <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="43"/>
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="43">
+        <v>1</v>
+      </c>
       <c r="F21" s="58">
         <v>45366</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="17">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="43">
         <v>3.5</v>
@@ -6254,9 +6256,11 @@
         <v>18</v>
       </c>
       <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43"/>
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="43">
+        <v>7</v>
+      </c>
       <c r="F23" s="58">
         <f>F21</f>
         <v>45366</v>
@@ -7675,7 +7679,7 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="58">
-        <f t="shared" ref="F30:F34" si="120">F30</f>
+        <f t="shared" ref="F31:F34" si="120">F30</f>
         <v>45438</v>
       </c>
       <c r="G31" s="58">
@@ -9443,7 +9447,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>26.75</v>
+        <v>34.75</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9609,16 +9613,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
     <mergeCell ref="BN4:BT4"/>
     <mergeCell ref="BU4:CA4"/>
     <mergeCell ref="CB4:CH4"/>
@@ -9634,6 +9628,16 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -9801,6 +9805,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10088,36 +10121,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10136,24 +10160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247BB2F6-C68E-4364-8C5E-BA88823D29FD}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94A7A67-9898-4355-A5D1-7D3C3B788608}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4657,10 +4657,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E14" s="41">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="55">
         <f>F13</f>
@@ -5017,10 +5017,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="41">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F16" s="55">
         <f>F13</f>
@@ -5899,7 +5899,7 @@
         <v>0.8</v>
       </c>
       <c r="E21" s="43">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F21" s="58">
         <v>45366</v>
@@ -6256,10 +6256,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="17">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F23" s="58">
         <f>F21</f>
@@ -7506,8 +7506,8 @@
         <v>45438</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" ref="G30:G34" si="119">G29</f>
-        <v>45459</v>
+        <f>F29</f>
+        <v>45453</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -7679,12 +7679,12 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="58">
-        <f t="shared" ref="F31:F34" si="120">F30</f>
+        <f t="shared" ref="F31:F33" si="119">F30</f>
         <v>45438</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="119"/>
-        <v>45459</v>
+        <f t="shared" ref="G31:G33" si="120">G30</f>
+        <v>45453</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7856,12 +7856,12 @@
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="58">
-        <f t="shared" si="120"/>
+        <f>F31</f>
         <v>45438</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" si="119"/>
-        <v>45459</v>
+        <f>G31</f>
+        <v>45453</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -8033,12 +8033,12 @@
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="58">
+        <f t="shared" si="119"/>
+        <v>45438</v>
+      </c>
+      <c r="G33" s="58">
         <f t="shared" si="120"/>
-        <v>45438</v>
-      </c>
-      <c r="G33" s="58">
-        <f t="shared" si="119"/>
-        <v>45459</v>
+        <v>45453</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -8210,11 +8210,11 @@
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="58">
-        <f t="shared" si="120"/>
-        <v>45438</v>
+        <f>F29</f>
+        <v>45453</v>
       </c>
       <c r="G34" s="58">
-        <f t="shared" si="119"/>
+        <f>G29</f>
         <v>45459</v>
       </c>
       <c r="H34" s="11"/>
@@ -9447,7 +9447,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>34.75</v>
+        <v>42.5</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9805,35 +9805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10121,27 +10092,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10160,4 +10140,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="431" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94A7A67-9898-4355-A5D1-7D3C3B788608}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A497A7-5E12-4BD9-A331-8780DF1034AF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,6 +1704,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1973,8 +1977,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3778,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="73">
         <f>Projektanfang</f>
@@ -4127,7 +4131,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="83">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="73">
         <f>Projektanfang</f>
@@ -5896,7 +5900,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="43">
         <v>1.75</v>
@@ -6077,10 +6081,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="43">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F22" s="58">
         <f>F21</f>
@@ -6256,18 +6260,18 @@
         <v>18</v>
       </c>
       <c r="D23" s="17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="43">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="F23" s="58">
         <f>F21</f>
         <v>45366</v>
       </c>
       <c r="G23" s="58">
-        <f>G21+16</f>
-        <v>45389</v>
+        <f>G21+31</f>
+        <v>45404</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -6440,11 +6444,11 @@
       <c r="E24" s="43"/>
       <c r="F24" s="58">
         <f>G23</f>
-        <v>45389</v>
+        <v>45404</v>
       </c>
       <c r="G24" s="58">
         <f>F24+21</f>
-        <v>45410</v>
+        <v>45425</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -6619,11 +6623,11 @@
       </c>
       <c r="F25" s="58">
         <f>G24</f>
-        <v>45410</v>
+        <v>45425</v>
       </c>
       <c r="G25" s="58">
         <f>F25+14</f>
-        <v>45424</v>
+        <v>45439</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
@@ -6799,11 +6803,11 @@
       <c r="E26" s="43"/>
       <c r="F26" s="58">
         <f>G25</f>
-        <v>45424</v>
+        <v>45439</v>
       </c>
       <c r="G26" s="58">
         <f>F26+14</f>
-        <v>45438</v>
+        <v>45453</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11">
@@ -7143,10 +7147,12 @@
       <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="43">
+        <v>2.75</v>
+      </c>
       <c r="F28" s="58">
         <f>F24</f>
-        <v>45389</v>
+        <v>45404</v>
       </c>
       <c r="G28" s="58">
         <f>F35-1</f>
@@ -7155,7 +7161,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11">
         <f t="shared" si="117"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -7503,7 +7509,7 @@
       <c r="E30" s="43"/>
       <c r="F30" s="58">
         <f>G26</f>
-        <v>45438</v>
+        <v>45453</v>
       </c>
       <c r="G30" s="58">
         <f>F29</f>
@@ -7680,7 +7686,7 @@
       <c r="E31" s="43"/>
       <c r="F31" s="58">
         <f t="shared" ref="F31:F33" si="119">F30</f>
-        <v>45438</v>
+        <v>45453</v>
       </c>
       <c r="G31" s="58">
         <f t="shared" ref="G31:G33" si="120">G30</f>
@@ -7857,7 +7863,7 @@
       <c r="E32" s="43"/>
       <c r="F32" s="58">
         <f>F31</f>
-        <v>45438</v>
+        <v>45453</v>
       </c>
       <c r="G32" s="58">
         <f>G31</f>
@@ -8034,7 +8040,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="58">
         <f t="shared" si="119"/>
-        <v>45438</v>
+        <v>45453</v>
       </c>
       <c r="G33" s="58">
         <f t="shared" si="120"/>
@@ -9447,7 +9453,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>42.5</v>
+        <v>53.5</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9653,7 +9659,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN5:FG6 J5:BM41 BN8:FG41">
+  <conditionalFormatting sqref="J5:BM41 BN8:FG41 BN5:FG6">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>

--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="445" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A497A7-5E12-4BD9-A331-8780DF1034AF}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7A0755-4465-43A4-9FAA-005124071A6B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,10 +1704,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1977,8 +1973,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3782,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="83">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="F9" s="73">
         <f>Projektanfang</f>
@@ -4131,7 +4127,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="83">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="73">
         <f>Projektanfang</f>
@@ -6263,7 +6259,7 @@
         <v>0.8</v>
       </c>
       <c r="E23" s="43">
-        <v>17.5</v>
+        <v>23.5</v>
       </c>
       <c r="F23" s="58">
         <f>F21</f>
@@ -7148,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="43">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="F28" s="58">
         <f>F24</f>
@@ -9453,7 +9449,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>53.5</v>
+        <v>62.25</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9619,6 +9615,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
     <mergeCell ref="BN4:BT4"/>
     <mergeCell ref="BU4:CA4"/>
     <mergeCell ref="CB4:CH4"/>
@@ -9634,16 +9640,6 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -10099,6 +10095,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10116,15 +10121,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10149,6 +10145,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10158,12 +10162,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="450" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7A0755-4465-43A4-9FAA-005124071A6B}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F66907FD-12BF-448E-808B-A8A084E6EFBF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6259,7 +6259,7 @@
         <v>0.8</v>
       </c>
       <c r="E23" s="43">
-        <v>23.5</v>
+        <v>27.5</v>
       </c>
       <c r="F23" s="58">
         <f>F21</f>
@@ -9449,7 +9449,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>62.25</v>
+        <v>66.25</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9615,16 +9615,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
     <mergeCell ref="BN4:BT4"/>
     <mergeCell ref="BU4:CA4"/>
     <mergeCell ref="CB4:CH4"/>
@@ -9640,6 +9630,16 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -9807,6 +9807,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10094,36 +10123,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10142,24 +10162,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="451" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F66907FD-12BF-448E-808B-A8A084E6EFBF}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF1E3690-A3DC-45AB-972C-9ABD27FA72F8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>Conclusion</t>
   </si>
   <si>
-    <t>Colloquium</t>
-  </si>
-  <si>
     <t>Protocols</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Familiarize with the data</t>
+  </si>
+  <si>
+    <t>Colloquium/Group Meetings</t>
   </si>
 </sst>
 </file>
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="9" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>49</v>
@@ -3945,14 +3945,14 @@
     </row>
     <row r="10" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="90" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C10" s="81" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="83">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" s="73">
         <f>Projektanfang+6</f>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="11" spans="1:163" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="81" t="s">
         <v>18</v>
@@ -4127,7 +4127,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="73">
         <f>Projektanfang</f>
@@ -5372,7 +5372,7 @@
     <row r="18" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="35"/>
       <c r="B18" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>18</v>
@@ -6071,7 +6071,7 @@
     <row r="22" spans="1:163" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="35"/>
       <c r="B22" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>18</v>
@@ -6259,7 +6259,7 @@
         <v>0.8</v>
       </c>
       <c r="E23" s="43">
-        <v>27.5</v>
+        <v>37</v>
       </c>
       <c r="F23" s="58">
         <f>F21</f>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="43">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="F28" s="58">
         <f>F24</f>
@@ -9449,7 +9449,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>66.25</v>
+        <v>82</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>

--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="461" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF1E3690-A3DC-45AB-972C-9ABD27FA72F8}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C33D5E-1669-4733-B47D-4811D0F084B6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="83">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F10" s="73">
         <f>Projektanfang+6</f>
@@ -4127,7 +4127,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="83">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="F11" s="73">
         <f>Projektanfang</f>
@@ -6256,7 +6256,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="43">
         <v>37</v>
@@ -6443,8 +6443,8 @@
         <v>45404</v>
       </c>
       <c r="G24" s="58">
-        <f>F24+21</f>
-        <v>45425</v>
+        <f>F24+35</f>
+        <v>45439</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -6619,11 +6619,11 @@
       </c>
       <c r="F25" s="58">
         <f>G24</f>
-        <v>45425</v>
+        <v>45439</v>
       </c>
       <c r="G25" s="58">
         <f>F25+14</f>
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="58">
-        <f>G25</f>
+        <f>F25</f>
         <v>45439</v>
       </c>
       <c r="G26" s="58">
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="43">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="F28" s="58">
         <f>F24</f>
@@ -7152,12 +7152,12 @@
       </c>
       <c r="G28" s="58">
         <f>F35-1</f>
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11">
         <f t="shared" si="117"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -7328,11 +7328,11 @@
       <c r="E29" s="43"/>
       <c r="F29" s="58">
         <f>F35-7</f>
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="G29" s="58">
         <f>G28</f>
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7502,14 +7502,15 @@
       <c r="D30" s="17">
         <v>0</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="43">
+        <v>3.75</v>
+      </c>
       <c r="F30" s="58">
-        <f>G26</f>
-        <v>45453</v>
+        <v>45425</v>
       </c>
       <c r="G30" s="58">
-        <f>F29</f>
-        <v>45453</v>
+        <f>F30+7</f>
+        <v>45432</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -7679,14 +7680,16 @@
       <c r="D31" s="17">
         <v>0</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="43">
+        <v>2</v>
+      </c>
       <c r="F31" s="58">
         <f t="shared" ref="F31:F33" si="119">F30</f>
-        <v>45453</v>
+        <v>45425</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" ref="G31:G33" si="120">G30</f>
-        <v>45453</v>
+        <f t="shared" ref="G31" si="120">G30</f>
+        <v>45432</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7858,12 +7861,12 @@
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="58">
-        <f>F31</f>
-        <v>45453</v>
+        <f>F29</f>
+        <v>45460</v>
       </c>
       <c r="G32" s="58">
-        <f>G31</f>
-        <v>45453</v>
+        <f>G29</f>
+        <v>45466</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -8036,11 +8039,11 @@
       <c r="E33" s="43"/>
       <c r="F33" s="58">
         <f t="shared" si="119"/>
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" si="120"/>
-        <v>45453</v>
+        <f>G32</f>
+        <v>45466</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -8213,11 +8216,11 @@
       <c r="E34" s="43"/>
       <c r="F34" s="58">
         <f>F29</f>
-        <v>45453</v>
+        <v>45460</v>
       </c>
       <c r="G34" s="58">
         <f>G29</f>
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -8389,12 +8392,12 @@
       </c>
       <c r="E35" s="77"/>
       <c r="F35" s="79">
-        <f>Projektanfang+116</f>
-        <v>45460</v>
+        <f>Projektanfang+123</f>
+        <v>45467</v>
       </c>
       <c r="G35" s="79">
         <f>F35+4</f>
-        <v>45464</v>
+        <v>45471</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -8740,17 +8743,17 @@
         <v>0</v>
       </c>
       <c r="F37" s="61">
-        <f>G35+1</f>
-        <v>45465</v>
+        <f>F35+1</f>
+        <v>45468</v>
       </c>
       <c r="G37" s="61">
-        <f>F37+13</f>
+        <f>F37+10</f>
         <v>45478</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11">
         <f t="shared" si="117"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -8920,11 +8923,11 @@
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="61">
-        <f>F37</f>
-        <v>45465</v>
+        <f>F37+6</f>
+        <v>45474</v>
       </c>
       <c r="G38" s="61">
-        <f t="shared" ref="G38:G39" si="121">F38+13</f>
+        <f>F38+4</f>
         <v>45478</v>
       </c>
       <c r="H38" s="11"/>
@@ -9097,12 +9100,12 @@
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="61">
-        <f>F38</f>
-        <v>45465</v>
+        <f>F35</f>
+        <v>45467</v>
       </c>
       <c r="G39" s="61">
-        <f t="shared" si="121"/>
-        <v>45478</v>
+        <f>F39+6</f>
+        <v>45473</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -9449,7 +9452,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>82</v>
+        <v>91.75</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9615,6 +9618,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
     <mergeCell ref="BN4:BT4"/>
     <mergeCell ref="BU4:CA4"/>
     <mergeCell ref="CB4:CH4"/>
@@ -9630,16 +9643,6 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -9807,35 +9810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10123,27 +10097,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10162,4 +10145,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="495" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C33D5E-1669-4733-B47D-4811D0F084B6}"/>
+  <xr:revisionPtr revIDLastSave="504" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72B9D1A-947C-4F30-A32C-A947D15C6903}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,6 +1704,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1973,8 +1977,8 @@
   <dimension ref="A1:FG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3952,7 +3956,7 @@
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="83">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F10" s="73">
         <f>Projektanfang+6</f>
@@ -6437,7 +6441,9 @@
       <c r="D24" s="17">
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="43">
+        <v>11</v>
+      </c>
       <c r="F24" s="58">
         <f>G23</f>
         <v>45404</v>
@@ -7503,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="43">
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="F30" s="58">
         <v>45425</v>
@@ -7681,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="43">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F31" s="58">
         <f t="shared" ref="F31:F33" si="119">F30</f>
@@ -9452,7 +9458,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>91.75</v>
+        <v>106.75</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>

--- a/Coordination/Timeline.xlsx
+++ b/Coordination/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="504" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72B9D1A-947C-4F30-A32C-A947D15C6903}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="8_{281B7E56-ED8A-4BFC-B33C-8ED0E2FBF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CEB9B6-217A-4DA1-A64F-2BA63355A69D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,10 +1704,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3782,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="83">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="F9" s="73">
         <f>Projektanfang</f>
@@ -4131,7 +4127,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="83">
-        <v>5.25</v>
+        <v>8.25</v>
       </c>
       <c r="F11" s="73">
         <f>Projektanfang</f>
@@ -6439,18 +6435,18 @@
         <v>18</v>
       </c>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="43">
-        <v>11</v>
+        <v>47.75</v>
       </c>
       <c r="F24" s="58">
         <f>G23</f>
         <v>45404</v>
       </c>
       <c r="G24" s="58">
-        <f>F24+35</f>
-        <v>45439</v>
+        <f>F24+38</f>
+        <v>45442</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -6625,11 +6621,11 @@
       </c>
       <c r="F25" s="58">
         <f>G24</f>
-        <v>45439</v>
+        <v>45442</v>
       </c>
       <c r="G25" s="58">
         <f>F25+14</f>
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
@@ -6805,11 +6801,11 @@
       <c r="E26" s="43"/>
       <c r="F26" s="58">
         <f>F25</f>
-        <v>45439</v>
+        <v>45442</v>
       </c>
       <c r="G26" s="58">
         <f>F26+14</f>
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11">
@@ -7150,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="43">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="F28" s="58">
         <f>F24</f>
@@ -7333,8 +7329,8 @@
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="58">
-        <f>F35-7</f>
-        <v>45460</v>
+        <f>F35-10</f>
+        <v>45457</v>
       </c>
       <c r="G29" s="58">
         <f>G28</f>
@@ -7506,10 +7502,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E30" s="43">
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="F30" s="58">
         <v>45425</v>
@@ -7684,13 +7680,13 @@
         <v>18</v>
       </c>
       <c r="D31" s="17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E31" s="43">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="F31" s="58">
-        <f t="shared" ref="F31:F33" si="119">F30</f>
+        <f t="shared" ref="F31" si="119">F30</f>
         <v>45425</v>
       </c>
       <c r="G31" s="58">
@@ -7867,8 +7863,8 @@
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="58">
-        <f>F29</f>
-        <v>45460</v>
+        <f>F26</f>
+        <v>45442</v>
       </c>
       <c r="G32" s="58">
         <f>G29</f>
@@ -8044,8 +8040,8 @@
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="58">
-        <f t="shared" si="119"/>
-        <v>45460</v>
+        <f>F32</f>
+        <v>45442</v>
       </c>
       <c r="G33" s="58">
         <f>G32</f>
@@ -8222,7 +8218,7 @@
       <c r="E34" s="43"/>
       <c r="F34" s="58">
         <f>F29</f>
-        <v>45460</v>
+        <v>45457</v>
       </c>
       <c r="G34" s="58">
         <f>G29</f>
@@ -9458,7 +9454,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="84">
         <f>SUM(E8:E40)</f>
-        <v>106.75</v>
+        <v>158</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -9624,16 +9620,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="DY4:EE4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="EM4:ES4"/>
-    <mergeCell ref="ET4:EZ4"/>
-    <mergeCell ref="FA4:FG4"/>
-    <mergeCell ref="CP4:CV4"/>
-    <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="DD4:DJ4"/>
-    <mergeCell ref="DK4:DQ4"/>
-    <mergeCell ref="DR4:DX4"/>
     <mergeCell ref="BN4:BT4"/>
     <mergeCell ref="BU4:CA4"/>
     <mergeCell ref="CB4:CH4"/>
@@ -9649,6 +9635,16 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="CP4:CV4"/>
+    <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="DD4:DJ4"/>
+    <mergeCell ref="DK4:DQ4"/>
+    <mergeCell ref="DR4:DX4"/>
+    <mergeCell ref="DY4:EE4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="EM4:ES4"/>
+    <mergeCell ref="ET4:EZ4"/>
+    <mergeCell ref="FA4:FG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:E7 D28:D41 D8:D26">
     <cfRule type="dataBar" priority="14">
@@ -9816,6 +9812,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10103,15 +10108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10133,6 +10129,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10153,14 +10157,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
